--- a/data/hotels_by_city/Dallas/Dallas_shard_181.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_181.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="732">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>tarahlsnow</t>
+  </si>
+  <si>
     <t>05/28/2018</t>
   </si>
   <si>
@@ -183,6 +186,9 @@
     <t>The price was the best available, hands down. The room wasn’t terrible but there are things that need to be fixed or replaced. The shower curtain has black mold, the bathroom fan was a gaping hole. There were no bed bugs, the sheets, pillows and comforter were clean and smelled good. The carpet needs to be cleaned. The furniture was nice. The door needs to be cleaned and maybe replaced. I was approached when I went to my car by a man that was with a group hanging outside of another room reserved by a woman. He was asking how long I was staying and if I was going to check out early if he could use my room until the check out time. Overall, Days Inn served its purpose, but if money were not a consideration it wouldn’t be my first choice.More</t>
   </si>
   <si>
+    <t>Ana D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r573173160-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -195,6 +201,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>Renie D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r563366687-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -216,6 +225,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>roshondaw2018</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r556515701-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -231,6 +243,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>michaelaQ7868PU</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r554686394-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -246,6 +261,9 @@
     <t xml:space="preserve">Hotel condition was run down. Water in shower would fluctuate from freezing to scalding. Overnight police arrived lights and sirens into the parking lot, three units total. </t>
   </si>
   <si>
+    <t>Juan S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r537454773-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -264,6 +282,9 @@
     <t>October 2017</t>
   </si>
   <si>
+    <t>504armandc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r517545090-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -282,6 +303,9 @@
     <t>August 2017</t>
   </si>
   <si>
+    <t>202henry</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r495463204-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -300,6 +324,9 @@
     <t>More</t>
   </si>
   <si>
+    <t>831titusb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r480956520-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -318,6 +345,9 @@
     <t>April 2017</t>
   </si>
   <si>
+    <t>88ralphf</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r475368339-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -336,6 +366,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>tessar373</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r475324853-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -348,6 +381,9 @@
     <t>This place was awful. Dirty. Lights didn't work. Shower only 1/2 worked. Old tube tv was full of static. Spots of carpet actually torn up. Paint damage. The list goes on. Also it is totally ghetto. The patrons looked like a mixture of dope heads and prostitutes. Wifi didn't work. Went to 'continental breakfast' at 9:00 on a Sunday. There was no coffee and they said we were too late - didn't even offer to make more.</t>
   </si>
   <si>
+    <t>959louise</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r470628822-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -360,6 +396,9 @@
     <t>March 2017</t>
   </si>
   <si>
+    <t>O6507FLjerrym</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r470163040-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -369,6 +408,9 @@
     <t>03/25/2017</t>
   </si>
   <si>
+    <t>bigartt</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r467311376-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -387,6 +429,9 @@
     <t>February 2017</t>
   </si>
   <si>
+    <t>jerryf848</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r463308211-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -402,6 +447,9 @@
     <t>the room was dirty .all kind of things under the bed!  electrical boxes hanging out of wall onto floor,no ice machines where noted to be,,,scary!</t>
   </si>
   <si>
+    <t>karencA4472HC</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r462101480-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -409,6 +457,9 @@
   </si>
   <si>
     <t>02/22/2017</t>
+  </si>
+  <si>
+    <t>Lori H</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r454023547-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
@@ -440,6 +491,9 @@
 ...trash!!  Not to mention noisy and...I dont find myself as a picky nor fussy person however this has been inevitably the WORSE hotel ive been!!  We travel over 2500 miles each year on roadtrips and must say again....TERRIBLE!Where do i begin!  Lets start with the phone call asking me whether or not im arriving and what time.  He goes on to tell me that if i dont show he will have to charge my card. Unfortunately i had already  booked this room online for 2 nights and was aware of the cancellation policy.  I have never had a hotel call me to find out wherher or not i showUpon arrival we come to locked doors with just a window to communicate our check-in.  After the customers before us left they let us in to complete our check-in though locked the door behind us. We needed them to unlock the door to the vending area to get a drinkNow the room....yuck!!  Appeared the room was partially cleaned as it felt like it had been used hours before. Nothing seemed stocked and just felt dirty. Half the lights didnt work, hair and used soap on the ground, hole in wall stuffed with toilet paper, holes in the walls, the bedding looked like it came from the 70s, burn holes in carpet and bedding, room smelled like urine, baseboard missing with exposed cables.  I think you get the idea ...trash!!  Not to mention noisy and people knocking on our door at night. Not sure what kind of business going on here.  We even took our bags with us rather than leave them behind for the day Im embarrassed for Wyndham Hotels for claiming this dump as one of their hotels. More</t>
   </si>
   <si>
+    <t>Michael  H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r452488332-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -458,6 +512,9 @@
     <t>I was staying in Fort Worth area for 5 days for work, checked in with my boss calling in his company card number, on the 1st morning the manager said they weren't supposed to accept payment like that from the night before. I told her that he would be there in 1 more day, and everything would be handled by him. When he arrived we went down to the front desk to arrange 2 more nights and pay with the same card that he called in with 3 days earlier, we were confronted by the rudest hotel manager I've ever seen or heard of, and said she would not accept his card because his id did not match the name on the card, which was a company card with the company name and he was the authorized signer, she could not understand why his id didn't have a company name on it. Ended up having a local police officer come out because management said we had to pay an additional night in cash to receive our belongings from the room in which we couldn't stay after, BUT they quickly changed there tune after Fort Worth PD walked in lolMore</t>
   </si>
   <si>
+    <t>862lanew</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r446724764-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -476,6 +533,9 @@
     <t>December 2016</t>
   </si>
   <si>
+    <t>williamrB1169UU</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r437494994-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -497,6 +557,9 @@
     <t>Should be $29.99 at best. Very noisy all night. Loud music and people hanging out through the night. Constantly in front of our room talking. Motel is right on I-35 so that adds to the noise even more. Had to run the AC all night to drown it all out. Limited, tight parking spaces. Vehicles in and out all through the night making drug sales and such. Check in was fast. Receptionist was friendly. WiFi is terrible so don't bother. It has a pool but I wouldn't be able to get in. Fridge and microwave and small coffee pot. Small flat screen TV. Desk available but no wall plugs available. One in the Bathroom and one behind the bed with the cover missing exposing it to the mattress and sheets. No sink in the bathroom so you have to use the sink in the common area of the room. Here come the pictures ! More</t>
   </si>
   <si>
+    <t>181guillermof</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r435705431-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -509,6 +572,9 @@
     <t>October 2016</t>
   </si>
   <si>
+    <t>scottZ3525HW</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r435626758-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -521,6 +587,9 @@
     <t>We rented a room that was in the non-smoking section but smelled very heavily of smoke. It was so bad that we had to change to another hotel. Also had some roaches in it and broken clothing racks etc. Very clear they care very little about the experience.</t>
   </si>
   <si>
+    <t>Warren L G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r435357882-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -536,6 +605,9 @@
     <t>This property could use a good fix up.RUBBER BANDS holding up the Exhaust vent cover in Bathroom...... Would be nice to have a Channel Card in the night table drawer.Carpet was sticky to the touch. Took shower and well needed another.I will NOT stay at this property ever again.I have stayed in many locations and this is the first that I will NOT STAY IN EVER AGAIN.Was supposed to be a non smoking room, Well it was a choker for me. Got out my air purifier and left for an hour.   Managed to sleep, but checked out very early......This location needs an outsider review and corrections made......!!!!</t>
   </si>
   <si>
+    <t>907dinahc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r428264206-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -545,6 +617,9 @@
     <t>10/15/2016</t>
   </si>
   <si>
+    <t>107vickieq</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r419625825-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -563,6 +638,9 @@
     <t>September 2016</t>
   </si>
   <si>
+    <t>eugenek391</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r415384429-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -572,6 +650,9 @@
     <t>09/06/2016</t>
   </si>
   <si>
+    <t>dearrothompson</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r404942177-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -590,6 +671,9 @@
     <t>August 2016</t>
   </si>
   <si>
+    <t>robertkH7563ZY</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r392932209-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -602,6 +686,9 @@
     <t>July 2016</t>
   </si>
   <si>
+    <t>519rickl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r378629908-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -620,6 +707,9 @@
     <t>May 2016</t>
   </si>
   <si>
+    <t>Robert M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r371890174-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -632,6 +722,9 @@
     <t>April 2016</t>
   </si>
   <si>
+    <t>maxpZ840DE</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r361990377-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -647,6 +740,9 @@
     <t>I pay for 3 nights, but stay only 2 nights. I did not get my money back for the one night. The manger told me to call you about my getting my money back. I did not like this. Can you get my money back. Thank You</t>
   </si>
   <si>
+    <t>889darlenel</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r356449300-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -659,6 +755,9 @@
     <t>March 2016</t>
   </si>
   <si>
+    <t>Celo2709</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r343305159-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -677,6 +776,9 @@
     <t>January 2016</t>
   </si>
   <si>
+    <t>247rc3</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r342359658-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -692,6 +794,9 @@
     <t xml:space="preserve">The rooms were dirty and smells of mold. Three rooms before there was a clean room.  I thought it was odd that they had condoms for sale at the front desk but once being in my room for a few  hour I figured out why, this is not a day inn, someone paid to use the name and that's the only way anyone will stay in this hotel never again.  </t>
   </si>
   <si>
+    <t>metaphysician</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r334678307-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -713,6 +818,9 @@
     <t>Was sent here by American Airlines because they canceled my flight.  Also gave me a food voucher but no place to use it. Stayed in 108 a handicap suite?Carpet dirty and frayed.  No clock.  Lots of loud noise and stomping around overhead, and doors slamming. Hard to get around bed, tiny room with a door.  Main room long with dirty couch by window. Brought us in the back door.  Shower leaked at every joint so couldn't use, sprayed all over bathroom so floor was slipper.  Had kitchen but no place to get food.  Didn't get to have breakfast as shuttle only runs on the hour so left before ready.  Did grab a clementine the size of a golf ball.  Turned out to be the only food I had for the day.People at the desk were nice though.More</t>
   </si>
   <si>
+    <t>Sarah P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r301334824-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -734,6 +842,9 @@
     <t>While front desk was pleasant enough... the room was anything but. Driving through the parking lot I felt like we were in the downtown hood and going to be mugged. People standing outside against the walls and hanging over the second floor railings, all looked drunk or on drugs. We checked the room... food was still in the fridge from past guests, gum in the carpets, the curtains did not cover the entire window in width or length. We had to stretch them and move a chair in front of the gaps. No clock or phone. It smelled like mildew and wet carpet. Bed was comfy, though. Feel bad writing bad review, but cost and location were what was needed and they work for a quick stay for the traveller on the go.More</t>
   </si>
   <si>
+    <t>738pr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r292782159-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -752,6 +863,9 @@
     <t>July 2015</t>
   </si>
   <si>
+    <t>Victoria R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r290573434-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -764,6 +878,9 @@
     <t>They need to use either fitted sheets or tuck in the bottom sheet on the beds.  It is the same every time I stay at this particular location.  I stay here frequently as my daughter lives in Ft. Worth.  Also, need more outlets for tablets and computers,</t>
   </si>
   <si>
+    <t>582allenb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r274672977-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -785,6 +902,9 @@
     <t>05/06/2015</t>
   </si>
   <si>
+    <t>Mark L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r270034841-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -794,6 +914,9 @@
     <t>05/04/2015</t>
   </si>
   <si>
+    <t>Tony K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r266295359-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -806,6 +929,9 @@
     <t>April 2015</t>
   </si>
   <si>
+    <t>Rona C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r260425191-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -818,6 +944,9 @@
     <t>March 2015</t>
   </si>
   <si>
+    <t>David W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r260205016-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -827,6 +956,9 @@
     <t>03/17/2015</t>
   </si>
   <si>
+    <t>Jessi Ann W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r259791239-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -845,6 +977,9 @@
     <t>Let me just start by saying this hotel was gross! We were forced to stay because of the refusal of cancellation and short on funds so walking away was not a choice. We had below sub-par service and a disgusting room. Our tv was 5 different colors, only the outside edge of the screen was what it should be... we'll call it the rainbow tv. We had NO smoke detector, the beds were both stained so bad, you'd have thought there was a couple murder victims there. There was blood on the door frame and vomit on the floor where I was supposed to do my makeup. The toilet was so close to the bathtub (with three feet between it and the wall on the other side) that I could've washed my feet while using the toilet!! The table, phone, blow-dryer, and all trim around the room were laiden with dust and dirt that my allergies were off the hook! There was one lightbulb in our bedside lamps and we had to turn that off by unscrewing the bulb and taking it completely out... just unscrewing it wouldn't ensure it was off so I'm pretty sure the wires loose had something to do with it. I had NO coffee pot but my mother just downstairs did. The sheets and pillows were stained awful (thank god Im leary and brought my own). I am still mortified at our experience. Thank goodness...Let me just start by saying this hotel was gross! We were forced to stay because of the refusal of cancellation and short on funds so walking away was not a choice. We had below sub-par service and a disgusting room. Our tv was 5 different colors, only the outside edge of the screen was what it should be... we'll call it the rainbow tv. We had NO smoke detector, the beds were both stained so bad, you'd have thought there was a couple murder victims there. There was blood on the door frame and vomit on the floor where I was supposed to do my makeup. The toilet was so close to the bathtub (with three feet between it and the wall on the other side) that I could've washed my feet while using the toilet!! The table, phone, blow-dryer, and all trim around the room were laiden with dust and dirt that my allergies were off the hook! There was one lightbulb in our bedside lamps and we had to turn that off by unscrewing the bulb and taking it completely out... just unscrewing it wouldn't ensure it was off so I'm pretty sure the wires loose had something to do with it. I had NO coffee pot but my mother just downstairs did. The sheets and pillows were stained awful (thank god Im leary and brought my own). I am still mortified at our experience. Thank goodness my cousin had a small amount of room at her house to keep my four kids so I felt at least a little better about the situation. DO NOT STAY THERE!!! FIND SOMEWHERE ELSE!!!!!!!!!!!!!!!! I BEG YOU HEED MY REVIEW!!!More</t>
   </si>
   <si>
+    <t>Travis L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r256623878-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -863,6 +998,9 @@
     <t>Quaint but cheap, 2 adults $45 per night, $15 per night for pet. Nice size room, old but new tile floor, large king size bed, comfortable mattress, well lit parking, clean outside pool. Chinese Buffet 2 blocks away, Dennys 3 blocks away across highway. Also shopping center across highway. Large hotel probably 200+ rooms but NO ice machine. Room does have good size refrigerator, microwave &amp; blow dryer but no coffee pot, clock or iron. However they do offer free WiFi &amp; free breakfast. Only thing I had issue with was ice machine they said broke long time ago &amp; won't fix. But for $45 a night for 2 adults you can't really complain. More</t>
   </si>
   <si>
+    <t>fraut348</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r253782603-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -881,6 +1019,9 @@
     <t>January 2015</t>
   </si>
   <si>
+    <t>courtneyh842</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r253588402-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -902,6 +1043,9 @@
     <t>This establishment was not at all what I thought and expected it to be.  The pictures on the website of the property were not what I found.  This establishment was dirty and unclean.  So bad in fact that I refused to let my child take off her socks all weekend.  The carpets had not been properly vacuumed EVER, there was hair all over the bathroom, that did not come from me or my family.  I was nervous and paranoid all weekend due to the nastiness of the room and the clientele staying at the hotel as well.  While packing to leave my child found a lone shoe and a remote under the bed that did not belong to us.  If I had been alone with my child and would not have stayed at this establishment.  Our room was a non smoking room, but the blankets on both of the beds had burn holes in them.  The exterior door of our room did not lock correctly, the required smoke alarm was missing off the wall, the door was missing weather stripping, I could see daylight, it was that bad.  The mattresses on the each bed were in horrible condition, to the point that if the beds were made you could see how bad they were.  Sloping, sagging, horrible to sleep on. The staff of this location was not friendly or inviting.  The grounds of this location were in desperate need of...This establishment was not at all what I thought and expected it to be.  The pictures on the website of the property were not what I found.  This establishment was dirty and unclean.  So bad in fact that I refused to let my child take off her socks all weekend.  The carpets had not been properly vacuumed EVER, there was hair all over the bathroom, that did not come from me or my family.  I was nervous and paranoid all weekend due to the nastiness of the room and the clientele staying at the hotel as well.  While packing to leave my child found a lone shoe and a remote under the bed that did not belong to us.  If I had been alone with my child and would not have stayed at this establishment.  Our room was a non smoking room, but the blankets on both of the beds had burn holes in them.  The exterior door of our room did not lock correctly, the required smoke alarm was missing off the wall, the door was missing weather stripping, I could see daylight, it was that bad.  The mattresses on the each bed were in horrible condition, to the point that if the beds were made you could see how bad they were.  Sloping, sagging, horrible to sleep on. The staff of this location was not friendly or inviting.  The grounds of this location were in desperate need of cleaning and refurbishing.  I was so grossed out by this establishment that nothing that we had in our hotel room were brought into our home for fear of god knows what lurking on our belongings.  I will never return to this establishment. More</t>
   </si>
   <si>
+    <t>OdomK</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r250534034-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -911,6 +1055,9 @@
     <t>01/22/2015</t>
   </si>
   <si>
+    <t>B1726CFdans</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r242188872-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -923,6 +1070,9 @@
     <t>November 2014</t>
   </si>
   <si>
+    <t>Jessica L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r240913038-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -944,6 +1094,9 @@
     <t>Needless to say, after reading the previous reviews, I was terrified to stay here. This hotel was booked for us, so we had no other choice. Now don't get me wrong, from all outside appearances, this is not the nicest place in Fort Worth. But once you get over the sketchy male and female hustlers surrounding the area, go inside, lock the door and enjoy a descent room. The bedding is nice as is the furniture. The room was comfortable and spacious. I pre-warn you the beds are hard as rocks and the shower head is one hard stream of water. But overall In this price range it is really the best bang for your $ in the area. Plus there are three restaurants in walking distance.More</t>
   </si>
   <si>
+    <t>852tammym</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r235691537-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -953,6 +1106,9 @@
     <t>10/22/2014</t>
   </si>
   <si>
+    <t>Judy C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r235152928-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -971,6 +1127,9 @@
     <t>September 2014</t>
   </si>
   <si>
+    <t>Brian M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r229989675-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -980,6 +1139,9 @@
     <t>09/20/2014</t>
   </si>
   <si>
+    <t>Mizzhoneysuckle</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r220444126-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -998,6 +1160,9 @@
     <t>August 2014</t>
   </si>
   <si>
+    <t>Limarie B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r219331263-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1013,6 +1178,9 @@
     <t>We drove from PA and need a room to rest. When we arrived at 3 am the area was very scary. It seems like drug dealing The room was musty and the bathroom tub and sink was clot.  I had to be creative to take a shower without being inside tub Morning breakfast was ok cereal cold / hot juices coffee bread fruits Staff polite Pool was clean and plenty seats Outside was dirty because people walk around and dump trash on floor Will not stay again</t>
   </si>
   <si>
+    <t>brumleylis</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r217119220-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1031,6 +1199,9 @@
     <t>July 2014</t>
   </si>
   <si>
+    <t>Andrea D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r211683293-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1043,6 +1214,9 @@
     <t>May 2014</t>
   </si>
   <si>
+    <t>Juan A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r210077442-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1061,6 +1235,9 @@
     <t>June 2014</t>
   </si>
   <si>
+    <t>Jerry M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r209655812-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1070,6 +1247,9 @@
     <t>06/09/2014</t>
   </si>
   <si>
+    <t>Gordon U</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r209078351-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1088,6 +1268,9 @@
     <t>05/11/2014</t>
   </si>
   <si>
+    <t>Mit P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r204830601-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1100,6 +1283,9 @@
     <t>April 2014</t>
   </si>
   <si>
+    <t>Richard M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r204654320-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1109,6 +1295,9 @@
     <t>05/08/2014</t>
   </si>
   <si>
+    <t>Pattyppp</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r204514539-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1118,6 +1307,9 @@
     <t>05/07/2014</t>
   </si>
   <si>
+    <t>Sanjeev L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r204504925-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1130,12 +1322,18 @@
     <t>This hotel really exceeded my expectations. It is everything that you would expect from a Days Inn. It had well appointed rooms and a great location. What set this Days Inn apart from the competition is its outstanding service and amazing breakfast.</t>
   </si>
   <si>
+    <t>Rostami M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r204500464-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>204500464</t>
   </si>
   <si>
+    <t>Kandice S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r203399183-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1145,6 +1343,9 @@
     <t>04/29/2014</t>
   </si>
   <si>
+    <t>Michael M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r200541445-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1154,6 +1355,9 @@
     <t>04/09/2014</t>
   </si>
   <si>
+    <t>Johnny C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r199775797-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1169,6 +1373,9 @@
     <t>on 3-30-14,about 1:00p,I called to reserve a room and that I would be there @ 5p.I did,&amp; payed,picked up my key and went to a store. 2 hrs later I went to my room &amp; found a BIG mess.The room was filthy. I called front desk,They said they will send somebody.I went to front desk &amp; said"no,I want another room." They gave me another room</t>
   </si>
   <si>
+    <t>Michelle J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r199500901-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1181,6 +1388,9 @@
     <t>March 2014</t>
   </si>
   <si>
+    <t>Janice F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r198695326-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1196,12 +1406,18 @@
     <t xml:space="preserve">The rooms were clean, large, and the staff was most accommodating. The only thing that I wish were different, is that it would have wood or tile floors instead of carpet.  the beds were fairly comfortable, a bit hard, but  better than most. AC was cold and hot water.  Their was some people staying that were a little scary, but overall was a very very good place to stay. </t>
   </si>
   <si>
+    <t>Heriberto G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r198681972-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>198681972</t>
   </si>
   <si>
+    <t>ChuckBrooks</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r197527133-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1220,6 +1436,9 @@
     <t>February 2014</t>
   </si>
   <si>
+    <t>Deterrius F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r197089390-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1229,6 +1448,9 @@
     <t>03/11/2014</t>
   </si>
   <si>
+    <t>Vanessa T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r195646366-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1238,6 +1460,9 @@
     <t>02/28/2014</t>
   </si>
   <si>
+    <t>Rhonda D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r192506385-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1250,6 +1475,9 @@
     <t>January 2014</t>
   </si>
   <si>
+    <t>Ehab H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r189368939-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1268,6 +1496,9 @@
     <t>December 2013</t>
   </si>
   <si>
+    <t>Jerry S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r181325549-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1280,6 +1511,9 @@
     <t>October 2013</t>
   </si>
   <si>
+    <t>Elizabeth L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r180200650-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1289,6 +1523,9 @@
     <t>10/08/2013</t>
   </si>
   <si>
+    <t>Angie G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r175483285-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1310,6 +1547,9 @@
     <t>The Motel was the worst place I've ever stayed in. The neighborhood is horrible. This place needs to be demolished. The door to the room had pry marks all over the door frame, only one of the room keys worked. There was a lot of plywood on the ceiling from poor patch jobs from plumbing problems from the room above. There was mold on the celing. There wasn't a lot of outlets to plug cords into, and what few there was, they didn't work. The pillows were awful, and the beds had hair in them from previous guests. There was a party carried on right outside of our room through out the night, and management didn't seem to care. Someone kept leaning against the windows and walking back and forth in front of our room all night. The next morning while packing, I found empty condem wrappers from the previous guests. The breakfast was stale pastries sitting out with flies swarming on them. The management didn't want to let us out of the second night after we notified them at 7am we would not be staying another night. This is the worst place I've ever stayed in.More</t>
   </si>
   <si>
+    <t>Michael S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r175017010-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1319,6 +1559,9 @@
     <t>08/31/2013</t>
   </si>
   <si>
+    <t>buggles22</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r172892145-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1331,6 +1574,9 @@
     <t>The room and property were nothing like the photos shown, the air conditioner was duct taped in and was very noisy as if it was ready to break down. the bathroom was awful neither one of us showered. would never recommend this motel to anyone!</t>
   </si>
   <si>
+    <t>Jocelyngomez77</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r172646210-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1346,6 +1592,9 @@
     <t xml:space="preserve">-smells like smoke -mole behind the toilets -breakfast sucked (toast, sweet bread, the juice machine was out didn't work so no juice for us) -no high chairs for my kids-stared at us the whole time while we tried to enjoy our food-rude-room weren't clean Motel 6 would probably be better than days inn. </t>
   </si>
   <si>
+    <t>brandop82</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r168252845-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1367,6 +1616,9 @@
     <t>Stay far, far away from this dump.  I stay here only because I showed up in the Dallas/Ft Worth area on a Friday night without reservations to a finer hotel.  I used a travel coupon and this was my last option.  I wish I had slept in my car.  Drugs and Gang activity seemed very active in the area.  As far as the room.  When I opened the door the smell of stale cigarette smoke dominated my non smoking room.  As I looked around, the ceiling had cracks, the door had cracks, the bathroom had pubic hair in the shower and the sink.  Overall it was very trashy.  I travel all over the country for a living and this is one of the worst places I've seen.  HOWEVER.  on a positive note.  The cable and internet is doing great!  And the bed is comfortable.  Smells of smoke and Im sleeping on top of the covers tonight but it is comfortable.  In summary.  I rarely stay at days inn.  In general, most of them are dumps.  This one confirmed my thoughts on the chain.  As far as bugs,  as of now I've yet to see a live one, other than flies.  However, when I opened the cabinet under the sink, I saw several of rotting roaches that have yet to be cleaned and removed.  OH... I almost forgot the most disgusting part!!!  While brushing my teeth I notice the sink started...Stay far, far away from this dump.  I stay here only because I showed up in the Dallas/Ft Worth area on a Friday night without reservations to a finer hotel.  I used a travel coupon and this was my last option.  I wish I had slept in my car.  Drugs and Gang activity seemed very active in the area.  As far as the room.  When I opened the door the smell of stale cigarette smoke dominated my non smoking room.  As I looked around, the ceiling had cracks, the door had cracks, the bathroom had pubic hair in the shower and the sink.  Overall it was very trashy.  I travel all over the country for a living and this is one of the worst places I've seen.  HOWEVER.  on a positive note.  The cable and internet is doing great!  And the bed is comfortable.  Smells of smoke and Im sleeping on top of the covers tonight but it is comfortable.  In summary.  I rarely stay at days inn.  In general, most of them are dumps.  This one confirmed my thoughts on the chain.  As far as bugs,  as of now I've yet to see a live one, other than flies.  However, when I opened the cabinet under the sink, I saw several of rotting roaches that have yet to be cleaned and removed.  OH... I almost forgot the most disgusting part!!!  While brushing my teeth I notice the sink started to clog up..  I looked down to notice a plastic looking substance in the drain.  Not one, but two used condoms were blocking the water flow.  I will never stay at this location again.  I will also do whatever it takes to avoid staying at a days inn again.More</t>
   </si>
   <si>
+    <t>Austin K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r166112598-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1379,6 +1631,9 @@
     <t>June 2013</t>
   </si>
   <si>
+    <t>Sandra H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r165428115-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1388,6 +1643,9 @@
     <t>06/27/2013</t>
   </si>
   <si>
+    <t>Tim C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r165327001-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1397,6 +1655,9 @@
     <t>06/26/2013</t>
   </si>
   <si>
+    <t>Will T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r164541489-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1406,6 +1667,9 @@
     <t>06/19/2013</t>
   </si>
   <si>
+    <t>Arthur T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r163515974-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1415,6 +1679,9 @@
     <t>06/09/2013</t>
   </si>
   <si>
+    <t>Lavender_Breeze</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r163504599-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1430,6 +1697,9 @@
     <t>May 2013</t>
   </si>
   <si>
+    <t>GeoLady86</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r163151812-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1445,6 +1715,9 @@
     <t xml:space="preserve">Not sure if I just got lucky with a good room, based on all the bad reviews, but I had no problems with this hotel. It is a basic room.  I was sent here by AA cuz of a delayed flight. The air conditioner worked great, the bathroom was clean with nice marble countertops and shower. No bugs. The staff was friendly and helpful. </t>
   </si>
   <si>
+    <t>Julie R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r160555864-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1454,6 +1727,9 @@
     <t>05/13/2013</t>
   </si>
   <si>
+    <t>Jody M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r160001627-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1469,12 +1745,18 @@
     <t>The hotel outside was dirty and the breakfast was poor. The beds were comfortable. I wouldn't stay there by myself since some of the residents were a bit scary.</t>
   </si>
   <si>
+    <t>Joel C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r159980399-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>159980399</t>
   </si>
   <si>
+    <t>K G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r157223876-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1487,6 +1769,9 @@
     <t>April 2013</t>
   </si>
   <si>
+    <t>Tammy C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r155880486-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1499,6 +1784,9 @@
     <t>March 2013</t>
   </si>
   <si>
+    <t>Tisha D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r154696271-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1508,6 +1796,9 @@
     <t>03/15/2013</t>
   </si>
   <si>
+    <t>John Aron J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r152716434-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1520,6 +1811,9 @@
     <t>February 2013</t>
   </si>
   <si>
+    <t>Gary P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r151914418-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1529,12 +1823,18 @@
     <t>02/11/2013</t>
   </si>
   <si>
+    <t>T R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r151903809-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>151903809</t>
   </si>
   <si>
+    <t>Matt M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r151493623-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1544,6 +1844,9 @@
     <t>02/05/2013</t>
   </si>
   <si>
+    <t>NELIA F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r150574217-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1556,6 +1859,9 @@
     <t>January 2013</t>
   </si>
   <si>
+    <t>GEORGE M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r149301518-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1565,6 +1871,9 @@
     <t>01/09/2013</t>
   </si>
   <si>
+    <t>coco L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r147902499-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1583,6 +1892,9 @@
     <t>November 2012</t>
   </si>
   <si>
+    <t>JESSICA O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r144318004-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1595,6 +1907,9 @@
     <t>October 2012</t>
   </si>
   <si>
+    <t>CONNIE W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r143266369-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1604,6 +1919,9 @@
     <t>10/20/2012</t>
   </si>
   <si>
+    <t>Manager-6005</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r142919140-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1613,6 +1931,9 @@
     <t>10/15/2012</t>
   </si>
   <si>
+    <t>Dale D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r142654427-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1622,6 +1943,9 @@
     <t>10/12/2012</t>
   </si>
   <si>
+    <t>AChick27</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r136441700-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1643,6 +1967,9 @@
     <t>I drove from coast to coast and stayed in many hotels.  I have to say that this was the worst one EVER.  I am not usually a stuck up person.  But this place was both in a horrible area and also was gross inside.  The place was in crackhead city.  For real, they were everywhere.  And there was poop in between my mattress and the wall- like ferret, or large rat possibly, or maybe like chihuahua...  There was chocolate cake and forks under the bed.  I sware!  There were holes around the light switches.  The bathroom light flickered.  There was oatmeal on the wall next to the sink ( I hope it was oatmeal).  Other than that, the place was good!  The air conditioner worked, it better -it was 109 outside.  The one guy behind the desk is the only staff I ever saw.  He was nice.More</t>
   </si>
   <si>
+    <t>meowmeow770731</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r131907006-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1661,6 +1988,9 @@
     <t>well where to start. When we got to Fort Worth the Days Inn was the only place with vacancy at the time period in that area we were at ( now I know why). They had a dog show, rodeo, Republican event, and Bowling tournament so everything was booked. The room was disgusting bed sheets dirty, bathroom (ugh) I was gagging taking a shower it had hair, snot mold ugh. The customer service was awful. The pool was filthy and had roaches. There was a hooker that usually resides there (how do I know) well we got people coming to our room at all hours of the night we stayed 3 nights. Phone calls for this "cherry" person. I asked for towels and cups they gave us 2 of each there were 4 of us their response was( "didn't you get towels and cups") Awful never will be back.More</t>
   </si>
   <si>
+    <t>Luis V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r124205248-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1679,6 +2009,9 @@
     <t>December 2011</t>
   </si>
   <si>
+    <t>Dawn W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r123001696-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1697,6 +2030,9 @@
     <t>When relocating my daughter to Houston, we stopped for the night in Ft. Worth.  Booked this place on travelocity app.  What a nasty place.  Checked in late at night, and there were people loitering all over the hotel grounds. We could clearly hear them walk past our room.  We decided to get some sleep and get out early. We chose to skip using the shower as the bathroom was nasty, the tub looked like it hadn't been cleaned.  Every hour or so I was up checking to make sure no one had broken into our car.  We thought that since it was a Days Inn it would be ok, but I wish we had driven further &amp; found something better.More</t>
   </si>
   <si>
+    <t>MissTexasTraveler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r118871195-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1736,6 +2072,9 @@
     <t>January 2010</t>
   </si>
   <si>
+    <t>Keith H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r46706327-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1757,6 +2096,9 @@
     <t>While I have never slept in a homeless shelter I am sure they had cleaner beds!  My wife and I booked this hotel in a last minute change of travel plans.  Why did I not read the Trip Advisor reviews first?  Our cab pulled up in front and let us out.  The lobby was locked and we had to stand outside and check in.  The front desk clerk was named Sonny and was not pleasant at all.  We had to walk to the back of the hotel with our luggage and guess what was the first thing we saw?  A hooker and pimp.  Yes that is right this place is teeming with hookers.  Guys with the windows open waiting for a hooker to knock on the door.  Earth to the Fort Worth police, this place is a haven for prostitution!  The carpets were filthy and lots of mold in the bathroom.  Our socks were dirty from walking on the floor.   The room had a bad smell to it as well.  The management did not care that we complained.  Never even said they were sorry.  A horrible stay at a complete dump.  Sleep in your car or the bus station but not here!More</t>
   </si>
   <si>
+    <t>rleesmith</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r25394932-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1775,6 +2117,9 @@
     <t>February 2009</t>
   </si>
   <si>
+    <t>MrB589</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r14296565-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1793,6 +2138,9 @@
     <t>March 2008</t>
   </si>
   <si>
+    <t>spiffynacho</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r13922523-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1814,6 +2162,9 @@
     <t>I guess the only positive thing I have to say about this place is how easy it was to find off I-35.  It's right next to the highway.  If you enjoy falling asleep to the sound of constant traffic, so loud it sounds like you're sleeping in the middle of the highway, book a room at this classy joint!  Hopefully you don't care about cleanliness because this place is a pit!  My room had dirt on the walls and the carpet had lots of stains and dirt and dust particles everywhere.  This is definitely a place you want to keep your socks on at all times!  The "luxurous" king size bed was extremely uncomfortable to even sit on.  If you like sleeping on cement floors, this bed will make you feel right at home.  If you're looking for high-speed Internet, don't count on it here!  The cable TV came in fuzzy and hard to see on just about every channel.  To top it all off, the room didn't even have an alarm clock!  What is this, the Middle Ages?!?  I can't believe I paid $50 for this room!More</t>
   </si>
   <si>
+    <t>earlyriserTexas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r13620260-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1832,6 +2183,9 @@
     <t>Room was not clean.  Tub drained very slowly (6 hours after three short showers).  Coffee maker and coffee, but no cups until the fifth day.  Booked the room for three people, had to ask for the third towel  EVERY day.  No bathmat.   Door wasn't secure.  Curtains wouldn't close--had to use clothespins on them.  Had a pair of boots stolen.  Exhaust fan in bathroom didn't work.  Panhandlers in the parking lot.  Had to ask for linens for roll away bed--then ended up having to go get them, because they didn't bring everything after three tries--roll away bed was mildewed.  No alarm clock.  TV was broken.  Office staff spoke VERY little english.  One member of the staff was very unhelpful--as if it was beneath him to do his job--he also spoke the worst english.  This is probably the worst part of town to stay in and feel safe.More</t>
   </si>
   <si>
+    <t>ChrisSmith</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r5500916-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1848,6 +2202,9 @@
   </si>
   <si>
     <t>July 2006</t>
+  </si>
+  <si>
+    <t>cmayo</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r3998264-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
@@ -2367,43 +2724,47 @@
       <c r="A2" t="n">
         <v>3572</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>129735</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>2</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>5</v>
@@ -2427,35 +2788,39 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>3572</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>129736</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -2463,10 +2828,10 @@
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P3" t="n">
         <v>3</v>
@@ -2487,51 +2852,52 @@
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s"/>
-      <c r="X3" t="s"/>
-      <c r="Y3" t="s"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>3572</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>118978</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="L4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="O4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P4" t="n">
         <v>1</v>
@@ -2549,35 +2915,39 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>3572</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>129737</v>
+      </c>
+      <c r="C5" t="s">
+        <v>69</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -2585,10 +2955,10 @@
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="O5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P5" t="n">
         <v>1</v>
@@ -2609,51 +2979,52 @@
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s"/>
-      <c r="X5" t="s"/>
-      <c r="Y5" t="s"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>3572</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>129738</v>
+      </c>
+      <c r="C6" t="s">
+        <v>75</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="J6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
         <v>73</v>
       </c>
-      <c r="K6" t="s">
-        <v>74</v>
-      </c>
-      <c r="L6" t="s">
-        <v>75</v>
-      </c>
-      <c r="M6" t="n">
-        <v>2</v>
-      </c>
-      <c r="N6" t="s">
-        <v>69</v>
-      </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P6" t="n">
         <v>3</v>
@@ -2677,50 +3048,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>3572</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>118065</v>
+      </c>
+      <c r="C7" t="s">
+        <v>81</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="J7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="K7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="L7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="M7" t="n">
         <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="O7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2734,50 +3109,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>3572</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>129739</v>
+      </c>
+      <c r="C8" t="s">
+        <v>88</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="J8" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="K8" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="L8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="M8" t="n">
         <v>2</v>
       </c>
       <c r="N8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="O8" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P8" t="n">
         <v>1</v>
@@ -2801,48 +3180,52 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>3572</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>129740</v>
+      </c>
+      <c r="C9" t="s">
+        <v>95</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="J9" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="K9" t="s"/>
       <c r="L9" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="O9" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P9" t="n">
         <v>1</v>
@@ -2866,50 +3249,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>3572</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>129741</v>
+      </c>
+      <c r="C10" t="s">
+        <v>102</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="J10" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="K10" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="L10" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="M10" t="n">
         <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="O10" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P10" t="n">
         <v>3</v>
@@ -2933,50 +3320,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>3572</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>129742</v>
+      </c>
+      <c r="C11" t="s">
+        <v>109</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="J11" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="K11" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="L11" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="O11" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="P11" t="n">
         <v>3</v>
@@ -3000,50 +3391,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>3572</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>129743</v>
+      </c>
+      <c r="C12" t="s">
+        <v>116</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="J12" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="K12" t="s">
+        <v>119</v>
+      </c>
+      <c r="L12" t="s">
+        <v>120</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
         <v>108</v>
       </c>
-      <c r="L12" t="s">
-        <v>109</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="s">
-        <v>99</v>
-      </c>
       <c r="O12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P12" t="n">
         <v>1</v>
@@ -3067,35 +3462,39 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>3572</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>129744</v>
+      </c>
+      <c r="C13" t="s">
+        <v>121</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="J13" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="K13" t="s"/>
       <c r="L13" t="s"/>
@@ -3103,10 +3502,10 @@
         <v>2</v>
       </c>
       <c r="N13" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="O13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P13" t="n">
         <v>3</v>
@@ -3127,36 +3526,37 @@
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s"/>
-      <c r="X13" t="s"/>
-      <c r="Y13" t="s"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>3572</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>129745</v>
+      </c>
+      <c r="C14" t="s">
+        <v>126</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="J14" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="K14" t="s"/>
       <c r="L14" t="s"/>
@@ -3164,10 +3564,10 @@
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="O14" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P14" t="n">
         <v>1</v>
@@ -3188,51 +3588,52 @@
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s"/>
-      <c r="X14" t="s"/>
-      <c r="Y14" t="s"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>3572</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>129746</v>
+      </c>
+      <c r="C15" t="s">
+        <v>130</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="J15" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="K15" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="L15" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="M15" t="n">
         <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -3252,50 +3653,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>3572</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>129747</v>
+      </c>
+      <c r="C16" t="s">
+        <v>137</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="J16" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="K16" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="L16" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="O16" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P16" t="n">
         <v>2</v>
@@ -3319,35 +3724,39 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>3572</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>129748</v>
+      </c>
+      <c r="C17" t="s">
+        <v>143</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="J17" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="K17" t="s"/>
       <c r="L17" t="s"/>
@@ -3355,10 +3764,10 @@
         <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="O17" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P17" t="n">
         <v>4</v>
@@ -3379,51 +3788,52 @@
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s"/>
-      <c r="X17" t="s"/>
-      <c r="Y17" t="s"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>3572</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>9467</v>
+      </c>
+      <c r="C18" t="s">
+        <v>147</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="J18" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="K18" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="L18" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="O18" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -3437,50 +3847,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>3572</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>129749</v>
+      </c>
+      <c r="C19" t="s">
+        <v>155</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="J19" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="K19" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="L19" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="O19" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -3494,50 +3908,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>3572</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>129750</v>
+      </c>
+      <c r="C20" t="s">
+        <v>162</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="J20" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="K20" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="L20" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="O20" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P20" t="n">
         <v>5</v>
@@ -3561,50 +3979,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>3572</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>129751</v>
+      </c>
+      <c r="C21" t="s">
+        <v>169</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="J21" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="K21" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="L21" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="M21" t="n">
         <v>2</v>
       </c>
       <c r="N21" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="O21" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3618,35 +4040,39 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>3572</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>129752</v>
+      </c>
+      <c r="C22" t="s">
+        <v>177</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="J22" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="K22" t="s"/>
       <c r="L22" t="s"/>
@@ -3654,10 +4080,10 @@
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="O22" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P22" t="n">
         <v>1</v>
@@ -3678,51 +4104,52 @@
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s"/>
-      <c r="X22" t="s"/>
-      <c r="Y22" t="s"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>3572</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>129753</v>
+      </c>
+      <c r="C23" t="s">
+        <v>182</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>161</v>
+        <v>183</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="J23" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="K23" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="L23" t="s">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="O23" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P23" t="n">
         <v>2</v>
@@ -3746,50 +4173,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>164</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>3572</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>129754</v>
+      </c>
+      <c r="C24" t="s">
+        <v>187</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>165</v>
+        <v>188</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>166</v>
+        <v>189</v>
       </c>
       <c r="J24" t="s">
-        <v>167</v>
+        <v>190</v>
       </c>
       <c r="K24" t="s">
-        <v>168</v>
+        <v>191</v>
       </c>
       <c r="L24" t="s">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="O24" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P24" t="n">
         <v>3</v>
@@ -3813,35 +4244,39 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>169</v>
+        <v>192</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>3572</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>129755</v>
+      </c>
+      <c r="C25" t="s">
+        <v>193</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>171</v>
+        <v>195</v>
       </c>
       <c r="J25" t="s">
-        <v>172</v>
+        <v>196</v>
       </c>
       <c r="K25" t="s"/>
       <c r="L25" t="s"/>
@@ -3849,10 +4284,10 @@
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -3863,51 +4298,52 @@
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s"/>
-      <c r="X25" t="s"/>
-      <c r="Y25" t="s"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>3572</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>129756</v>
+      </c>
+      <c r="C26" t="s">
+        <v>197</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="J26" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="K26" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="L26" t="s">
-        <v>177</v>
+        <v>202</v>
       </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
       <c r="O26" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P26" t="n">
         <v>4</v>
@@ -3931,35 +4367,39 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>177</v>
+        <v>202</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>3572</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>129757</v>
+      </c>
+      <c r="C27" t="s">
+        <v>204</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>179</v>
+        <v>205</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>180</v>
+        <v>206</v>
       </c>
       <c r="J27" t="s">
-        <v>181</v>
+        <v>207</v>
       </c>
       <c r="K27" t="s"/>
       <c r="L27" t="s"/>
@@ -3967,10 +4407,10 @@
         <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
       <c r="O27" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P27" t="n">
         <v>1</v>
@@ -3991,51 +4431,52 @@
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s"/>
-      <c r="X27" t="s"/>
-      <c r="Y27" t="s"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>3572</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>129758</v>
+      </c>
+      <c r="C28" t="s">
+        <v>208</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>182</v>
+        <v>209</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="J28" t="s">
-        <v>184</v>
+        <v>211</v>
       </c>
       <c r="K28" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="L28" t="s">
-        <v>186</v>
+        <v>213</v>
       </c>
       <c r="M28" t="n">
         <v>2</v>
       </c>
       <c r="N28" t="s">
-        <v>187</v>
+        <v>214</v>
       </c>
       <c r="O28" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P28" t="n">
         <v>1</v>
@@ -4059,48 +4500,52 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>186</v>
+        <v>213</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>3572</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>129759</v>
+      </c>
+      <c r="C29" t="s">
+        <v>215</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>188</v>
+        <v>216</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="J29" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="K29" t="s"/>
       <c r="L29" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>191</v>
+        <v>219</v>
       </c>
       <c r="O29" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P29" t="n">
         <v>1</v>
@@ -4124,50 +4569,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>3572</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>129760</v>
+      </c>
+      <c r="C30" t="s">
+        <v>220</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>192</v>
+        <v>221</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>193</v>
+        <v>222</v>
       </c>
       <c r="J30" t="s">
-        <v>194</v>
+        <v>223</v>
       </c>
       <c r="K30" t="s">
-        <v>195</v>
+        <v>224</v>
       </c>
       <c r="L30" t="s">
-        <v>196</v>
+        <v>225</v>
       </c>
       <c r="M30" t="n">
         <v>2</v>
       </c>
       <c r="N30" t="s">
-        <v>197</v>
+        <v>226</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P30" t="n">
         <v>3</v>
@@ -4191,48 +4640,52 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>196</v>
+        <v>225</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>3572</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>7035</v>
+      </c>
+      <c r="C31" t="s">
+        <v>227</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>198</v>
+        <v>228</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>199</v>
+        <v>229</v>
       </c>
       <c r="J31" t="s">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="K31" t="s"/>
       <c r="L31" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="O31" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P31" t="n">
         <v>3</v>
@@ -4256,50 +4709,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>3572</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>129761</v>
+      </c>
+      <c r="C32" t="s">
+        <v>232</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="J32" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="K32" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="L32" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="M32" t="n">
         <v>3</v>
       </c>
       <c r="N32" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="O32" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P32" t="n">
         <v>4</v>
@@ -4323,35 +4780,39 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>3572</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>129762</v>
+      </c>
+      <c r="C33" t="s">
+        <v>238</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>207</v>
+        <v>239</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>208</v>
+        <v>240</v>
       </c>
       <c r="J33" t="s">
-        <v>209</v>
+        <v>241</v>
       </c>
       <c r="K33" t="s"/>
       <c r="L33" t="s"/>
@@ -4359,10 +4820,10 @@
         <v>2</v>
       </c>
       <c r="N33" t="s">
-        <v>210</v>
+        <v>242</v>
       </c>
       <c r="O33" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P33" t="n">
         <v>2</v>
@@ -4383,51 +4844,52 @@
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="s"/>
-      <c r="X33" t="s"/>
-      <c r="Y33" t="s"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>3572</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>129763</v>
+      </c>
+      <c r="C34" t="s">
+        <v>243</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>211</v>
+        <v>244</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>212</v>
+        <v>245</v>
       </c>
       <c r="J34" t="s">
-        <v>213</v>
+        <v>246</v>
       </c>
       <c r="K34" t="s">
-        <v>214</v>
+        <v>247</v>
       </c>
       <c r="L34" t="s">
-        <v>215</v>
+        <v>248</v>
       </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>216</v>
+        <v>249</v>
       </c>
       <c r="O34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P34" t="n">
         <v>1</v>
@@ -4451,50 +4913,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>215</v>
+        <v>248</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>3572</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>129764</v>
+      </c>
+      <c r="C35" t="s">
+        <v>250</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>217</v>
+        <v>251</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>218</v>
+        <v>252</v>
       </c>
       <c r="J35" t="s">
-        <v>219</v>
+        <v>253</v>
       </c>
       <c r="K35" t="s">
-        <v>220</v>
+        <v>254</v>
       </c>
       <c r="L35" t="s">
-        <v>221</v>
+        <v>255</v>
       </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>216</v>
+        <v>249</v>
       </c>
       <c r="O35" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -4510,50 +4976,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>221</v>
+        <v>255</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>3572</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>129765</v>
+      </c>
+      <c r="C36" t="s">
+        <v>256</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>222</v>
+        <v>257</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>223</v>
+        <v>258</v>
       </c>
       <c r="J36" t="s">
-        <v>224</v>
+        <v>259</v>
       </c>
       <c r="K36" t="s">
-        <v>225</v>
+        <v>260</v>
       </c>
       <c r="L36" t="s">
-        <v>226</v>
+        <v>261</v>
       </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>227</v>
+        <v>262</v>
       </c>
       <c r="O36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -4567,50 +5037,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>228</v>
+        <v>263</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>3572</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>686</v>
+      </c>
+      <c r="C37" t="s">
+        <v>264</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>229</v>
+        <v>265</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>230</v>
+        <v>266</v>
       </c>
       <c r="J37" t="s">
-        <v>231</v>
+        <v>267</v>
       </c>
       <c r="K37" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="L37" t="s">
-        <v>233</v>
+        <v>269</v>
       </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
       <c r="N37" t="s">
-        <v>234</v>
+        <v>270</v>
       </c>
       <c r="O37" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -4624,50 +5098,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>235</v>
+        <v>271</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>3572</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>129766</v>
+      </c>
+      <c r="C38" t="s">
+        <v>272</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>236</v>
+        <v>273</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>237</v>
+        <v>274</v>
       </c>
       <c r="J38" t="s">
-        <v>238</v>
+        <v>275</v>
       </c>
       <c r="K38" t="s">
-        <v>239</v>
+        <v>276</v>
       </c>
       <c r="L38" t="s">
-        <v>240</v>
+        <v>277</v>
       </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
       <c r="N38" t="s">
-        <v>241</v>
+        <v>278</v>
       </c>
       <c r="O38" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P38" t="n">
         <v>2</v>
@@ -4691,50 +5169,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>240</v>
+        <v>277</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>3572</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>29142</v>
+      </c>
+      <c r="C39" t="s">
+        <v>279</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>242</v>
+        <v>280</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>243</v>
+        <v>281</v>
       </c>
       <c r="J39" t="s">
-        <v>244</v>
+        <v>282</v>
       </c>
       <c r="K39" t="s">
         <v>10</v>
       </c>
       <c r="L39" t="s">
-        <v>245</v>
+        <v>283</v>
       </c>
       <c r="M39" t="n">
         <v>3</v>
       </c>
       <c r="N39" t="s">
-        <v>241</v>
+        <v>278</v>
       </c>
       <c r="O39" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P39" t="n">
         <v>4</v>
@@ -4758,35 +5240,39 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>245</v>
+        <v>283</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>3572</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>129767</v>
+      </c>
+      <c r="C40" t="s">
+        <v>284</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>246</v>
+        <v>285</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>247</v>
+        <v>286</v>
       </c>
       <c r="J40" t="s">
-        <v>248</v>
+        <v>287</v>
       </c>
       <c r="K40" t="s"/>
       <c r="L40" t="s"/>
@@ -4794,10 +5280,10 @@
         <v>2</v>
       </c>
       <c r="N40" t="s">
-        <v>249</v>
+        <v>288</v>
       </c>
       <c r="O40" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P40" t="n">
         <v>3</v>
@@ -4816,36 +5302,37 @@
       <c r="V40" t="n">
         <v>0</v>
       </c>
-      <c r="W40" t="s"/>
-      <c r="X40" t="s"/>
-      <c r="Y40" t="s"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>3572</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>29142</v>
+      </c>
+      <c r="C41" t="s">
+        <v>279</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>250</v>
+        <v>289</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>251</v>
+        <v>290</v>
       </c>
       <c r="J41" t="s">
-        <v>252</v>
+        <v>291</v>
       </c>
       <c r="K41" t="s"/>
       <c r="L41" t="s"/>
@@ -4853,10 +5340,10 @@
         <v>3</v>
       </c>
       <c r="N41" t="s">
-        <v>249</v>
+        <v>288</v>
       </c>
       <c r="O41" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P41" t="n">
         <v>4</v>
@@ -4877,36 +5364,37 @@
       <c r="V41" t="n">
         <v>0</v>
       </c>
-      <c r="W41" t="s"/>
-      <c r="X41" t="s"/>
-      <c r="Y41" t="s"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>3572</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>790</v>
+      </c>
+      <c r="C42" t="s">
+        <v>292</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>253</v>
+        <v>293</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>254</v>
+        <v>294</v>
       </c>
       <c r="J42" t="s">
-        <v>255</v>
+        <v>295</v>
       </c>
       <c r="K42" t="s"/>
       <c r="L42" t="s"/>
@@ -4914,10 +5402,10 @@
         <v>1</v>
       </c>
       <c r="N42" t="s">
-        <v>249</v>
+        <v>288</v>
       </c>
       <c r="O42" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P42" t="n">
         <v>1</v>
@@ -4938,36 +5426,37 @@
       <c r="V42" t="n">
         <v>0</v>
       </c>
-      <c r="W42" t="s"/>
-      <c r="X42" t="s"/>
-      <c r="Y42" t="s"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>3572</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>4977</v>
+      </c>
+      <c r="C43" t="s">
+        <v>296</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>256</v>
+        <v>297</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>257</v>
+        <v>298</v>
       </c>
       <c r="J43" t="s">
-        <v>258</v>
+        <v>299</v>
       </c>
       <c r="K43" t="s"/>
       <c r="L43" t="s"/>
@@ -4975,10 +5464,10 @@
         <v>1</v>
       </c>
       <c r="N43" t="s">
-        <v>259</v>
+        <v>300</v>
       </c>
       <c r="O43" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P43" t="n">
         <v>3</v>
@@ -4999,36 +5488,37 @@
       <c r="V43" t="n">
         <v>0</v>
       </c>
-      <c r="W43" t="s"/>
-      <c r="X43" t="s"/>
-      <c r="Y43" t="s"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>3572</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>129768</v>
+      </c>
+      <c r="C44" t="s">
+        <v>301</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>260</v>
+        <v>302</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>261</v>
+        <v>303</v>
       </c>
       <c r="J44" t="s">
-        <v>262</v>
+        <v>304</v>
       </c>
       <c r="K44" t="s"/>
       <c r="L44" t="s"/>
@@ -5036,10 +5526,10 @@
         <v>1</v>
       </c>
       <c r="N44" t="s">
-        <v>263</v>
+        <v>305</v>
       </c>
       <c r="O44" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P44" t="n">
         <v>1</v>
@@ -5060,36 +5550,37 @@
       <c r="V44" t="n">
         <v>0</v>
       </c>
-      <c r="W44" t="s"/>
-      <c r="X44" t="s"/>
-      <c r="Y44" t="s"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>3572</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>4279</v>
+      </c>
+      <c r="C45" t="s">
+        <v>306</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>264</v>
+        <v>307</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>265</v>
+        <v>308</v>
       </c>
       <c r="J45" t="s">
-        <v>266</v>
+        <v>309</v>
       </c>
       <c r="K45" t="s"/>
       <c r="L45" t="s"/>
@@ -5097,10 +5588,10 @@
         <v>1</v>
       </c>
       <c r="N45" t="s">
-        <v>263</v>
+        <v>305</v>
       </c>
       <c r="O45" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P45" t="n">
         <v>1</v>
@@ -5121,51 +5612,52 @@
       <c r="V45" t="n">
         <v>0</v>
       </c>
-      <c r="W45" t="s"/>
-      <c r="X45" t="s"/>
-      <c r="Y45" t="s"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>3572</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>129769</v>
+      </c>
+      <c r="C46" t="s">
+        <v>310</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>267</v>
+        <v>311</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>268</v>
+        <v>312</v>
       </c>
       <c r="J46" t="s">
-        <v>269</v>
+        <v>313</v>
       </c>
       <c r="K46" t="s">
-        <v>270</v>
+        <v>314</v>
       </c>
       <c r="L46" t="s">
-        <v>271</v>
+        <v>315</v>
       </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
       <c r="N46" t="s">
-        <v>263</v>
+        <v>305</v>
       </c>
       <c r="O46" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P46" t="n">
         <v>1</v>
@@ -5185,41 +5677,45 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>272</v>
+        <v>316</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>3572</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>14</v>
+      </c>
+      <c r="C47" t="s">
+        <v>317</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>273</v>
+        <v>318</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>274</v>
+        <v>319</v>
       </c>
       <c r="J47" t="s">
-        <v>275</v>
+        <v>320</v>
       </c>
       <c r="K47" t="s">
-        <v>276</v>
+        <v>321</v>
       </c>
       <c r="L47" t="s">
-        <v>277</v>
+        <v>322</v>
       </c>
       <c r="M47" t="n">
         <v>3</v>
@@ -5248,50 +5744,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>278</v>
+        <v>323</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>3572</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>129770</v>
+      </c>
+      <c r="C48" t="s">
+        <v>324</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>279</v>
+        <v>325</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>280</v>
+        <v>326</v>
       </c>
       <c r="J48" t="s">
-        <v>281</v>
+        <v>327</v>
       </c>
       <c r="K48" t="s">
-        <v>282</v>
+        <v>328</v>
       </c>
       <c r="L48" t="s">
-        <v>283</v>
+        <v>329</v>
       </c>
       <c r="M48" t="n">
         <v>2</v>
       </c>
       <c r="N48" t="s">
-        <v>284</v>
+        <v>330</v>
       </c>
       <c r="O48" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P48" t="n">
         <v>2</v>
@@ -5315,50 +5815,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>283</v>
+        <v>329</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>3572</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>129771</v>
+      </c>
+      <c r="C49" t="s">
+        <v>331</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>285</v>
+        <v>332</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>286</v>
+        <v>333</v>
       </c>
       <c r="J49" t="s">
-        <v>287</v>
+        <v>334</v>
       </c>
       <c r="K49" t="s">
-        <v>288</v>
+        <v>335</v>
       </c>
       <c r="L49" t="s">
-        <v>289</v>
+        <v>336</v>
       </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
       <c r="N49" t="s">
-        <v>290</v>
+        <v>337</v>
       </c>
       <c r="O49" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P49" t="n">
         <v>1</v>
@@ -5382,35 +5886,39 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>291</v>
+        <v>338</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>3572</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>129772</v>
+      </c>
+      <c r="C50" t="s">
+        <v>339</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>292</v>
+        <v>340</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>293</v>
+        <v>341</v>
       </c>
       <c r="J50" t="s">
-        <v>294</v>
+        <v>342</v>
       </c>
       <c r="K50" t="s"/>
       <c r="L50" t="s"/>
@@ -5418,10 +5926,10 @@
         <v>3</v>
       </c>
       <c r="N50" t="s">
-        <v>284</v>
+        <v>330</v>
       </c>
       <c r="O50" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P50" t="n">
         <v>5</v>
@@ -5442,36 +5950,37 @@
       <c r="V50" t="n">
         <v>0</v>
       </c>
-      <c r="W50" t="s"/>
-      <c r="X50" t="s"/>
-      <c r="Y50" t="s"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>3572</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>129773</v>
+      </c>
+      <c r="C51" t="s">
+        <v>343</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>295</v>
+        <v>344</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>296</v>
+        <v>345</v>
       </c>
       <c r="J51" t="s">
-        <v>297</v>
+        <v>346</v>
       </c>
       <c r="K51" t="s"/>
       <c r="L51" t="s"/>
@@ -5479,10 +5988,10 @@
         <v>1</v>
       </c>
       <c r="N51" t="s">
-        <v>298</v>
+        <v>347</v>
       </c>
       <c r="O51" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P51" t="n">
         <v>1</v>
@@ -5503,51 +6012,52 @@
       <c r="V51" t="n">
         <v>0</v>
       </c>
-      <c r="W51" t="s"/>
-      <c r="X51" t="s"/>
-      <c r="Y51" t="s"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>3572</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>3658</v>
+      </c>
+      <c r="C52" t="s">
+        <v>348</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>299</v>
+        <v>349</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="J52" t="s">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="K52" t="s">
-        <v>302</v>
+        <v>352</v>
       </c>
       <c r="L52" t="s">
-        <v>303</v>
+        <v>353</v>
       </c>
       <c r="M52" t="n">
         <v>3</v>
       </c>
       <c r="N52" t="s">
-        <v>304</v>
+        <v>354</v>
       </c>
       <c r="O52" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="n">
@@ -5567,35 +6077,39 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>305</v>
+        <v>355</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>3572</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>129774</v>
+      </c>
+      <c r="C53" t="s">
+        <v>356</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>306</v>
+        <v>357</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>307</v>
+        <v>358</v>
       </c>
       <c r="J53" t="s">
-        <v>308</v>
+        <v>359</v>
       </c>
       <c r="K53" t="s"/>
       <c r="L53" t="s"/>
@@ -5603,10 +6117,10 @@
         <v>1</v>
       </c>
       <c r="N53" t="s">
-        <v>304</v>
+        <v>354</v>
       </c>
       <c r="O53" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P53" t="n">
         <v>3</v>
@@ -5627,51 +6141,52 @@
       <c r="V53" t="n">
         <v>0</v>
       </c>
-      <c r="W53" t="s"/>
-      <c r="X53" t="s"/>
-      <c r="Y53" t="s"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>3572</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>47605</v>
+      </c>
+      <c r="C54" t="s">
+        <v>360</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>309</v>
+        <v>361</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>310</v>
+        <v>362</v>
       </c>
       <c r="J54" t="s">
-        <v>311</v>
+        <v>363</v>
       </c>
       <c r="K54" t="s">
-        <v>312</v>
+        <v>364</v>
       </c>
       <c r="L54" t="s">
-        <v>313</v>
+        <v>365</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>314</v>
+        <v>366</v>
       </c>
       <c r="O54" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="P54" t="n">
         <v>5</v>
@@ -5691,35 +6206,39 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>313</v>
+        <v>365</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>3572</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>10345</v>
+      </c>
+      <c r="C55" t="s">
+        <v>367</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>315</v>
+        <v>368</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>316</v>
+        <v>369</v>
       </c>
       <c r="J55" t="s">
-        <v>317</v>
+        <v>370</v>
       </c>
       <c r="K55" t="s"/>
       <c r="L55" t="s"/>
@@ -5727,10 +6246,10 @@
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>314</v>
+        <v>366</v>
       </c>
       <c r="O55" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P55" t="n">
         <v>5</v>
@@ -5751,51 +6270,52 @@
       <c r="V55" t="n">
         <v>0</v>
       </c>
-      <c r="W55" t="s"/>
-      <c r="X55" t="s"/>
-      <c r="Y55" t="s"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>3572</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>129775</v>
+      </c>
+      <c r="C56" t="s">
+        <v>371</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>318</v>
+        <v>372</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>319</v>
+        <v>373</v>
       </c>
       <c r="J56" t="s">
-        <v>320</v>
+        <v>374</v>
       </c>
       <c r="K56" t="s">
-        <v>321</v>
+        <v>375</v>
       </c>
       <c r="L56" t="s">
-        <v>322</v>
+        <v>376</v>
       </c>
       <c r="M56" t="n">
         <v>2</v>
       </c>
       <c r="N56" t="s">
-        <v>323</v>
+        <v>377</v>
       </c>
       <c r="O56" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P56" t="s"/>
       <c r="Q56" t="n">
@@ -5815,41 +6335,45 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>322</v>
+        <v>376</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>3572</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>72476</v>
+      </c>
+      <c r="C57" t="s">
+        <v>378</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>324</v>
+        <v>379</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>325</v>
+        <v>380</v>
       </c>
       <c r="J57" t="s">
-        <v>326</v>
+        <v>381</v>
       </c>
       <c r="K57" t="s">
-        <v>327</v>
+        <v>382</v>
       </c>
       <c r="L57" t="s">
-        <v>328</v>
+        <v>383</v>
       </c>
       <c r="M57" t="n">
         <v>1</v>
@@ -5868,50 +6392,54 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>328</v>
+        <v>383</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>3572</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>129776</v>
+      </c>
+      <c r="C58" t="s">
+        <v>384</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>329</v>
+        <v>385</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>330</v>
+        <v>386</v>
       </c>
       <c r="J58" t="s">
-        <v>331</v>
+        <v>387</v>
       </c>
       <c r="K58" t="s">
-        <v>332</v>
+        <v>388</v>
       </c>
       <c r="L58" t="s">
-        <v>333</v>
+        <v>389</v>
       </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
       <c r="N58" t="s">
-        <v>334</v>
+        <v>390</v>
       </c>
       <c r="O58" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P58" t="n">
         <v>3</v>
@@ -5929,48 +6457,52 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>333</v>
+        <v>389</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>3572</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>5467</v>
+      </c>
+      <c r="C59" t="s">
+        <v>391</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>335</v>
+        <v>392</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>336</v>
+        <v>393</v>
       </c>
       <c r="J59" t="s">
-        <v>337</v>
+        <v>394</v>
       </c>
       <c r="K59" t="s"/>
       <c r="L59" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
       <c r="N59" t="s">
-        <v>338</v>
+        <v>395</v>
       </c>
       <c r="O59" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P59" t="n">
         <v>1</v>
@@ -5994,50 +6526,54 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>3572</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>25917</v>
+      </c>
+      <c r="C60" t="s">
+        <v>396</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>339</v>
+        <v>397</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>340</v>
+        <v>398</v>
       </c>
       <c r="J60" t="s">
-        <v>341</v>
+        <v>399</v>
       </c>
       <c r="K60" t="s">
-        <v>342</v>
+        <v>400</v>
       </c>
       <c r="L60" t="s">
-        <v>343</v>
+        <v>401</v>
       </c>
       <c r="M60" t="n">
         <v>3</v>
       </c>
       <c r="N60" t="s">
-        <v>344</v>
+        <v>402</v>
       </c>
       <c r="O60" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P60" t="n">
         <v>2</v>
@@ -6061,35 +6597,39 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>343</v>
+        <v>401</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>3572</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>26565</v>
+      </c>
+      <c r="C61" t="s">
+        <v>403</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>345</v>
+        <v>404</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>346</v>
+        <v>405</v>
       </c>
       <c r="J61" t="s">
-        <v>347</v>
+        <v>406</v>
       </c>
       <c r="K61" t="s"/>
       <c r="L61" t="s"/>
@@ -6097,10 +6637,10 @@
         <v>3</v>
       </c>
       <c r="N61" t="s">
-        <v>344</v>
+        <v>402</v>
       </c>
       <c r="O61" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P61" t="n">
         <v>4</v>
@@ -6121,36 +6661,37 @@
       <c r="V61" t="n">
         <v>0</v>
       </c>
-      <c r="W61" t="s"/>
-      <c r="X61" t="s"/>
-      <c r="Y61" t="s"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>3572</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>129777</v>
+      </c>
+      <c r="C62" t="s">
+        <v>407</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>348</v>
+        <v>408</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>349</v>
+        <v>409</v>
       </c>
       <c r="J62" t="s">
-        <v>350</v>
+        <v>410</v>
       </c>
       <c r="K62" t="s"/>
       <c r="L62" t="s"/>
@@ -6158,10 +6699,10 @@
         <v>2</v>
       </c>
       <c r="N62" t="s">
-        <v>344</v>
+        <v>402</v>
       </c>
       <c r="O62" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P62" t="n">
         <v>3</v>
@@ -6182,9 +6723,6 @@
       <c r="V62" t="n">
         <v>0</v>
       </c>
-      <c r="W62" t="s"/>
-      <c r="X62" t="s"/>
-      <c r="Y62" t="s"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -6196,22 +6734,22 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>351</v>
+        <v>411</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>352</v>
+        <v>412</v>
       </c>
       <c r="J63" t="s">
-        <v>353</v>
+        <v>413</v>
       </c>
       <c r="K63" t="s"/>
       <c r="L63" t="s"/>
@@ -6219,10 +6757,10 @@
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>338</v>
+        <v>395</v>
       </c>
       <c r="O63" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P63" t="n">
         <v>5</v>
@@ -6243,36 +6781,37 @@
       <c r="V63" t="n">
         <v>0</v>
       </c>
-      <c r="W63" t="s"/>
-      <c r="X63" t="s"/>
-      <c r="Y63" t="s"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>3572</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>129778</v>
+      </c>
+      <c r="C64" t="s">
+        <v>414</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>354</v>
+        <v>415</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>355</v>
+        <v>416</v>
       </c>
       <c r="J64" t="s">
-        <v>356</v>
+        <v>417</v>
       </c>
       <c r="K64" t="s"/>
       <c r="L64" t="s"/>
@@ -6280,10 +6819,10 @@
         <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>357</v>
+        <v>418</v>
       </c>
       <c r="O64" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P64" t="n">
         <v>5</v>
@@ -6304,36 +6843,37 @@
       <c r="V64" t="n">
         <v>0</v>
       </c>
-      <c r="W64" t="s"/>
-      <c r="X64" t="s"/>
-      <c r="Y64" t="s"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>3572</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>9365</v>
+      </c>
+      <c r="C65" t="s">
+        <v>419</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>358</v>
+        <v>420</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>359</v>
+        <v>421</v>
       </c>
       <c r="J65" t="s">
-        <v>360</v>
+        <v>422</v>
       </c>
       <c r="K65" t="s"/>
       <c r="L65" t="s"/>
@@ -6341,10 +6881,10 @@
         <v>4</v>
       </c>
       <c r="N65" t="s">
-        <v>338</v>
+        <v>395</v>
       </c>
       <c r="O65" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P65" t="n">
         <v>4</v>
@@ -6365,36 +6905,37 @@
       <c r="V65" t="n">
         <v>0</v>
       </c>
-      <c r="W65" t="s"/>
-      <c r="X65" t="s"/>
-      <c r="Y65" t="s"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>3572</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>129779</v>
+      </c>
+      <c r="C66" t="s">
+        <v>423</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>361</v>
+        <v>424</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>362</v>
+        <v>425</v>
       </c>
       <c r="J66" t="s">
-        <v>363</v>
+        <v>426</v>
       </c>
       <c r="K66" t="s"/>
       <c r="L66" t="s"/>
@@ -6402,10 +6943,10 @@
         <v>5</v>
       </c>
       <c r="N66" t="s">
-        <v>338</v>
+        <v>395</v>
       </c>
       <c r="O66" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P66" t="n">
         <v>5</v>
@@ -6426,51 +6967,52 @@
       <c r="V66" t="n">
         <v>0</v>
       </c>
-      <c r="W66" t="s"/>
-      <c r="X66" t="s"/>
-      <c r="Y66" t="s"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>3572</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>129780</v>
+      </c>
+      <c r="C67" t="s">
+        <v>427</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>364</v>
+        <v>428</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>365</v>
+        <v>429</v>
       </c>
       <c r="J67" t="s">
-        <v>363</v>
+        <v>426</v>
       </c>
       <c r="K67" t="s">
-        <v>366</v>
+        <v>430</v>
       </c>
       <c r="L67" t="s">
-        <v>367</v>
+        <v>431</v>
       </c>
       <c r="M67" t="n">
         <v>5</v>
       </c>
       <c r="N67" t="s">
-        <v>338</v>
+        <v>395</v>
       </c>
       <c r="O67" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P67" t="n">
         <v>5</v>
@@ -6494,35 +7036,39 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>367</v>
+        <v>431</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>3572</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>129781</v>
+      </c>
+      <c r="C68" t="s">
+        <v>432</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>368</v>
+        <v>433</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>369</v>
+        <v>434</v>
       </c>
       <c r="J68" t="s">
-        <v>363</v>
+        <v>426</v>
       </c>
       <c r="K68" t="s"/>
       <c r="L68" t="s"/>
@@ -6530,10 +7076,10 @@
         <v>5</v>
       </c>
       <c r="N68" t="s">
-        <v>338</v>
+        <v>395</v>
       </c>
       <c r="O68" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P68" t="n">
         <v>5</v>
@@ -6554,36 +7100,37 @@
       <c r="V68" t="n">
         <v>0</v>
       </c>
-      <c r="W68" t="s"/>
-      <c r="X68" t="s"/>
-      <c r="Y68" t="s"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>3572</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>129782</v>
+      </c>
+      <c r="C69" t="s">
+        <v>435</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>370</v>
+        <v>436</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>371</v>
+        <v>437</v>
       </c>
       <c r="J69" t="s">
-        <v>372</v>
+        <v>438</v>
       </c>
       <c r="K69" t="s"/>
       <c r="L69" t="s"/>
@@ -6591,10 +7138,10 @@
         <v>2</v>
       </c>
       <c r="N69" t="s">
-        <v>357</v>
+        <v>418</v>
       </c>
       <c r="O69" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P69" t="n">
         <v>3</v>
@@ -6615,36 +7162,37 @@
       <c r="V69" t="n">
         <v>0</v>
       </c>
-      <c r="W69" t="s"/>
-      <c r="X69" t="s"/>
-      <c r="Y69" t="s"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>3572</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>3657</v>
+      </c>
+      <c r="C70" t="s">
+        <v>439</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>373</v>
+        <v>440</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>374</v>
+        <v>441</v>
       </c>
       <c r="J70" t="s">
-        <v>375</v>
+        <v>442</v>
       </c>
       <c r="K70" t="s"/>
       <c r="L70" t="s"/>
@@ -6652,10 +7200,10 @@
         <v>2</v>
       </c>
       <c r="N70" t="s">
-        <v>357</v>
+        <v>418</v>
       </c>
       <c r="O70" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="P70" t="n">
         <v>2</v>
@@ -6676,51 +7224,52 @@
       <c r="V70" t="n">
         <v>0</v>
       </c>
-      <c r="W70" t="s"/>
-      <c r="X70" t="s"/>
-      <c r="Y70" t="s"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>3572</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>44684</v>
+      </c>
+      <c r="C71" t="s">
+        <v>443</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>376</v>
+        <v>444</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>377</v>
+        <v>445</v>
       </c>
       <c r="J71" t="s">
-        <v>378</v>
+        <v>446</v>
       </c>
       <c r="K71" t="s">
-        <v>379</v>
+        <v>447</v>
       </c>
       <c r="L71" t="s">
-        <v>380</v>
+        <v>448</v>
       </c>
       <c r="M71" t="n">
         <v>3</v>
       </c>
       <c r="N71" t="s">
-        <v>357</v>
+        <v>418</v>
       </c>
       <c r="O71" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="P71" t="s"/>
       <c r="Q71" t="s"/>
@@ -6734,35 +7283,39 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>380</v>
+        <v>448</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>3572</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>5706</v>
+      </c>
+      <c r="C72" t="s">
+        <v>449</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>381</v>
+        <v>450</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>382</v>
+        <v>451</v>
       </c>
       <c r="J72" t="s">
-        <v>383</v>
+        <v>452</v>
       </c>
       <c r="K72" t="s"/>
       <c r="L72" t="s"/>
@@ -6770,10 +7323,10 @@
         <v>1</v>
       </c>
       <c r="N72" t="s">
-        <v>384</v>
+        <v>453</v>
       </c>
       <c r="O72" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P72" t="n">
         <v>1</v>
@@ -6794,51 +7347,52 @@
       <c r="V72" t="n">
         <v>0</v>
       </c>
-      <c r="W72" t="s"/>
-      <c r="X72" t="s"/>
-      <c r="Y72" t="s"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>3572</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>21474</v>
+      </c>
+      <c r="C73" t="s">
+        <v>454</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>385</v>
+        <v>455</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>386</v>
+        <v>456</v>
       </c>
       <c r="J73" t="s">
-        <v>387</v>
+        <v>457</v>
       </c>
       <c r="K73" t="s">
-        <v>388</v>
+        <v>458</v>
       </c>
       <c r="L73" t="s">
-        <v>389</v>
+        <v>459</v>
       </c>
       <c r="M73" t="n">
         <v>5</v>
       </c>
       <c r="N73" t="s">
-        <v>384</v>
+        <v>453</v>
       </c>
       <c r="O73" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P73" t="n">
         <v>4</v>
@@ -6862,35 +7416,39 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>389</v>
+        <v>459</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>3572</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>6203</v>
+      </c>
+      <c r="C74" t="s">
+        <v>460</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>390</v>
+        <v>461</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>391</v>
+        <v>462</v>
       </c>
       <c r="J74" t="s">
-        <v>387</v>
+        <v>457</v>
       </c>
       <c r="K74" t="s"/>
       <c r="L74" t="s"/>
@@ -6898,10 +7456,10 @@
         <v>1</v>
       </c>
       <c r="N74" t="s">
-        <v>384</v>
+        <v>453</v>
       </c>
       <c r="O74" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P74" t="n">
         <v>1</v>
@@ -6922,51 +7480,52 @@
       <c r="V74" t="n">
         <v>0</v>
       </c>
-      <c r="W74" t="s"/>
-      <c r="X74" t="s"/>
-      <c r="Y74" t="s"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>3572</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>68136</v>
+      </c>
+      <c r="C75" t="s">
+        <v>463</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>392</v>
+        <v>464</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>393</v>
+        <v>465</v>
       </c>
       <c r="J75" t="s">
-        <v>394</v>
+        <v>466</v>
       </c>
       <c r="K75" t="s">
-        <v>395</v>
+        <v>467</v>
       </c>
       <c r="L75" t="s">
-        <v>396</v>
+        <v>468</v>
       </c>
       <c r="M75" t="n">
         <v>4</v>
       </c>
       <c r="N75" t="s">
-        <v>397</v>
+        <v>469</v>
       </c>
       <c r="O75" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="P75" t="n">
         <v>5</v>
@@ -6990,35 +7549,39 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>396</v>
+        <v>468</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>3572</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>129783</v>
+      </c>
+      <c r="C76" t="s">
+        <v>470</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>398</v>
+        <v>471</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>399</v>
+        <v>472</v>
       </c>
       <c r="J76" t="s">
-        <v>400</v>
+        <v>473</v>
       </c>
       <c r="K76" t="s"/>
       <c r="L76" t="s"/>
@@ -7026,10 +7589,10 @@
         <v>1</v>
       </c>
       <c r="N76" t="s">
-        <v>384</v>
+        <v>453</v>
       </c>
       <c r="O76" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P76" t="n">
         <v>3</v>
@@ -7050,36 +7613,37 @@
       <c r="V76" t="n">
         <v>0</v>
       </c>
-      <c r="W76" t="s"/>
-      <c r="X76" t="s"/>
-      <c r="Y76" t="s"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>3572</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>49854</v>
+      </c>
+      <c r="C77" t="s">
+        <v>474</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>401</v>
+        <v>475</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>402</v>
+        <v>476</v>
       </c>
       <c r="J77" t="s">
-        <v>403</v>
+        <v>477</v>
       </c>
       <c r="K77" t="s"/>
       <c r="L77" t="s"/>
@@ -7087,10 +7651,10 @@
         <v>1</v>
       </c>
       <c r="N77" t="s">
-        <v>397</v>
+        <v>469</v>
       </c>
       <c r="O77" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P77" t="n">
         <v>1</v>
@@ -7111,36 +7675,37 @@
       <c r="V77" t="n">
         <v>0</v>
       </c>
-      <c r="W77" t="s"/>
-      <c r="X77" t="s"/>
-      <c r="Y77" t="s"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>3572</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>9605</v>
+      </c>
+      <c r="C78" t="s">
+        <v>478</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>404</v>
+        <v>479</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>405</v>
+        <v>480</v>
       </c>
       <c r="J78" t="s">
-        <v>406</v>
+        <v>481</v>
       </c>
       <c r="K78" t="s"/>
       <c r="L78" t="s"/>
@@ -7148,10 +7713,10 @@
         <v>3</v>
       </c>
       <c r="N78" t="s">
-        <v>407</v>
+        <v>482</v>
       </c>
       <c r="O78" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P78" t="n">
         <v>4</v>
@@ -7172,51 +7737,52 @@
       <c r="V78" t="n">
         <v>0</v>
       </c>
-      <c r="W78" t="s"/>
-      <c r="X78" t="s"/>
-      <c r="Y78" t="s"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>3572</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>129784</v>
+      </c>
+      <c r="C79" t="s">
+        <v>483</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>408</v>
+        <v>484</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>409</v>
+        <v>485</v>
       </c>
       <c r="J79" t="s">
-        <v>410</v>
+        <v>486</v>
       </c>
       <c r="K79" t="s">
-        <v>411</v>
+        <v>487</v>
       </c>
       <c r="L79" t="s">
-        <v>412</v>
+        <v>488</v>
       </c>
       <c r="M79" t="n">
         <v>3</v>
       </c>
       <c r="N79" t="s">
-        <v>413</v>
+        <v>489</v>
       </c>
       <c r="O79" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P79" t="s"/>
       <c r="Q79" t="s"/>
@@ -7230,35 +7796,39 @@
       <c r="W79" t="s"/>
       <c r="X79" t="s"/>
       <c r="Y79" t="s">
-        <v>412</v>
+        <v>488</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>3572</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>6805</v>
+      </c>
+      <c r="C80" t="s">
+        <v>490</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>414</v>
+        <v>491</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>415</v>
+        <v>492</v>
       </c>
       <c r="J80" t="s">
-        <v>416</v>
+        <v>493</v>
       </c>
       <c r="K80" t="s"/>
       <c r="L80" t="s"/>
@@ -7266,10 +7836,10 @@
         <v>4</v>
       </c>
       <c r="N80" t="s">
-        <v>417</v>
+        <v>494</v>
       </c>
       <c r="O80" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P80" t="n">
         <v>4</v>
@@ -7290,49 +7860,50 @@
       <c r="V80" t="n">
         <v>0</v>
       </c>
-      <c r="W80" t="s"/>
-      <c r="X80" t="s"/>
-      <c r="Y80" t="s"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>3572</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>12936</v>
+      </c>
+      <c r="C81" t="s">
+        <v>495</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>418</v>
+        <v>496</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>419</v>
+        <v>497</v>
       </c>
       <c r="J81" t="s">
-        <v>420</v>
+        <v>498</v>
       </c>
       <c r="K81" t="s"/>
       <c r="L81" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
       <c r="N81" t="s">
-        <v>417</v>
+        <v>494</v>
       </c>
       <c r="O81" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P81" t="n">
         <v>1</v>
@@ -7356,50 +7927,54 @@
       <c r="W81" t="s"/>
       <c r="X81" t="s"/>
       <c r="Y81" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>3572</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>59985</v>
+      </c>
+      <c r="C82" t="s">
+        <v>499</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>421</v>
+        <v>500</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>422</v>
+        <v>501</v>
       </c>
       <c r="J82" t="s">
-        <v>423</v>
+        <v>502</v>
       </c>
       <c r="K82" t="s">
-        <v>424</v>
+        <v>503</v>
       </c>
       <c r="L82" t="s">
-        <v>425</v>
+        <v>504</v>
       </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
       <c r="N82" t="s">
-        <v>426</v>
+        <v>505</v>
       </c>
       <c r="O82" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P82" t="n">
         <v>1</v>
@@ -7423,35 +7998,39 @@
       <c r="W82" t="s"/>
       <c r="X82" t="s"/>
       <c r="Y82" t="s">
-        <v>427</v>
+        <v>506</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>3572</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>35</v>
+      </c>
+      <c r="C83" t="s">
+        <v>507</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>428</v>
+        <v>508</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>429</v>
+        <v>509</v>
       </c>
       <c r="J83" t="s">
-        <v>430</v>
+        <v>510</v>
       </c>
       <c r="K83" t="s"/>
       <c r="L83" t="s"/>
@@ -7459,10 +8038,10 @@
         <v>2</v>
       </c>
       <c r="N83" t="s">
-        <v>426</v>
+        <v>505</v>
       </c>
       <c r="O83" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P83" t="n">
         <v>3</v>
@@ -7483,51 +8062,52 @@
       <c r="V83" t="n">
         <v>0</v>
       </c>
-      <c r="W83" t="s"/>
-      <c r="X83" t="s"/>
-      <c r="Y83" t="s"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>3572</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>129785</v>
+      </c>
+      <c r="C84" t="s">
+        <v>511</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>431</v>
+        <v>512</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>432</v>
+        <v>513</v>
       </c>
       <c r="J84" t="s">
-        <v>433</v>
+        <v>514</v>
       </c>
       <c r="K84" t="s">
-        <v>220</v>
+        <v>254</v>
       </c>
       <c r="L84" t="s">
-        <v>434</v>
+        <v>515</v>
       </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
       <c r="N84" t="s">
-        <v>426</v>
+        <v>505</v>
       </c>
       <c r="O84" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P84" t="n">
         <v>1</v>
@@ -7551,41 +8131,45 @@
       <c r="W84" t="s"/>
       <c r="X84" t="s"/>
       <c r="Y84" t="s">
-        <v>434</v>
+        <v>515</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>3572</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>129786</v>
+      </c>
+      <c r="C85" t="s">
+        <v>516</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>435</v>
+        <v>517</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>436</v>
+        <v>518</v>
       </c>
       <c r="J85" t="s">
-        <v>437</v>
+        <v>519</v>
       </c>
       <c r="K85" t="s">
-        <v>438</v>
+        <v>520</v>
       </c>
       <c r="L85" t="s">
-        <v>439</v>
+        <v>521</v>
       </c>
       <c r="M85" t="n">
         <v>1</v>
@@ -7614,50 +8198,54 @@
       <c r="W85" t="s"/>
       <c r="X85" t="s"/>
       <c r="Y85" t="s">
-        <v>439</v>
+        <v>521</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>3572</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>129787</v>
+      </c>
+      <c r="C86" t="s">
+        <v>522</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>440</v>
+        <v>523</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>441</v>
+        <v>524</v>
       </c>
       <c r="J86" t="s">
-        <v>442</v>
+        <v>525</v>
       </c>
       <c r="K86" t="s">
-        <v>443</v>
+        <v>526</v>
       </c>
       <c r="L86" t="s">
-        <v>444</v>
+        <v>527</v>
       </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
       <c r="N86" t="s">
-        <v>445</v>
+        <v>528</v>
       </c>
       <c r="O86" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P86" t="n">
         <v>2</v>
@@ -7681,48 +8269,52 @@
       <c r="W86" t="s"/>
       <c r="X86" t="s"/>
       <c r="Y86" t="s">
-        <v>446</v>
+        <v>529</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>3572</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>129788</v>
+      </c>
+      <c r="C87" t="s">
+        <v>530</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>447</v>
+        <v>531</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>448</v>
+        <v>532</v>
       </c>
       <c r="J87" t="s">
-        <v>449</v>
+        <v>533</v>
       </c>
       <c r="K87" t="s"/>
       <c r="L87" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
       <c r="N87" t="s">
-        <v>450</v>
+        <v>534</v>
       </c>
       <c r="O87" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P87" t="n">
         <v>1</v>
@@ -7746,35 +8338,39 @@
       <c r="W87" t="s"/>
       <c r="X87" t="s"/>
       <c r="Y87" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>3572</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>9831</v>
+      </c>
+      <c r="C88" t="s">
+        <v>535</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>451</v>
+        <v>536</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>452</v>
+        <v>537</v>
       </c>
       <c r="J88" t="s">
-        <v>453</v>
+        <v>538</v>
       </c>
       <c r="K88" t="s"/>
       <c r="L88" t="s"/>
@@ -7782,10 +8378,10 @@
         <v>2</v>
       </c>
       <c r="N88" t="s">
-        <v>450</v>
+        <v>534</v>
       </c>
       <c r="O88" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P88" t="n">
         <v>4</v>
@@ -7806,36 +8402,37 @@
       <c r="V88" t="n">
         <v>0</v>
       </c>
-      <c r="W88" t="s"/>
-      <c r="X88" t="s"/>
-      <c r="Y88" t="s"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>3572</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>31308</v>
+      </c>
+      <c r="C89" t="s">
+        <v>539</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>454</v>
+        <v>540</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>455</v>
+        <v>541</v>
       </c>
       <c r="J89" t="s">
-        <v>456</v>
+        <v>542</v>
       </c>
       <c r="K89" t="s"/>
       <c r="L89" t="s"/>
@@ -7843,10 +8440,10 @@
         <v>3</v>
       </c>
       <c r="N89" t="s">
-        <v>450</v>
+        <v>534</v>
       </c>
       <c r="O89" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P89" t="n">
         <v>3</v>
@@ -7867,36 +8464,37 @@
       <c r="V89" t="n">
         <v>0</v>
       </c>
-      <c r="W89" t="s"/>
-      <c r="X89" t="s"/>
-      <c r="Y89" t="s"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>3572</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>19397</v>
+      </c>
+      <c r="C90" t="s">
+        <v>543</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>457</v>
+        <v>544</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>458</v>
+        <v>545</v>
       </c>
       <c r="J90" t="s">
-        <v>459</v>
+        <v>546</v>
       </c>
       <c r="K90" t="s"/>
       <c r="L90" t="s"/>
@@ -7904,10 +8502,10 @@
         <v>2</v>
       </c>
       <c r="N90" t="s">
-        <v>450</v>
+        <v>534</v>
       </c>
       <c r="O90" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P90" t="n">
         <v>5</v>
@@ -7928,36 +8526,37 @@
       <c r="V90" t="n">
         <v>0</v>
       </c>
-      <c r="W90" t="s"/>
-      <c r="X90" t="s"/>
-      <c r="Y90" t="s"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>3572</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>51782</v>
+      </c>
+      <c r="C91" t="s">
+        <v>547</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>460</v>
+        <v>548</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>461</v>
+        <v>549</v>
       </c>
       <c r="J91" t="s">
-        <v>462</v>
+        <v>550</v>
       </c>
       <c r="K91" t="s"/>
       <c r="L91" t="s"/>
@@ -7965,10 +8564,10 @@
         <v>4</v>
       </c>
       <c r="N91" t="s">
-        <v>450</v>
+        <v>534</v>
       </c>
       <c r="O91" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P91" t="s"/>
       <c r="Q91" t="s"/>
@@ -7979,51 +8578,52 @@
       <c r="V91" t="n">
         <v>0</v>
       </c>
-      <c r="W91" t="s"/>
-      <c r="X91" t="s"/>
-      <c r="Y91" t="s"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>3572</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>129789</v>
+      </c>
+      <c r="C92" t="s">
+        <v>551</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>463</v>
+        <v>552</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>464</v>
+        <v>553</v>
       </c>
       <c r="J92" t="s">
-        <v>462</v>
+        <v>550</v>
       </c>
       <c r="K92" t="s">
-        <v>465</v>
+        <v>554</v>
       </c>
       <c r="L92" t="s">
-        <v>466</v>
+        <v>555</v>
       </c>
       <c r="M92" t="n">
         <v>2</v>
       </c>
       <c r="N92" t="s">
-        <v>467</v>
+        <v>556</v>
       </c>
       <c r="O92" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P92" t="n">
         <v>3</v>
@@ -8047,41 +8647,45 @@
       <c r="W92" t="s"/>
       <c r="X92" t="s"/>
       <c r="Y92" t="s">
-        <v>466</v>
+        <v>555</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>3572</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>129790</v>
+      </c>
+      <c r="C93" t="s">
+        <v>557</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>468</v>
+        <v>558</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>469</v>
+        <v>559</v>
       </c>
       <c r="J93" t="s">
-        <v>470</v>
+        <v>560</v>
       </c>
       <c r="K93" t="s">
-        <v>471</v>
+        <v>561</v>
       </c>
       <c r="L93" t="s">
-        <v>472</v>
+        <v>562</v>
       </c>
       <c r="M93" t="n">
         <v>4</v>
@@ -8110,35 +8714,39 @@
       <c r="W93" t="s"/>
       <c r="X93" t="s"/>
       <c r="Y93" t="s">
-        <v>472</v>
+        <v>562</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>3572</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>29551</v>
+      </c>
+      <c r="C94" t="s">
+        <v>563</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>473</v>
+        <v>564</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I94" t="s">
-        <v>474</v>
+        <v>565</v>
       </c>
       <c r="J94" t="s">
-        <v>475</v>
+        <v>566</v>
       </c>
       <c r="K94" t="s"/>
       <c r="L94" t="s"/>
@@ -8146,10 +8754,10 @@
         <v>3</v>
       </c>
       <c r="N94" t="s">
-        <v>467</v>
+        <v>556</v>
       </c>
       <c r="O94" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P94" t="n">
         <v>5</v>
@@ -8170,51 +8778,52 @@
       <c r="V94" t="n">
         <v>0</v>
       </c>
-      <c r="W94" t="s"/>
-      <c r="X94" t="s"/>
-      <c r="Y94" t="s"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>3572</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>66757</v>
+      </c>
+      <c r="C95" t="s">
+        <v>567</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F95" t="s">
-        <v>476</v>
+        <v>568</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I95" t="s">
-        <v>477</v>
+        <v>569</v>
       </c>
       <c r="J95" t="s">
-        <v>478</v>
+        <v>570</v>
       </c>
       <c r="K95" t="s">
-        <v>479</v>
+        <v>571</v>
       </c>
       <c r="L95" t="s">
-        <v>480</v>
+        <v>572</v>
       </c>
       <c r="M95" t="n">
         <v>3</v>
       </c>
       <c r="N95" t="s">
-        <v>467</v>
+        <v>556</v>
       </c>
       <c r="O95" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P95" t="n">
         <v>3</v>
@@ -8238,35 +8847,39 @@
       <c r="W95" t="s"/>
       <c r="X95" t="s"/>
       <c r="Y95" t="s">
-        <v>480</v>
+        <v>572</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>3572</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>51237</v>
+      </c>
+      <c r="C96" t="s">
+        <v>573</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F96" t="s">
-        <v>481</v>
+        <v>574</v>
       </c>
       <c r="G96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I96" t="s">
-        <v>482</v>
+        <v>575</v>
       </c>
       <c r="J96" t="s">
-        <v>478</v>
+        <v>570</v>
       </c>
       <c r="K96" t="s"/>
       <c r="L96" t="s"/>
@@ -8274,10 +8887,10 @@
         <v>1</v>
       </c>
       <c r="N96" t="s">
-        <v>467</v>
+        <v>556</v>
       </c>
       <c r="O96" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P96" t="n">
         <v>1</v>
@@ -8298,36 +8911,37 @@
       <c r="V96" t="n">
         <v>0</v>
       </c>
-      <c r="W96" t="s"/>
-      <c r="X96" t="s"/>
-      <c r="Y96" t="s"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>3572</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>91089</v>
+      </c>
+      <c r="C97" t="s">
+        <v>576</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F97" t="s">
-        <v>483</v>
+        <v>577</v>
       </c>
       <c r="G97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I97" t="s">
-        <v>484</v>
+        <v>578</v>
       </c>
       <c r="J97" t="s">
-        <v>485</v>
+        <v>579</v>
       </c>
       <c r="K97" t="s"/>
       <c r="L97" t="s"/>
@@ -8335,10 +8949,10 @@
         <v>2</v>
       </c>
       <c r="N97" t="s">
-        <v>486</v>
+        <v>580</v>
       </c>
       <c r="O97" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P97" t="n">
         <v>5</v>
@@ -8359,49 +8973,50 @@
       <c r="V97" t="n">
         <v>0</v>
       </c>
-      <c r="W97" t="s"/>
-      <c r="X97" t="s"/>
-      <c r="Y97" t="s"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>3572</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>11921</v>
+      </c>
+      <c r="C98" t="s">
+        <v>581</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F98" t="s">
-        <v>487</v>
+        <v>582</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I98" t="s">
-        <v>488</v>
+        <v>583</v>
       </c>
       <c r="J98" t="s">
-        <v>489</v>
+        <v>584</v>
       </c>
       <c r="K98" t="s"/>
       <c r="L98" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="M98" t="n">
         <v>2</v>
       </c>
       <c r="N98" t="s">
-        <v>490</v>
+        <v>585</v>
       </c>
       <c r="O98" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P98" t="n">
         <v>4</v>
@@ -8425,35 +9040,39 @@
       <c r="W98" t="s"/>
       <c r="X98" t="s"/>
       <c r="Y98" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>3572</v>
       </c>
-      <c r="B99" t="s"/>
-      <c r="C99" t="s"/>
+      <c r="B99" t="n">
+        <v>129791</v>
+      </c>
+      <c r="C99" t="s">
+        <v>586</v>
+      </c>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F99" t="s">
-        <v>491</v>
+        <v>587</v>
       </c>
       <c r="G99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I99" t="s">
-        <v>492</v>
+        <v>588</v>
       </c>
       <c r="J99" t="s">
-        <v>493</v>
+        <v>589</v>
       </c>
       <c r="K99" t="s"/>
       <c r="L99" t="s"/>
@@ -8461,10 +9080,10 @@
         <v>1</v>
       </c>
       <c r="N99" t="s">
-        <v>490</v>
+        <v>585</v>
       </c>
       <c r="O99" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P99" t="n">
         <v>5</v>
@@ -8485,36 +9104,37 @@
       <c r="V99" t="n">
         <v>0</v>
       </c>
-      <c r="W99" t="s"/>
-      <c r="X99" t="s"/>
-      <c r="Y99" t="s"/>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>3572</v>
       </c>
-      <c r="B100" t="s"/>
-      <c r="C100" t="s"/>
+      <c r="B100" t="n">
+        <v>129792</v>
+      </c>
+      <c r="C100" t="s">
+        <v>590</v>
+      </c>
       <c r="D100" t="n">
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F100" t="s">
-        <v>494</v>
+        <v>591</v>
       </c>
       <c r="G100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I100" t="s">
-        <v>495</v>
+        <v>592</v>
       </c>
       <c r="J100" t="s">
-        <v>496</v>
+        <v>593</v>
       </c>
       <c r="K100" t="s"/>
       <c r="L100" t="s"/>
@@ -8522,10 +9142,10 @@
         <v>2</v>
       </c>
       <c r="N100" t="s">
-        <v>497</v>
+        <v>594</v>
       </c>
       <c r="O100" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P100" t="n">
         <v>4</v>
@@ -8544,36 +9164,37 @@
       <c r="V100" t="n">
         <v>0</v>
       </c>
-      <c r="W100" t="s"/>
-      <c r="X100" t="s"/>
-      <c r="Y100" t="s"/>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>3572</v>
       </c>
-      <c r="B101" t="s"/>
-      <c r="C101" t="s"/>
+      <c r="B101" t="n">
+        <v>30161</v>
+      </c>
+      <c r="C101" t="s">
+        <v>595</v>
+      </c>
       <c r="D101" t="n">
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F101" t="s">
-        <v>498</v>
+        <v>596</v>
       </c>
       <c r="G101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I101" t="s">
-        <v>499</v>
+        <v>597</v>
       </c>
       <c r="J101" t="s">
-        <v>500</v>
+        <v>598</v>
       </c>
       <c r="K101" t="s"/>
       <c r="L101" t="s"/>
@@ -8581,10 +9202,10 @@
         <v>2</v>
       </c>
       <c r="N101" t="s">
-        <v>497</v>
+        <v>594</v>
       </c>
       <c r="O101" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P101" t="n">
         <v>1</v>
@@ -8605,49 +9226,50 @@
       <c r="V101" t="n">
         <v>0</v>
       </c>
-      <c r="W101" t="s"/>
-      <c r="X101" t="s"/>
-      <c r="Y101" t="s"/>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>3572</v>
       </c>
-      <c r="B102" t="s"/>
-      <c r="C102" t="s"/>
+      <c r="B102" t="n">
+        <v>62864</v>
+      </c>
+      <c r="C102" t="s">
+        <v>599</v>
+      </c>
       <c r="D102" t="n">
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F102" t="s">
-        <v>501</v>
+        <v>600</v>
       </c>
       <c r="G102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I102" t="s">
-        <v>502</v>
+        <v>601</v>
       </c>
       <c r="J102" t="s">
-        <v>500</v>
+        <v>598</v>
       </c>
       <c r="K102" t="s"/>
       <c r="L102" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="M102" t="n">
         <v>2</v>
       </c>
       <c r="N102" t="s">
-        <v>497</v>
+        <v>594</v>
       </c>
       <c r="O102" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P102" t="n">
         <v>3</v>
@@ -8671,35 +9293,39 @@
       <c r="W102" t="s"/>
       <c r="X102" t="s"/>
       <c r="Y102" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
         <v>3572</v>
       </c>
-      <c r="B103" t="s"/>
-      <c r="C103" t="s"/>
+      <c r="B103" t="n">
+        <v>12010</v>
+      </c>
+      <c r="C103" t="s">
+        <v>602</v>
+      </c>
       <c r="D103" t="n">
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F103" t="s">
-        <v>503</v>
+        <v>603</v>
       </c>
       <c r="G103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H103" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I103" t="s">
-        <v>504</v>
+        <v>604</v>
       </c>
       <c r="J103" t="s">
-        <v>505</v>
+        <v>605</v>
       </c>
       <c r="K103" t="s"/>
       <c r="L103" t="s"/>
@@ -8707,10 +9333,10 @@
         <v>1</v>
       </c>
       <c r="N103" t="s">
-        <v>497</v>
+        <v>594</v>
       </c>
       <c r="O103" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P103" t="n">
         <v>1</v>
@@ -8731,36 +9357,37 @@
       <c r="V103" t="n">
         <v>0</v>
       </c>
-      <c r="W103" t="s"/>
-      <c r="X103" t="s"/>
-      <c r="Y103" t="s"/>
     </row>
     <row r="104">
       <c r="A104" t="n">
         <v>3572</v>
       </c>
-      <c r="B104" t="s"/>
-      <c r="C104" t="s"/>
+      <c r="B104" t="n">
+        <v>129793</v>
+      </c>
+      <c r="C104" t="s">
+        <v>606</v>
+      </c>
       <c r="D104" t="n">
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F104" t="s">
-        <v>506</v>
+        <v>607</v>
       </c>
       <c r="G104" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H104" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I104" t="s">
-        <v>507</v>
+        <v>608</v>
       </c>
       <c r="J104" t="s">
-        <v>508</v>
+        <v>609</v>
       </c>
       <c r="K104" t="s"/>
       <c r="L104" t="s"/>
@@ -8768,10 +9395,10 @@
         <v>3</v>
       </c>
       <c r="N104" t="s">
-        <v>509</v>
+        <v>610</v>
       </c>
       <c r="O104" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="P104" t="n">
         <v>3</v>
@@ -8792,36 +9419,37 @@
       <c r="V104" t="n">
         <v>0</v>
       </c>
-      <c r="W104" t="s"/>
-      <c r="X104" t="s"/>
-      <c r="Y104" t="s"/>
     </row>
     <row r="105">
       <c r="A105" t="n">
         <v>3572</v>
       </c>
-      <c r="B105" t="s"/>
-      <c r="C105" t="s"/>
+      <c r="B105" t="n">
+        <v>129794</v>
+      </c>
+      <c r="C105" t="s">
+        <v>611</v>
+      </c>
       <c r="D105" t="n">
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F105" t="s">
-        <v>510</v>
+        <v>612</v>
       </c>
       <c r="G105" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H105" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I105" t="s">
-        <v>511</v>
+        <v>613</v>
       </c>
       <c r="J105" t="s">
-        <v>512</v>
+        <v>614</v>
       </c>
       <c r="K105" t="s"/>
       <c r="L105" t="s"/>
@@ -8829,10 +9457,10 @@
         <v>1</v>
       </c>
       <c r="N105" t="s">
-        <v>509</v>
+        <v>610</v>
       </c>
       <c r="O105" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P105" t="n">
         <v>1</v>
@@ -8853,51 +9481,52 @@
       <c r="V105" t="n">
         <v>0</v>
       </c>
-      <c r="W105" t="s"/>
-      <c r="X105" t="s"/>
-      <c r="Y105" t="s"/>
     </row>
     <row r="106">
       <c r="A106" t="n">
         <v>3572</v>
       </c>
-      <c r="B106" t="s"/>
-      <c r="C106" t="s"/>
+      <c r="B106" t="n">
+        <v>129795</v>
+      </c>
+      <c r="C106" t="s">
+        <v>615</v>
+      </c>
       <c r="D106" t="n">
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F106" t="s">
-        <v>513</v>
+        <v>616</v>
       </c>
       <c r="G106" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H106" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I106" t="s">
-        <v>514</v>
+        <v>617</v>
       </c>
       <c r="J106" t="s">
-        <v>515</v>
+        <v>618</v>
       </c>
       <c r="K106" t="s">
-        <v>516</v>
+        <v>619</v>
       </c>
       <c r="L106" t="s">
-        <v>517</v>
+        <v>620</v>
       </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
       <c r="N106" t="s">
-        <v>518</v>
+        <v>621</v>
       </c>
       <c r="O106" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P106" t="s"/>
       <c r="Q106" t="s"/>
@@ -8911,35 +9540,39 @@
       <c r="W106" t="s"/>
       <c r="X106" t="s"/>
       <c r="Y106" t="s">
-        <v>517</v>
+        <v>620</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
         <v>3572</v>
       </c>
-      <c r="B107" t="s"/>
-      <c r="C107" t="s"/>
+      <c r="B107" t="n">
+        <v>129796</v>
+      </c>
+      <c r="C107" t="s">
+        <v>622</v>
+      </c>
       <c r="D107" t="n">
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F107" t="s">
-        <v>519</v>
+        <v>623</v>
       </c>
       <c r="G107" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H107" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I107" t="s">
-        <v>520</v>
+        <v>624</v>
       </c>
       <c r="J107" t="s">
-        <v>521</v>
+        <v>625</v>
       </c>
       <c r="K107" t="s"/>
       <c r="L107" t="s"/>
@@ -8947,10 +9580,10 @@
         <v>1</v>
       </c>
       <c r="N107" t="s">
-        <v>522</v>
+        <v>626</v>
       </c>
       <c r="O107" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="P107" t="n">
         <v>2</v>
@@ -8971,49 +9604,50 @@
       <c r="V107" t="n">
         <v>0</v>
       </c>
-      <c r="W107" t="s"/>
-      <c r="X107" t="s"/>
-      <c r="Y107" t="s"/>
     </row>
     <row r="108">
       <c r="A108" t="n">
         <v>3572</v>
       </c>
-      <c r="B108" t="s"/>
-      <c r="C108" t="s"/>
+      <c r="B108" t="n">
+        <v>129797</v>
+      </c>
+      <c r="C108" t="s">
+        <v>627</v>
+      </c>
       <c r="D108" t="n">
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F108" t="s">
-        <v>523</v>
+        <v>628</v>
       </c>
       <c r="G108" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H108" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I108" t="s">
-        <v>524</v>
+        <v>629</v>
       </c>
       <c r="J108" t="s">
-        <v>525</v>
+        <v>630</v>
       </c>
       <c r="K108" t="s"/>
       <c r="L108" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
       <c r="N108" t="s">
-        <v>522</v>
+        <v>626</v>
       </c>
       <c r="O108" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P108" t="n">
         <v>1</v>
@@ -9037,48 +9671,52 @@
       <c r="W108" t="s"/>
       <c r="X108" t="s"/>
       <c r="Y108" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
         <v>3572</v>
       </c>
-      <c r="B109" t="s"/>
-      <c r="C109" t="s"/>
+      <c r="B109" t="n">
+        <v>129798</v>
+      </c>
+      <c r="C109" t="s">
+        <v>631</v>
+      </c>
       <c r="D109" t="n">
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F109" t="s">
-        <v>526</v>
+        <v>632</v>
       </c>
       <c r="G109" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H109" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I109" t="s">
-        <v>527</v>
+        <v>633</v>
       </c>
       <c r="J109" t="s">
-        <v>528</v>
+        <v>634</v>
       </c>
       <c r="K109" t="s"/>
       <c r="L109" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
       <c r="N109" t="s">
-        <v>522</v>
+        <v>626</v>
       </c>
       <c r="O109" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="P109" t="n">
         <v>1</v>
@@ -9102,35 +9740,39 @@
       <c r="W109" t="s"/>
       <c r="X109" t="s"/>
       <c r="Y109" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
         <v>3572</v>
       </c>
-      <c r="B110" t="s"/>
-      <c r="C110" t="s"/>
+      <c r="B110" t="n">
+        <v>51483</v>
+      </c>
+      <c r="C110" t="s">
+        <v>635</v>
+      </c>
       <c r="D110" t="n">
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F110" t="s">
-        <v>529</v>
+        <v>636</v>
       </c>
       <c r="G110" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H110" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I110" t="s">
-        <v>530</v>
+        <v>637</v>
       </c>
       <c r="J110" t="s">
-        <v>531</v>
+        <v>638</v>
       </c>
       <c r="K110" t="s"/>
       <c r="L110" t="s"/>
@@ -9138,10 +9780,10 @@
         <v>3</v>
       </c>
       <c r="N110" t="s">
-        <v>522</v>
+        <v>626</v>
       </c>
       <c r="O110" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="P110" t="n">
         <v>3</v>
@@ -9162,51 +9804,52 @@
       <c r="V110" t="n">
         <v>0</v>
       </c>
-      <c r="W110" t="s"/>
-      <c r="X110" t="s"/>
-      <c r="Y110" t="s"/>
     </row>
     <row r="111">
       <c r="A111" t="n">
         <v>3572</v>
       </c>
-      <c r="B111" t="s"/>
-      <c r="C111" t="s"/>
+      <c r="B111" t="n">
+        <v>129799</v>
+      </c>
+      <c r="C111" t="s">
+        <v>639</v>
+      </c>
       <c r="D111" t="n">
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F111" t="s">
-        <v>532</v>
+        <v>640</v>
       </c>
       <c r="G111" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H111" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I111" t="s">
-        <v>533</v>
+        <v>641</v>
       </c>
       <c r="J111" t="s">
-        <v>534</v>
+        <v>642</v>
       </c>
       <c r="K111" t="s">
-        <v>535</v>
+        <v>643</v>
       </c>
       <c r="L111" t="s">
-        <v>536</v>
+        <v>644</v>
       </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
       <c r="N111" t="s">
-        <v>537</v>
+        <v>645</v>
       </c>
       <c r="O111" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P111" t="n">
         <v>1</v>
@@ -9230,50 +9873,54 @@
       <c r="W111" t="s"/>
       <c r="X111" t="s"/>
       <c r="Y111" t="s">
-        <v>538</v>
+        <v>646</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
         <v>3572</v>
       </c>
-      <c r="B112" t="s"/>
-      <c r="C112" t="s"/>
+      <c r="B112" t="n">
+        <v>129800</v>
+      </c>
+      <c r="C112" t="s">
+        <v>647</v>
+      </c>
       <c r="D112" t="n">
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F112" t="s">
-        <v>539</v>
+        <v>648</v>
       </c>
       <c r="G112" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H112" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I112" t="s">
-        <v>540</v>
+        <v>649</v>
       </c>
       <c r="J112" t="s">
-        <v>541</v>
+        <v>650</v>
       </c>
       <c r="K112" t="s">
-        <v>542</v>
+        <v>651</v>
       </c>
       <c r="L112" t="s">
-        <v>543</v>
+        <v>652</v>
       </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
       <c r="N112" t="s">
-        <v>537</v>
+        <v>645</v>
       </c>
       <c r="O112" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="P112" t="n">
         <v>1</v>
@@ -9297,50 +9944,54 @@
       <c r="W112" t="s"/>
       <c r="X112" t="s"/>
       <c r="Y112" t="s">
-        <v>544</v>
+        <v>653</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
         <v>3572</v>
       </c>
-      <c r="B113" t="s"/>
-      <c r="C113" t="s"/>
+      <c r="B113" t="n">
+        <v>129801</v>
+      </c>
+      <c r="C113" t="s">
+        <v>654</v>
+      </c>
       <c r="D113" t="n">
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F113" t="s">
-        <v>545</v>
+        <v>655</v>
       </c>
       <c r="G113" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H113" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I113" t="s">
-        <v>546</v>
+        <v>656</v>
       </c>
       <c r="J113" t="s">
-        <v>547</v>
+        <v>657</v>
       </c>
       <c r="K113" t="s">
-        <v>548</v>
+        <v>658</v>
       </c>
       <c r="L113" t="s">
-        <v>549</v>
+        <v>659</v>
       </c>
       <c r="M113" t="n">
         <v>2</v>
       </c>
       <c r="N113" t="s">
-        <v>550</v>
+        <v>660</v>
       </c>
       <c r="O113" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P113" t="n">
         <v>5</v>
@@ -9364,50 +10015,54 @@
       <c r="W113" t="s"/>
       <c r="X113" t="s"/>
       <c r="Y113" t="s">
-        <v>549</v>
+        <v>659</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
         <v>3572</v>
       </c>
-      <c r="B114" t="s"/>
-      <c r="C114" t="s"/>
+      <c r="B114" t="n">
+        <v>7662</v>
+      </c>
+      <c r="C114" t="s">
+        <v>661</v>
+      </c>
       <c r="D114" t="n">
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F114" t="s">
-        <v>551</v>
+        <v>662</v>
       </c>
       <c r="G114" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H114" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I114" t="s">
-        <v>552</v>
+        <v>663</v>
       </c>
       <c r="J114" t="s">
-        <v>553</v>
+        <v>664</v>
       </c>
       <c r="K114" t="s">
-        <v>225</v>
+        <v>260</v>
       </c>
       <c r="L114" t="s">
-        <v>554</v>
+        <v>665</v>
       </c>
       <c r="M114" t="n">
         <v>2</v>
       </c>
       <c r="N114" t="s">
-        <v>555</v>
+        <v>666</v>
       </c>
       <c r="O114" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P114" t="n">
         <v>3</v>
@@ -9431,50 +10086,54 @@
       <c r="W114" t="s"/>
       <c r="X114" t="s"/>
       <c r="Y114" t="s">
-        <v>556</v>
+        <v>667</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
         <v>3572</v>
       </c>
-      <c r="B115" t="s"/>
-      <c r="C115" t="s"/>
+      <c r="B115" t="n">
+        <v>129802</v>
+      </c>
+      <c r="C115" t="s">
+        <v>668</v>
+      </c>
       <c r="D115" t="n">
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F115" t="s">
-        <v>557</v>
+        <v>669</v>
       </c>
       <c r="G115" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H115" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I115" t="s">
-        <v>558</v>
+        <v>670</v>
       </c>
       <c r="J115" t="s">
-        <v>559</v>
+        <v>671</v>
       </c>
       <c r="K115" t="s">
-        <v>560</v>
+        <v>672</v>
       </c>
       <c r="L115" t="s">
-        <v>561</v>
+        <v>673</v>
       </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
       <c r="N115" t="s">
-        <v>562</v>
+        <v>674</v>
       </c>
       <c r="O115" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P115" t="n">
         <v>1</v>
@@ -9498,50 +10157,54 @@
       <c r="W115" t="s"/>
       <c r="X115" t="s"/>
       <c r="Y115" t="s">
-        <v>563</v>
+        <v>675</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
         <v>3572</v>
       </c>
-      <c r="B116" t="s"/>
-      <c r="C116" t="s"/>
+      <c r="B116" t="n">
+        <v>3657</v>
+      </c>
+      <c r="C116" t="s">
+        <v>439</v>
+      </c>
       <c r="D116" t="n">
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F116" t="s">
-        <v>564</v>
+        <v>676</v>
       </c>
       <c r="G116" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H116" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I116" t="s">
-        <v>565</v>
+        <v>677</v>
       </c>
       <c r="J116" t="s">
-        <v>566</v>
+        <v>678</v>
       </c>
       <c r="K116" t="s">
-        <v>567</v>
+        <v>679</v>
       </c>
       <c r="L116" t="s">
-        <v>568</v>
+        <v>680</v>
       </c>
       <c r="M116" t="n">
         <v>3</v>
       </c>
       <c r="N116" t="s">
-        <v>569</v>
+        <v>681</v>
       </c>
       <c r="O116" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P116" t="n">
         <v>3</v>
@@ -9565,50 +10228,54 @@
       <c r="W116" t="s"/>
       <c r="X116" t="s"/>
       <c r="Y116" t="s">
-        <v>568</v>
+        <v>680</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
         <v>3572</v>
       </c>
-      <c r="B117" t="s"/>
-      <c r="C117" t="s"/>
+      <c r="B117" t="n">
+        <v>2155</v>
+      </c>
+      <c r="C117" t="s">
+        <v>682</v>
+      </c>
       <c r="D117" t="n">
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F117" t="s">
-        <v>570</v>
+        <v>683</v>
       </c>
       <c r="G117" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H117" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I117" t="s">
-        <v>571</v>
+        <v>684</v>
       </c>
       <c r="J117" t="s">
-        <v>572</v>
+        <v>685</v>
       </c>
       <c r="K117" t="s">
-        <v>573</v>
+        <v>686</v>
       </c>
       <c r="L117" t="s">
-        <v>574</v>
+        <v>687</v>
       </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
       <c r="N117" t="s">
-        <v>575</v>
+        <v>688</v>
       </c>
       <c r="O117" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P117" t="n">
         <v>1</v>
@@ -9632,50 +10299,54 @@
       <c r="W117" t="s"/>
       <c r="X117" t="s"/>
       <c r="Y117" t="s">
-        <v>576</v>
+        <v>689</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
         <v>3572</v>
       </c>
-      <c r="B118" t="s"/>
-      <c r="C118" t="s"/>
+      <c r="B118" t="n">
+        <v>129803</v>
+      </c>
+      <c r="C118" t="s">
+        <v>690</v>
+      </c>
       <c r="D118" t="n">
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F118" t="s">
-        <v>577</v>
+        <v>691</v>
       </c>
       <c r="G118" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H118" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I118" t="s">
-        <v>578</v>
+        <v>692</v>
       </c>
       <c r="J118" t="s">
-        <v>579</v>
+        <v>693</v>
       </c>
       <c r="K118" t="s">
-        <v>580</v>
+        <v>694</v>
       </c>
       <c r="L118" t="s">
-        <v>581</v>
+        <v>695</v>
       </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
       <c r="N118" t="s">
-        <v>582</v>
+        <v>696</v>
       </c>
       <c r="O118" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P118" t="n">
         <v>2</v>
@@ -9699,50 +10370,54 @@
       <c r="W118" t="s"/>
       <c r="X118" t="s"/>
       <c r="Y118" t="s">
-        <v>581</v>
+        <v>695</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
         <v>3572</v>
       </c>
-      <c r="B119" t="s"/>
-      <c r="C119" t="s"/>
+      <c r="B119" t="n">
+        <v>129804</v>
+      </c>
+      <c r="C119" t="s">
+        <v>697</v>
+      </c>
       <c r="D119" t="n">
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F119" t="s">
-        <v>583</v>
+        <v>698</v>
       </c>
       <c r="G119" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H119" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I119" t="s">
-        <v>584</v>
+        <v>699</v>
       </c>
       <c r="J119" t="s">
-        <v>585</v>
+        <v>700</v>
       </c>
       <c r="K119" t="s">
-        <v>586</v>
+        <v>701</v>
       </c>
       <c r="L119" t="s">
-        <v>587</v>
+        <v>702</v>
       </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
       <c r="N119" t="s">
-        <v>588</v>
+        <v>703</v>
       </c>
       <c r="O119" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P119" t="n">
         <v>1</v>
@@ -9764,50 +10439,54 @@
       <c r="W119" t="s"/>
       <c r="X119" t="s"/>
       <c r="Y119" t="s">
-        <v>587</v>
+        <v>702</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
         <v>3572</v>
       </c>
-      <c r="B120" t="s"/>
-      <c r="C120" t="s"/>
+      <c r="B120" t="n">
+        <v>129805</v>
+      </c>
+      <c r="C120" t="s">
+        <v>704</v>
+      </c>
       <c r="D120" t="n">
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F120" t="s">
-        <v>589</v>
+        <v>705</v>
       </c>
       <c r="G120" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H120" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I120" t="s">
-        <v>590</v>
+        <v>706</v>
       </c>
       <c r="J120" t="s">
-        <v>591</v>
+        <v>707</v>
       </c>
       <c r="K120" t="s">
-        <v>592</v>
+        <v>708</v>
       </c>
       <c r="L120" t="s">
-        <v>593</v>
+        <v>709</v>
       </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
       <c r="N120" t="s">
-        <v>594</v>
+        <v>710</v>
       </c>
       <c r="O120" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P120" t="n">
         <v>1</v>
@@ -9831,41 +10510,45 @@
       <c r="W120" t="s"/>
       <c r="X120" t="s"/>
       <c r="Y120" t="s">
-        <v>595</v>
+        <v>711</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
         <v>3572</v>
       </c>
-      <c r="B121" t="s"/>
-      <c r="C121" t="s"/>
+      <c r="B121" t="n">
+        <v>129806</v>
+      </c>
+      <c r="C121" t="s">
+        <v>712</v>
+      </c>
       <c r="D121" t="n">
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F121" t="s">
-        <v>596</v>
+        <v>713</v>
       </c>
       <c r="G121" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H121" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I121" t="s">
-        <v>597</v>
+        <v>714</v>
       </c>
       <c r="J121" t="s">
-        <v>598</v>
+        <v>715</v>
       </c>
       <c r="K121" t="s">
-        <v>599</v>
+        <v>716</v>
       </c>
       <c r="L121" t="s">
-        <v>600</v>
+        <v>717</v>
       </c>
       <c r="M121" t="n">
         <v>1</v>
@@ -9884,50 +10567,54 @@
       <c r="W121" t="s"/>
       <c r="X121" t="s"/>
       <c r="Y121" t="s">
-        <v>601</v>
+        <v>718</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
         <v>3572</v>
       </c>
-      <c r="B122" t="s"/>
-      <c r="C122" t="s"/>
+      <c r="B122" t="n">
+        <v>129807</v>
+      </c>
+      <c r="C122" t="s">
+        <v>719</v>
+      </c>
       <c r="D122" t="n">
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F122" t="s">
-        <v>602</v>
+        <v>720</v>
       </c>
       <c r="G122" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H122" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I122" t="s">
-        <v>603</v>
+        <v>721</v>
       </c>
       <c r="J122" t="s">
-        <v>604</v>
+        <v>722</v>
       </c>
       <c r="K122" t="s">
-        <v>605</v>
+        <v>723</v>
       </c>
       <c r="L122" t="s">
-        <v>606</v>
+        <v>724</v>
       </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
       <c r="N122" t="s">
-        <v>607</v>
+        <v>725</v>
       </c>
       <c r="O122" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P122" t="n">
         <v>1</v>
@@ -9951,41 +10638,45 @@
       <c r="W122" t="s"/>
       <c r="X122" t="s"/>
       <c r="Y122" t="s">
-        <v>606</v>
+        <v>724</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
         <v>3572</v>
       </c>
-      <c r="B123" t="s"/>
-      <c r="C123" t="s"/>
+      <c r="B123" t="n">
+        <v>129808</v>
+      </c>
+      <c r="C123" t="s">
+        <v>726</v>
+      </c>
       <c r="D123" t="n">
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F123" t="s">
-        <v>608</v>
+        <v>727</v>
       </c>
       <c r="G123" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H123" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I123" t="s">
-        <v>609</v>
+        <v>728</v>
       </c>
       <c r="J123" t="s">
-        <v>610</v>
+        <v>729</v>
       </c>
       <c r="K123" t="s">
-        <v>611</v>
+        <v>730</v>
       </c>
       <c r="L123" t="s">
-        <v>612</v>
+        <v>731</v>
       </c>
       <c r="M123" t="n">
         <v>1</v>
@@ -10004,7 +10695,7 @@
       <c r="W123" t="s"/>
       <c r="X123" t="s"/>
       <c r="Y123" t="s">
-        <v>612</v>
+        <v>731</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_181.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_181.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="732">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="613">
   <si>
     <t>STR#</t>
   </si>
@@ -150,13 +150,10 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>tarahlsnow</t>
-  </si>
-  <si>
-    <t>05/28/2018</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r574947788-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
+    <t>08/18/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r574947788-Days_Inn_by_Wyndham_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>55857</t>
@@ -186,10 +183,7 @@
     <t>The price was the best available, hands down. The room wasn’t terrible but there are things that need to be fixed or replaced. The shower curtain has black mold, the bathroom fan was a gaping hole. There were no bed bugs, the sheets, pillows and comforter were clean and smelled good. The carpet needs to be cleaned. The furniture was nice. The door needs to be cleaned and maybe replaced. I was approached when I went to my car by a man that was with a group hanging outside of another room reserved by a woman. He was asking how long I was staying and if I was going to check out early if he could use my room until the check out time. Overall, Days Inn served its purpose, but if money were not a consideration it wouldn’t be my first choice.More</t>
   </si>
   <si>
-    <t>Ana D</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r573173160-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r573173160-Days_Inn_by_Wyndham_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>573173160</t>
@@ -201,10 +195,7 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
-    <t>Renie D</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r563366687-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r563366687-Days_Inn_by_Wyndham_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>563366687</t>
@@ -225,10 +216,7 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
-    <t>roshondaw2018</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r556515701-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r556515701-Days_Inn_by_Wyndham_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>556515701</t>
@@ -243,10 +231,7 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
-    <t>michaelaQ7868PU</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r554686394-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r554686394-Days_Inn_by_Wyndham_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>554686394</t>
@@ -261,10 +246,7 @@
     <t xml:space="preserve">Hotel condition was run down. Water in shower would fluctuate from freezing to scalding. Overnight police arrived lights and sirens into the parking lot, three units total. </t>
   </si>
   <si>
-    <t>Juan S</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r537454773-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r537454773-Days_Inn_by_Wyndham_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>537454773</t>
@@ -282,10 +264,7 @@
     <t>October 2017</t>
   </si>
   <si>
-    <t>504armandc</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r517545090-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r517545090-Days_Inn_by_Wyndham_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>517545090</t>
@@ -303,10 +282,7 @@
     <t>August 2017</t>
   </si>
   <si>
-    <t>202henry</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r495463204-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r495463204-Days_Inn_by_Wyndham_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>495463204</t>
@@ -324,10 +300,7 @@
     <t>More</t>
   </si>
   <si>
-    <t>831titusb</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r480956520-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r480956520-Days_Inn_by_Wyndham_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>480956520</t>
@@ -345,10 +318,7 @@
     <t>April 2017</t>
   </si>
   <si>
-    <t>88ralphf</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r475368339-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r475368339-Days_Inn_by_Wyndham_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>475368339</t>
@@ -366,10 +336,7 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
-    <t>tessar373</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r475324853-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r475324853-Days_Inn_by_Wyndham_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>475324853</t>
@@ -381,10 +348,7 @@
     <t>This place was awful. Dirty. Lights didn't work. Shower only 1/2 worked. Old tube tv was full of static. Spots of carpet actually torn up. Paint damage. The list goes on. Also it is totally ghetto. The patrons looked like a mixture of dope heads and prostitutes. Wifi didn't work. Went to 'continental breakfast' at 9:00 on a Sunday. There was no coffee and they said we were too late - didn't even offer to make more.</t>
   </si>
   <si>
-    <t>959louise</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r470628822-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r470628822-Days_Inn_by_Wyndham_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>470628822</t>
@@ -396,10 +360,7 @@
     <t>March 2017</t>
   </si>
   <si>
-    <t>O6507FLjerrym</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r470163040-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r470163040-Days_Inn_by_Wyndham_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>470163040</t>
@@ -408,10 +369,7 @@
     <t>03/25/2017</t>
   </si>
   <si>
-    <t>bigartt</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r467311376-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r467311376-Days_Inn_by_Wyndham_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>467311376</t>
@@ -429,10 +387,7 @@
     <t>February 2017</t>
   </si>
   <si>
-    <t>jerryf848</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r463308211-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r463308211-Days_Inn_by_Wyndham_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>463308211</t>
@@ -447,10 +402,7 @@
     <t>the room was dirty .all kind of things under the bed!  electrical boxes hanging out of wall onto floor,no ice machines where noted to be,,,scary!</t>
   </si>
   <si>
-    <t>karencA4472HC</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r462101480-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r462101480-Days_Inn_by_Wyndham_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>462101480</t>
@@ -459,10 +411,7 @@
     <t>02/22/2017</t>
   </si>
   <si>
-    <t>Lori H</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r454023547-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r454023547-Days_Inn_by_Wyndham_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>454023547</t>
@@ -491,10 +440,7 @@
 ...trash!!  Not to mention noisy and...I dont find myself as a picky nor fussy person however this has been inevitably the WORSE hotel ive been!!  We travel over 2500 miles each year on roadtrips and must say again....TERRIBLE!Where do i begin!  Lets start with the phone call asking me whether or not im arriving and what time.  He goes on to tell me that if i dont show he will have to charge my card. Unfortunately i had already  booked this room online for 2 nights and was aware of the cancellation policy.  I have never had a hotel call me to find out wherher or not i showUpon arrival we come to locked doors with just a window to communicate our check-in.  After the customers before us left they let us in to complete our check-in though locked the door behind us. We needed them to unlock the door to the vending area to get a drinkNow the room....yuck!!  Appeared the room was partially cleaned as it felt like it had been used hours before. Nothing seemed stocked and just felt dirty. Half the lights didnt work, hair and used soap on the ground, hole in wall stuffed with toilet paper, holes in the walls, the bedding looked like it came from the 70s, burn holes in carpet and bedding, room smelled like urine, baseboard missing with exposed cables.  I think you get the idea ...trash!!  Not to mention noisy and people knocking on our door at night. Not sure what kind of business going on here.  We even took our bags with us rather than leave them behind for the day Im embarrassed for Wyndham Hotels for claiming this dump as one of their hotels. More</t>
   </si>
   <si>
-    <t>Michael  H</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r452488332-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r452488332-Days_Inn_by_Wyndham_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>452488332</t>
@@ -512,10 +458,7 @@
     <t>I was staying in Fort Worth area for 5 days for work, checked in with my boss calling in his company card number, on the 1st morning the manager said they weren't supposed to accept payment like that from the night before. I told her that he would be there in 1 more day, and everything would be handled by him. When he arrived we went down to the front desk to arrange 2 more nights and pay with the same card that he called in with 3 days earlier, we were confronted by the rudest hotel manager I've ever seen or heard of, and said she would not accept his card because his id did not match the name on the card, which was a company card with the company name and he was the authorized signer, she could not understand why his id didn't have a company name on it. Ended up having a local police officer come out because management said we had to pay an additional night in cash to receive our belongings from the room in which we couldn't stay after, BUT they quickly changed there tune after Fort Worth PD walked in lolMore</t>
   </si>
   <si>
-    <t>862lanew</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r446724764-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r446724764-Days_Inn_by_Wyndham_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>446724764</t>
@@ -533,10 +476,7 @@
     <t>December 2016</t>
   </si>
   <si>
-    <t>williamrB1169UU</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r437494994-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r437494994-Days_Inn_by_Wyndham_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>437494994</t>
@@ -557,10 +497,7 @@
     <t>Should be $29.99 at best. Very noisy all night. Loud music and people hanging out through the night. Constantly in front of our room talking. Motel is right on I-35 so that adds to the noise even more. Had to run the AC all night to drown it all out. Limited, tight parking spaces. Vehicles in and out all through the night making drug sales and such. Check in was fast. Receptionist was friendly. WiFi is terrible so don't bother. It has a pool but I wouldn't be able to get in. Fridge and microwave and small coffee pot. Small flat screen TV. Desk available but no wall plugs available. One in the Bathroom and one behind the bed with the cover missing exposing it to the mattress and sheets. No sink in the bathroom so you have to use the sink in the common area of the room. Here come the pictures ! More</t>
   </si>
   <si>
-    <t>181guillermof</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r435705431-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r435705431-Days_Inn_by_Wyndham_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>435705431</t>
@@ -572,10 +509,7 @@
     <t>October 2016</t>
   </si>
   <si>
-    <t>scottZ3525HW</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r435626758-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r435626758-Days_Inn_by_Wyndham_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>435626758</t>
@@ -587,10 +521,7 @@
     <t>We rented a room that was in the non-smoking section but smelled very heavily of smoke. It was so bad that we had to change to another hotel. Also had some roaches in it and broken clothing racks etc. Very clear they care very little about the experience.</t>
   </si>
   <si>
-    <t>Warren L G</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r435357882-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r435357882-Days_Inn_by_Wyndham_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>435357882</t>
@@ -605,10 +536,7 @@
     <t>This property could use a good fix up.RUBBER BANDS holding up the Exhaust vent cover in Bathroom...... Would be nice to have a Channel Card in the night table drawer.Carpet was sticky to the touch. Took shower and well needed another.I will NOT stay at this property ever again.I have stayed in many locations and this is the first that I will NOT STAY IN EVER AGAIN.Was supposed to be a non smoking room, Well it was a choker for me. Got out my air purifier and left for an hour.   Managed to sleep, but checked out very early......This location needs an outsider review and corrections made......!!!!</t>
   </si>
   <si>
-    <t>907dinahc</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r428264206-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r428264206-Days_Inn_by_Wyndham_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>428264206</t>
@@ -617,10 +545,7 @@
     <t>10/15/2016</t>
   </si>
   <si>
-    <t>107vickieq</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r419625825-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r419625825-Days_Inn_by_Wyndham_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>419625825</t>
@@ -638,10 +563,7 @@
     <t>September 2016</t>
   </si>
   <si>
-    <t>eugenek391</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r415384429-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r415384429-Days_Inn_by_Wyndham_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>415384429</t>
@@ -650,10 +572,7 @@
     <t>09/06/2016</t>
   </si>
   <si>
-    <t>dearrothompson</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r404942177-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r404942177-Days_Inn_by_Wyndham_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>404942177</t>
@@ -671,10 +590,7 @@
     <t>August 2016</t>
   </si>
   <si>
-    <t>robertkH7563ZY</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r392932209-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r392932209-Days_Inn_by_Wyndham_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>392932209</t>
@@ -686,10 +602,7 @@
     <t>July 2016</t>
   </si>
   <si>
-    <t>519rickl</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r378629908-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r378629908-Days_Inn_by_Wyndham_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>378629908</t>
@@ -707,10 +620,7 @@
     <t>May 2016</t>
   </si>
   <si>
-    <t>Robert M</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r371890174-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r371890174-Days_Inn_by_Wyndham_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>371890174</t>
@@ -722,10 +632,7 @@
     <t>April 2016</t>
   </si>
   <si>
-    <t>maxpZ840DE</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r361990377-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r361990377-Days_Inn_by_Wyndham_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>361990377</t>
@@ -740,10 +647,7 @@
     <t>I pay for 3 nights, but stay only 2 nights. I did not get my money back for the one night. The manger told me to call you about my getting my money back. I did not like this. Can you get my money back. Thank You</t>
   </si>
   <si>
-    <t>889darlenel</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r356449300-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r356449300-Days_Inn_by_Wyndham_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>356449300</t>
@@ -755,10 +659,7 @@
     <t>March 2016</t>
   </si>
   <si>
-    <t>Celo2709</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r343305159-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r343305159-Days_Inn_by_Wyndham_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>343305159</t>
@@ -776,10 +677,7 @@
     <t>January 2016</t>
   </si>
   <si>
-    <t>247rc3</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r342359658-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r342359658-Days_Inn_by_Wyndham_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>342359658</t>
@@ -794,10 +692,7 @@
     <t xml:space="preserve">The rooms were dirty and smells of mold. Three rooms before there was a clean room.  I thought it was odd that they had condoms for sale at the front desk but once being in my room for a few  hour I figured out why, this is not a day inn, someone paid to use the name and that's the only way anyone will stay in this hotel never again.  </t>
   </si>
   <si>
-    <t>metaphysician</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r334678307-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r334678307-Days_Inn_by_Wyndham_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>334678307</t>
@@ -818,10 +713,7 @@
     <t>Was sent here by American Airlines because they canceled my flight.  Also gave me a food voucher but no place to use it. Stayed in 108 a handicap suite?Carpet dirty and frayed.  No clock.  Lots of loud noise and stomping around overhead, and doors slamming. Hard to get around bed, tiny room with a door.  Main room long with dirty couch by window. Brought us in the back door.  Shower leaked at every joint so couldn't use, sprayed all over bathroom so floor was slipper.  Had kitchen but no place to get food.  Didn't get to have breakfast as shuttle only runs on the hour so left before ready.  Did grab a clementine the size of a golf ball.  Turned out to be the only food I had for the day.People at the desk were nice though.More</t>
   </si>
   <si>
-    <t>Sarah P</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r301334824-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r301334824-Days_Inn_by_Wyndham_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>301334824</t>
@@ -842,10 +734,7 @@
     <t>While front desk was pleasant enough... the room was anything but. Driving through the parking lot I felt like we were in the downtown hood and going to be mugged. People standing outside against the walls and hanging over the second floor railings, all looked drunk or on drugs. We checked the room... food was still in the fridge from past guests, gum in the carpets, the curtains did not cover the entire window in width or length. We had to stretch them and move a chair in front of the gaps. No clock or phone. It smelled like mildew and wet carpet. Bed was comfy, though. Feel bad writing bad review, but cost and location were what was needed and they work for a quick stay for the traveller on the go.More</t>
   </si>
   <si>
-    <t>738pr</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r292782159-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r292782159-Days_Inn_by_Wyndham_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>292782159</t>
@@ -863,10 +752,7 @@
     <t>July 2015</t>
   </si>
   <si>
-    <t>Victoria R</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r290573434-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r290573434-Days_Inn_by_Wyndham_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>290573434</t>
@@ -878,10 +764,7 @@
     <t>They need to use either fitted sheets or tuck in the bottom sheet on the beds.  It is the same every time I stay at this particular location.  I stay here frequently as my daughter lives in Ft. Worth.  Also, need more outlets for tablets and computers,</t>
   </si>
   <si>
-    <t>582allenb</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r274672977-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r274672977-Days_Inn_by_Wyndham_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>274672977</t>
@@ -893,7 +776,7 @@
     <t>May 2015</t>
   </si>
   <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r270388999-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r270388999-Days_Inn_by_Wyndham_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>270388999</t>
@@ -902,10 +785,7 @@
     <t>05/06/2015</t>
   </si>
   <si>
-    <t>Mark L</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r270034841-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r270034841-Days_Inn_by_Wyndham_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>270034841</t>
@@ -914,10 +794,7 @@
     <t>05/04/2015</t>
   </si>
   <si>
-    <t>Tony K</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r266295359-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r266295359-Days_Inn_by_Wyndham_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>266295359</t>
@@ -929,10 +806,7 @@
     <t>April 2015</t>
   </si>
   <si>
-    <t>Rona C</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r260425191-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r260425191-Days_Inn_by_Wyndham_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>260425191</t>
@@ -944,10 +818,7 @@
     <t>March 2015</t>
   </si>
   <si>
-    <t>David W</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r260205016-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r260205016-Days_Inn_by_Wyndham_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>260205016</t>
@@ -956,10 +827,7 @@
     <t>03/17/2015</t>
   </si>
   <si>
-    <t>Jessi Ann W</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r259791239-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r259791239-Days_Inn_by_Wyndham_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>259791239</t>
@@ -977,10 +845,7 @@
     <t>Let me just start by saying this hotel was gross! We were forced to stay because of the refusal of cancellation and short on funds so walking away was not a choice. We had below sub-par service and a disgusting room. Our tv was 5 different colors, only the outside edge of the screen was what it should be... we'll call it the rainbow tv. We had NO smoke detector, the beds were both stained so bad, you'd have thought there was a couple murder victims there. There was blood on the door frame and vomit on the floor where I was supposed to do my makeup. The toilet was so close to the bathtub (with three feet between it and the wall on the other side) that I could've washed my feet while using the toilet!! The table, phone, blow-dryer, and all trim around the room were laiden with dust and dirt that my allergies were off the hook! There was one lightbulb in our bedside lamps and we had to turn that off by unscrewing the bulb and taking it completely out... just unscrewing it wouldn't ensure it was off so I'm pretty sure the wires loose had something to do with it. I had NO coffee pot but my mother just downstairs did. The sheets and pillows were stained awful (thank god Im leary and brought my own). I am still mortified at our experience. Thank goodness...Let me just start by saying this hotel was gross! We were forced to stay because of the refusal of cancellation and short on funds so walking away was not a choice. We had below sub-par service and a disgusting room. Our tv was 5 different colors, only the outside edge of the screen was what it should be... we'll call it the rainbow tv. We had NO smoke detector, the beds were both stained so bad, you'd have thought there was a couple murder victims there. There was blood on the door frame and vomit on the floor where I was supposed to do my makeup. The toilet was so close to the bathtub (with three feet between it and the wall on the other side) that I could've washed my feet while using the toilet!! The table, phone, blow-dryer, and all trim around the room were laiden with dust and dirt that my allergies were off the hook! There was one lightbulb in our bedside lamps and we had to turn that off by unscrewing the bulb and taking it completely out... just unscrewing it wouldn't ensure it was off so I'm pretty sure the wires loose had something to do with it. I had NO coffee pot but my mother just downstairs did. The sheets and pillows were stained awful (thank god Im leary and brought my own). I am still mortified at our experience. Thank goodness my cousin had a small amount of room at her house to keep my four kids so I felt at least a little better about the situation. DO NOT STAY THERE!!! FIND SOMEWHERE ELSE!!!!!!!!!!!!!!!! I BEG YOU HEED MY REVIEW!!!More</t>
   </si>
   <si>
-    <t>Travis L</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r256623878-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r256623878-Days_Inn_by_Wyndham_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>256623878</t>
@@ -998,10 +863,7 @@
     <t>Quaint but cheap, 2 adults $45 per night, $15 per night for pet. Nice size room, old but new tile floor, large king size bed, comfortable mattress, well lit parking, clean outside pool. Chinese Buffet 2 blocks away, Dennys 3 blocks away across highway. Also shopping center across highway. Large hotel probably 200+ rooms but NO ice machine. Room does have good size refrigerator, microwave &amp; blow dryer but no coffee pot, clock or iron. However they do offer free WiFi &amp; free breakfast. Only thing I had issue with was ice machine they said broke long time ago &amp; won't fix. But for $45 a night for 2 adults you can't really complain. More</t>
   </si>
   <si>
-    <t>fraut348</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r253782603-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r253782603-Days_Inn_by_Wyndham_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>253782603</t>
@@ -1019,10 +881,7 @@
     <t>January 2015</t>
   </si>
   <si>
-    <t>courtneyh842</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r253588402-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r253588402-Days_Inn_by_Wyndham_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>253588402</t>
@@ -1043,10 +902,7 @@
     <t>This establishment was not at all what I thought and expected it to be.  The pictures on the website of the property were not what I found.  This establishment was dirty and unclean.  So bad in fact that I refused to let my child take off her socks all weekend.  The carpets had not been properly vacuumed EVER, there was hair all over the bathroom, that did not come from me or my family.  I was nervous and paranoid all weekend due to the nastiness of the room and the clientele staying at the hotel as well.  While packing to leave my child found a lone shoe and a remote under the bed that did not belong to us.  If I had been alone with my child and would not have stayed at this establishment.  Our room was a non smoking room, but the blankets on both of the beds had burn holes in them.  The exterior door of our room did not lock correctly, the required smoke alarm was missing off the wall, the door was missing weather stripping, I could see daylight, it was that bad.  The mattresses on the each bed were in horrible condition, to the point that if the beds were made you could see how bad they were.  Sloping, sagging, horrible to sleep on. The staff of this location was not friendly or inviting.  The grounds of this location were in desperate need of...This establishment was not at all what I thought and expected it to be.  The pictures on the website of the property were not what I found.  This establishment was dirty and unclean.  So bad in fact that I refused to let my child take off her socks all weekend.  The carpets had not been properly vacuumed EVER, there was hair all over the bathroom, that did not come from me or my family.  I was nervous and paranoid all weekend due to the nastiness of the room and the clientele staying at the hotel as well.  While packing to leave my child found a lone shoe and a remote under the bed that did not belong to us.  If I had been alone with my child and would not have stayed at this establishment.  Our room was a non smoking room, but the blankets on both of the beds had burn holes in them.  The exterior door of our room did not lock correctly, the required smoke alarm was missing off the wall, the door was missing weather stripping, I could see daylight, it was that bad.  The mattresses on the each bed were in horrible condition, to the point that if the beds were made you could see how bad they were.  Sloping, sagging, horrible to sleep on. The staff of this location was not friendly or inviting.  The grounds of this location were in desperate need of cleaning and refurbishing.  I was so grossed out by this establishment that nothing that we had in our hotel room were brought into our home for fear of god knows what lurking on our belongings.  I will never return to this establishment. More</t>
   </si>
   <si>
-    <t>OdomK</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r250534034-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r250534034-Days_Inn_by_Wyndham_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>250534034</t>
@@ -1055,10 +911,7 @@
     <t>01/22/2015</t>
   </si>
   <si>
-    <t>B1726CFdans</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r242188872-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r242188872-Days_Inn_by_Wyndham_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>242188872</t>
@@ -1070,10 +923,7 @@
     <t>November 2014</t>
   </si>
   <si>
-    <t>Jessica L</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r240913038-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r240913038-Days_Inn_by_Wyndham_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>240913038</t>
@@ -1094,10 +944,7 @@
     <t>Needless to say, after reading the previous reviews, I was terrified to stay here. This hotel was booked for us, so we had no other choice. Now don't get me wrong, from all outside appearances, this is not the nicest place in Fort Worth. But once you get over the sketchy male and female hustlers surrounding the area, go inside, lock the door and enjoy a descent room. The bedding is nice as is the furniture. The room was comfortable and spacious. I pre-warn you the beds are hard as rocks and the shower head is one hard stream of water. But overall In this price range it is really the best bang for your $ in the area. Plus there are three restaurants in walking distance.More</t>
   </si>
   <si>
-    <t>852tammym</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r235691537-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r235691537-Days_Inn_by_Wyndham_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>235691537</t>
@@ -1106,10 +953,7 @@
     <t>10/22/2014</t>
   </si>
   <si>
-    <t>Judy C</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r235152928-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r235152928-Days_Inn_by_Wyndham_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>235152928</t>
@@ -1127,10 +971,7 @@
     <t>September 2014</t>
   </si>
   <si>
-    <t>Brian M</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r229989675-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r229989675-Days_Inn_by_Wyndham_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>229989675</t>
@@ -1139,10 +980,7 @@
     <t>09/20/2014</t>
   </si>
   <si>
-    <t>Mizzhoneysuckle</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r220444126-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r220444126-Days_Inn_by_Wyndham_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>220444126</t>
@@ -1160,10 +998,7 @@
     <t>August 2014</t>
   </si>
   <si>
-    <t>Limarie B</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r219331263-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r219331263-Days_Inn_by_Wyndham_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>219331263</t>
@@ -1178,10 +1013,7 @@
     <t>We drove from PA and need a room to rest. When we arrived at 3 am the area was very scary. It seems like drug dealing The room was musty and the bathroom tub and sink was clot.  I had to be creative to take a shower without being inside tub Morning breakfast was ok cereal cold / hot juices coffee bread fruits Staff polite Pool was clean and plenty seats Outside was dirty because people walk around and dump trash on floor Will not stay again</t>
   </si>
   <si>
-    <t>brumleylis</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r217119220-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r217119220-Days_Inn_by_Wyndham_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>217119220</t>
@@ -1199,10 +1031,7 @@
     <t>July 2014</t>
   </si>
   <si>
-    <t>Andrea D</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r211683293-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r211683293-Days_Inn_by_Wyndham_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>211683293</t>
@@ -1214,10 +1043,7 @@
     <t>May 2014</t>
   </si>
   <si>
-    <t>Juan A</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r210077442-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r210077442-Days_Inn_by_Wyndham_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>210077442</t>
@@ -1235,10 +1061,7 @@
     <t>June 2014</t>
   </si>
   <si>
-    <t>Jerry M</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r209655812-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r209655812-Days_Inn_by_Wyndham_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>209655812</t>
@@ -1247,10 +1070,7 @@
     <t>06/09/2014</t>
   </si>
   <si>
-    <t>Gordon U</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r209078351-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r209078351-Days_Inn_by_Wyndham_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>209078351</t>
@@ -1259,7 +1079,7 @@
     <t>06/05/2014</t>
   </si>
   <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r205112667-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r205112667-Days_Inn_by_Wyndham_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>205112667</t>
@@ -1268,10 +1088,7 @@
     <t>05/11/2014</t>
   </si>
   <si>
-    <t>Mit P</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r204830601-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r204830601-Days_Inn_by_Wyndham_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>204830601</t>
@@ -1283,10 +1100,7 @@
     <t>April 2014</t>
   </si>
   <si>
-    <t>Richard M</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r204654320-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r204654320-Days_Inn_by_Wyndham_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>204654320</t>
@@ -1295,10 +1109,7 @@
     <t>05/08/2014</t>
   </si>
   <si>
-    <t>Pattyppp</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r204514539-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r204514539-Days_Inn_by_Wyndham_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>204514539</t>
@@ -1307,10 +1118,7 @@
     <t>05/07/2014</t>
   </si>
   <si>
-    <t>Sanjeev L</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r204504925-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r204504925-Days_Inn_by_Wyndham_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>204504925</t>
@@ -1322,19 +1130,13 @@
     <t>This hotel really exceeded my expectations. It is everything that you would expect from a Days Inn. It had well appointed rooms and a great location. What set this Days Inn apart from the competition is its outstanding service and amazing breakfast.</t>
   </si>
   <si>
-    <t>Rostami M</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r204500464-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r204500464-Days_Inn_by_Wyndham_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>204500464</t>
   </si>
   <si>
-    <t>Kandice S</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r203399183-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r203399183-Days_Inn_by_Wyndham_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>203399183</t>
@@ -1343,10 +1145,7 @@
     <t>04/29/2014</t>
   </si>
   <si>
-    <t>Michael M</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r200541445-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r200541445-Days_Inn_by_Wyndham_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>200541445</t>
@@ -1355,10 +1154,7 @@
     <t>04/09/2014</t>
   </si>
   <si>
-    <t>Johnny C</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r199775797-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r199775797-Days_Inn_by_Wyndham_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>199775797</t>
@@ -1373,10 +1169,7 @@
     <t>on 3-30-14,about 1:00p,I called to reserve a room and that I would be there @ 5p.I did,&amp; payed,picked up my key and went to a store. 2 hrs later I went to my room &amp; found a BIG mess.The room was filthy. I called front desk,They said they will send somebody.I went to front desk &amp; said"no,I want another room." They gave me another room</t>
   </si>
   <si>
-    <t>Michelle J</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r199500901-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r199500901-Days_Inn_by_Wyndham_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>199500901</t>
@@ -1388,10 +1181,7 @@
     <t>March 2014</t>
   </si>
   <si>
-    <t>Janice F</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r198695326-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r198695326-Days_Inn_by_Wyndham_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>198695326</t>
@@ -1406,19 +1196,13 @@
     <t xml:space="preserve">The rooms were clean, large, and the staff was most accommodating. The only thing that I wish were different, is that it would have wood or tile floors instead of carpet.  the beds were fairly comfortable, a bit hard, but  better than most. AC was cold and hot water.  Their was some people staying that were a little scary, but overall was a very very good place to stay. </t>
   </si>
   <si>
-    <t>Heriberto G</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r198681972-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r198681972-Days_Inn_by_Wyndham_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>198681972</t>
   </si>
   <si>
-    <t>ChuckBrooks</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r197527133-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r197527133-Days_Inn_by_Wyndham_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>197527133</t>
@@ -1436,10 +1220,7 @@
     <t>February 2014</t>
   </si>
   <si>
-    <t>Deterrius F</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r197089390-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r197089390-Days_Inn_by_Wyndham_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>197089390</t>
@@ -1448,10 +1229,7 @@
     <t>03/11/2014</t>
   </si>
   <si>
-    <t>Vanessa T</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r195646366-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r195646366-Days_Inn_by_Wyndham_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>195646366</t>
@@ -1460,10 +1238,7 @@
     <t>02/28/2014</t>
   </si>
   <si>
-    <t>Rhonda D</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r192506385-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r192506385-Days_Inn_by_Wyndham_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>192506385</t>
@@ -1475,10 +1250,7 @@
     <t>January 2014</t>
   </si>
   <si>
-    <t>Ehab H</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r189368939-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r189368939-Days_Inn_by_Wyndham_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>189368939</t>
@@ -1496,10 +1268,7 @@
     <t>December 2013</t>
   </si>
   <si>
-    <t>Jerry S</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r181325549-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r181325549-Days_Inn_by_Wyndham_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>181325549</t>
@@ -1511,10 +1280,7 @@
     <t>October 2013</t>
   </si>
   <si>
-    <t>Elizabeth L</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r180200650-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r180200650-Days_Inn_by_Wyndham_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>180200650</t>
@@ -1523,10 +1289,7 @@
     <t>10/08/2013</t>
   </si>
   <si>
-    <t>Angie G</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r175483285-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r175483285-Days_Inn_by_Wyndham_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>175483285</t>
@@ -1547,10 +1310,7 @@
     <t>The Motel was the worst place I've ever stayed in. The neighborhood is horrible. This place needs to be demolished. The door to the room had pry marks all over the door frame, only one of the room keys worked. There was a lot of plywood on the ceiling from poor patch jobs from plumbing problems from the room above. There was mold on the celing. There wasn't a lot of outlets to plug cords into, and what few there was, they didn't work. The pillows were awful, and the beds had hair in them from previous guests. There was a party carried on right outside of our room through out the night, and management didn't seem to care. Someone kept leaning against the windows and walking back and forth in front of our room all night. The next morning while packing, I found empty condem wrappers from the previous guests. The breakfast was stale pastries sitting out with flies swarming on them. The management didn't want to let us out of the second night after we notified them at 7am we would not be staying another night. This is the worst place I've ever stayed in.More</t>
   </si>
   <si>
-    <t>Michael S</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r175017010-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r175017010-Days_Inn_by_Wyndham_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>175017010</t>
@@ -1559,10 +1319,7 @@
     <t>08/31/2013</t>
   </si>
   <si>
-    <t>buggles22</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r172892145-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r172892145-Days_Inn_by_Wyndham_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>172892145</t>
@@ -1574,10 +1331,7 @@
     <t>The room and property were nothing like the photos shown, the air conditioner was duct taped in and was very noisy as if it was ready to break down. the bathroom was awful neither one of us showered. would never recommend this motel to anyone!</t>
   </si>
   <si>
-    <t>Jocelyngomez77</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r172646210-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r172646210-Days_Inn_by_Wyndham_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>172646210</t>
@@ -1592,10 +1346,7 @@
     <t xml:space="preserve">-smells like smoke -mole behind the toilets -breakfast sucked (toast, sweet bread, the juice machine was out didn't work so no juice for us) -no high chairs for my kids-stared at us the whole time while we tried to enjoy our food-rude-room weren't clean Motel 6 would probably be better than days inn. </t>
   </si>
   <si>
-    <t>brandop82</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r168252845-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r168252845-Days_Inn_by_Wyndham_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>168252845</t>
@@ -1616,10 +1367,7 @@
     <t>Stay far, far away from this dump.  I stay here only because I showed up in the Dallas/Ft Worth area on a Friday night without reservations to a finer hotel.  I used a travel coupon and this was my last option.  I wish I had slept in my car.  Drugs and Gang activity seemed very active in the area.  As far as the room.  When I opened the door the smell of stale cigarette smoke dominated my non smoking room.  As I looked around, the ceiling had cracks, the door had cracks, the bathroom had pubic hair in the shower and the sink.  Overall it was very trashy.  I travel all over the country for a living and this is one of the worst places I've seen.  HOWEVER.  on a positive note.  The cable and internet is doing great!  And the bed is comfortable.  Smells of smoke and Im sleeping on top of the covers tonight but it is comfortable.  In summary.  I rarely stay at days inn.  In general, most of them are dumps.  This one confirmed my thoughts on the chain.  As far as bugs,  as of now I've yet to see a live one, other than flies.  However, when I opened the cabinet under the sink, I saw several of rotting roaches that have yet to be cleaned and removed.  OH... I almost forgot the most disgusting part!!!  While brushing my teeth I notice the sink started...Stay far, far away from this dump.  I stay here only because I showed up in the Dallas/Ft Worth area on a Friday night without reservations to a finer hotel.  I used a travel coupon and this was my last option.  I wish I had slept in my car.  Drugs and Gang activity seemed very active in the area.  As far as the room.  When I opened the door the smell of stale cigarette smoke dominated my non smoking room.  As I looked around, the ceiling had cracks, the door had cracks, the bathroom had pubic hair in the shower and the sink.  Overall it was very trashy.  I travel all over the country for a living and this is one of the worst places I've seen.  HOWEVER.  on a positive note.  The cable and internet is doing great!  And the bed is comfortable.  Smells of smoke and Im sleeping on top of the covers tonight but it is comfortable.  In summary.  I rarely stay at days inn.  In general, most of them are dumps.  This one confirmed my thoughts on the chain.  As far as bugs,  as of now I've yet to see a live one, other than flies.  However, when I opened the cabinet under the sink, I saw several of rotting roaches that have yet to be cleaned and removed.  OH... I almost forgot the most disgusting part!!!  While brushing my teeth I notice the sink started to clog up..  I looked down to notice a plastic looking substance in the drain.  Not one, but two used condoms were blocking the water flow.  I will never stay at this location again.  I will also do whatever it takes to avoid staying at a days inn again.More</t>
   </si>
   <si>
-    <t>Austin K</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r166112598-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r166112598-Days_Inn_by_Wyndham_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>166112598</t>
@@ -1631,10 +1379,7 @@
     <t>June 2013</t>
   </si>
   <si>
-    <t>Sandra H</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r165428115-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r165428115-Days_Inn_by_Wyndham_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>165428115</t>
@@ -1643,10 +1388,7 @@
     <t>06/27/2013</t>
   </si>
   <si>
-    <t>Tim C</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r165327001-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r165327001-Days_Inn_by_Wyndham_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>165327001</t>
@@ -1655,10 +1397,7 @@
     <t>06/26/2013</t>
   </si>
   <si>
-    <t>Will T</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r164541489-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r164541489-Days_Inn_by_Wyndham_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>164541489</t>
@@ -1667,10 +1406,7 @@
     <t>06/19/2013</t>
   </si>
   <si>
-    <t>Arthur T</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r163515974-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r163515974-Days_Inn_by_Wyndham_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>163515974</t>
@@ -1679,10 +1415,7 @@
     <t>06/09/2013</t>
   </si>
   <si>
-    <t>Lavender_Breeze</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r163504599-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r163504599-Days_Inn_by_Wyndham_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>163504599</t>
@@ -1697,10 +1430,7 @@
     <t>May 2013</t>
   </si>
   <si>
-    <t>GeoLady86</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r163151812-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r163151812-Days_Inn_by_Wyndham_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>163151812</t>
@@ -1715,10 +1445,7 @@
     <t xml:space="preserve">Not sure if I just got lucky with a good room, based on all the bad reviews, but I had no problems with this hotel. It is a basic room.  I was sent here by AA cuz of a delayed flight. The air conditioner worked great, the bathroom was clean with nice marble countertops and shower. No bugs. The staff was friendly and helpful. </t>
   </si>
   <si>
-    <t>Julie R</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r160555864-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r160555864-Days_Inn_by_Wyndham_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>160555864</t>
@@ -1727,10 +1454,7 @@
     <t>05/13/2013</t>
   </si>
   <si>
-    <t>Jody M</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r160001627-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r160001627-Days_Inn_by_Wyndham_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>160001627</t>
@@ -1745,19 +1469,13 @@
     <t>The hotel outside was dirty and the breakfast was poor. The beds were comfortable. I wouldn't stay there by myself since some of the residents were a bit scary.</t>
   </si>
   <si>
-    <t>Joel C</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r159980399-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r159980399-Days_Inn_by_Wyndham_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>159980399</t>
   </si>
   <si>
-    <t>K G</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r157223876-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r157223876-Days_Inn_by_Wyndham_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>157223876</t>
@@ -1769,10 +1487,7 @@
     <t>April 2013</t>
   </si>
   <si>
-    <t>Tammy C</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r155880486-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r155880486-Days_Inn_by_Wyndham_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>155880486</t>
@@ -1784,10 +1499,7 @@
     <t>March 2013</t>
   </si>
   <si>
-    <t>Tisha D</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r154696271-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r154696271-Days_Inn_by_Wyndham_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>154696271</t>
@@ -1796,10 +1508,7 @@
     <t>03/15/2013</t>
   </si>
   <si>
-    <t>John Aron J</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r152716434-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r152716434-Days_Inn_by_Wyndham_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>152716434</t>
@@ -1811,10 +1520,7 @@
     <t>February 2013</t>
   </si>
   <si>
-    <t>Gary P</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r151914418-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r151914418-Days_Inn_by_Wyndham_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>151914418</t>
@@ -1823,19 +1529,13 @@
     <t>02/11/2013</t>
   </si>
   <si>
-    <t>T R</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r151903809-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r151903809-Days_Inn_by_Wyndham_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>151903809</t>
   </si>
   <si>
-    <t>Matt M</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r151493623-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r151493623-Days_Inn_by_Wyndham_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>151493623</t>
@@ -1844,10 +1544,7 @@
     <t>02/05/2013</t>
   </si>
   <si>
-    <t>NELIA F</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r150574217-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r150574217-Days_Inn_by_Wyndham_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>150574217</t>
@@ -1859,10 +1556,7 @@
     <t>January 2013</t>
   </si>
   <si>
-    <t>GEORGE M</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r149301518-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r149301518-Days_Inn_by_Wyndham_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>149301518</t>
@@ -1871,10 +1565,7 @@
     <t>01/09/2013</t>
   </si>
   <si>
-    <t>coco L</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r147902499-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r147902499-Days_Inn_by_Wyndham_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>147902499</t>
@@ -1892,10 +1583,7 @@
     <t>November 2012</t>
   </si>
   <si>
-    <t>JESSICA O</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r144318004-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r144318004-Days_Inn_by_Wyndham_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>144318004</t>
@@ -1907,10 +1595,7 @@
     <t>October 2012</t>
   </si>
   <si>
-    <t>CONNIE W</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r143266369-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r143266369-Days_Inn_by_Wyndham_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>143266369</t>
@@ -1919,10 +1604,7 @@
     <t>10/20/2012</t>
   </si>
   <si>
-    <t>Manager-6005</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r142919140-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r142919140-Days_Inn_by_Wyndham_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>142919140</t>
@@ -1931,10 +1613,7 @@
     <t>10/15/2012</t>
   </si>
   <si>
-    <t>Dale D</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r142654427-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r142654427-Days_Inn_by_Wyndham_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>142654427</t>
@@ -1943,10 +1622,7 @@
     <t>10/12/2012</t>
   </si>
   <si>
-    <t>AChick27</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r136441700-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r136441700-Days_Inn_by_Wyndham_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>136441700</t>
@@ -1967,10 +1643,7 @@
     <t>I drove from coast to coast and stayed in many hotels.  I have to say that this was the worst one EVER.  I am not usually a stuck up person.  But this place was both in a horrible area and also was gross inside.  The place was in crackhead city.  For real, they were everywhere.  And there was poop in between my mattress and the wall- like ferret, or large rat possibly, or maybe like chihuahua...  There was chocolate cake and forks under the bed.  I sware!  There were holes around the light switches.  The bathroom light flickered.  There was oatmeal on the wall next to the sink ( I hope it was oatmeal).  Other than that, the place was good!  The air conditioner worked, it better -it was 109 outside.  The one guy behind the desk is the only staff I ever saw.  He was nice.More</t>
   </si>
   <si>
-    <t>meowmeow770731</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r131907006-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r131907006-Days_Inn_by_Wyndham_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>131907006</t>
@@ -1988,10 +1661,7 @@
     <t>well where to start. When we got to Fort Worth the Days Inn was the only place with vacancy at the time period in that area we were at ( now I know why). They had a dog show, rodeo, Republican event, and Bowling tournament so everything was booked. The room was disgusting bed sheets dirty, bathroom (ugh) I was gagging taking a shower it had hair, snot mold ugh. The customer service was awful. The pool was filthy and had roaches. There was a hooker that usually resides there (how do I know) well we got people coming to our room at all hours of the night we stayed 3 nights. Phone calls for this "cherry" person. I asked for towels and cups they gave us 2 of each there were 4 of us their response was( "didn't you get towels and cups") Awful never will be back.More</t>
   </si>
   <si>
-    <t>Luis V</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r124205248-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r124205248-Days_Inn_by_Wyndham_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>124205248</t>
@@ -2009,10 +1679,7 @@
     <t>December 2011</t>
   </si>
   <si>
-    <t>Dawn W</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r123001696-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r123001696-Days_Inn_by_Wyndham_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>123001696</t>
@@ -2030,10 +1697,7 @@
     <t>When relocating my daughter to Houston, we stopped for the night in Ft. Worth.  Booked this place on travelocity app.  What a nasty place.  Checked in late at night, and there were people loitering all over the hotel grounds. We could clearly hear them walk past our room.  We decided to get some sleep and get out early. We chose to skip using the shower as the bathroom was nasty, the tub looked like it hadn't been cleaned.  Every hour or so I was up checking to make sure no one had broken into our car.  We thought that since it was a Days Inn it would be ok, but I wish we had driven further &amp; found something better.More</t>
   </si>
   <si>
-    <t>MissTexasTraveler</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r118871195-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r118871195-Days_Inn_by_Wyndham_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>118871195</t>
@@ -2054,7 +1718,7 @@
     <t>OMG!  I booked a 2 star hotel on Hotwire and got this dump.  As I drove in with my 2 parents, I knew this was BAD news.  I was really nervous and was very embarassed for booking this place for all three of us to save us from driving an hour, as we were in Ft. Worth to spend time with my newborn niece.  I walked in to check-in and there were 2 other people in front of me with "problems."  The first guest was on the phone with what appeared to be the owner and he was trying to get his money back for his paid 1 week stay because his room was flooded and he couldn't get a new room.  He was upset and was getting nowhere and had spent 3 hours getting the run-around.  The guest after that was trying to check-in, but had about 20 IDs with his picture, but no driver's license (looked kind of scary as well).  Then, a pregnant "'woman of the night" walked in and that's when I got even more nervous.  As I was looking out the window, I saw a number of cruising cars and more "women" and just ran out to call Hotwire to see if they could help.  I was able to get a refund and we wound up driving an hour to sleep in our own beds.  This place was gross, the parked cars were old and...OMG!  I booked a 2 star hotel on Hotwire and got this dump.  As I drove in with my 2 parents, I knew this was BAD news.  I was really nervous and was very embarassed for booking this place for all three of us to save us from driving an hour, as we were in Ft. Worth to spend time with my newborn niece.  I walked in to check-in and there were 2 other people in front of me with "problems."  The first guest was on the phone with what appeared to be the owner and he was trying to get his money back for his paid 1 week stay because his room was flooded and he couldn't get a new room.  He was upset and was getting nowhere and had spent 3 hours getting the run-around.  The guest after that was trying to check-in, but had about 20 IDs with his picture, but no driver's license (looked kind of scary as well).  Then, a pregnant "'woman of the night" walked in and that's when I got even more nervous.  As I was looking out the window, I saw a number of cruising cars and more "women" and just ran out to call Hotwire to see if they could help.  I was able to get a refund and we wound up driving an hour to sleep in our own beds.  This place was gross, the parked cars were old and falling apart, and people walking around were very scary looking.  I could tell the buildings were not well maintained because a number of window screens were missing or fallen on the side of the buidlings (not safe).  I peeled out of that parking garage VERY fast and never looked back.More</t>
   </si>
   <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r53812812-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r53812812-Days_Inn_by_Wyndham_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>53812812</t>
@@ -2072,10 +1736,7 @@
     <t>January 2010</t>
   </si>
   <si>
-    <t>Keith H</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r46706327-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r46706327-Days_Inn_by_Wyndham_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>46706327</t>
@@ -2096,10 +1757,7 @@
     <t>While I have never slept in a homeless shelter I am sure they had cleaner beds!  My wife and I booked this hotel in a last minute change of travel plans.  Why did I not read the Trip Advisor reviews first?  Our cab pulled up in front and let us out.  The lobby was locked and we had to stand outside and check in.  The front desk clerk was named Sonny and was not pleasant at all.  We had to walk to the back of the hotel with our luggage and guess what was the first thing we saw?  A hooker and pimp.  Yes that is right this place is teeming with hookers.  Guys with the windows open waiting for a hooker to knock on the door.  Earth to the Fort Worth police, this place is a haven for prostitution!  The carpets were filthy and lots of mold in the bathroom.  Our socks were dirty from walking on the floor.   The room had a bad smell to it as well.  The management did not care that we complained.  Never even said they were sorry.  A horrible stay at a complete dump.  Sleep in your car or the bus station but not here!More</t>
   </si>
   <si>
-    <t>rleesmith</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r25394932-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r25394932-Days_Inn_by_Wyndham_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>25394932</t>
@@ -2117,10 +1775,7 @@
     <t>February 2009</t>
   </si>
   <si>
-    <t>MrB589</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r14296565-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r14296565-Days_Inn_by_Wyndham_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>14296565</t>
@@ -2138,10 +1793,7 @@
     <t>March 2008</t>
   </si>
   <si>
-    <t>spiffynacho</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r13922523-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r13922523-Days_Inn_by_Wyndham_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>13922523</t>
@@ -2162,10 +1814,7 @@
     <t>I guess the only positive thing I have to say about this place is how easy it was to find off I-35.  It's right next to the highway.  If you enjoy falling asleep to the sound of constant traffic, so loud it sounds like you're sleeping in the middle of the highway, book a room at this classy joint!  Hopefully you don't care about cleanliness because this place is a pit!  My room had dirt on the walls and the carpet had lots of stains and dirt and dust particles everywhere.  This is definitely a place you want to keep your socks on at all times!  The "luxurous" king size bed was extremely uncomfortable to even sit on.  If you like sleeping on cement floors, this bed will make you feel right at home.  If you're looking for high-speed Internet, don't count on it here!  The cable TV came in fuzzy and hard to see on just about every channel.  To top it all off, the room didn't even have an alarm clock!  What is this, the Middle Ages?!?  I can't believe I paid $50 for this room!More</t>
   </si>
   <si>
-    <t>earlyriserTexas</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r13620260-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r13620260-Days_Inn_by_Wyndham_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>13620260</t>
@@ -2183,10 +1832,7 @@
     <t>Room was not clean.  Tub drained very slowly (6 hours after three short showers).  Coffee maker and coffee, but no cups until the fifth day.  Booked the room for three people, had to ask for the third towel  EVERY day.  No bathmat.   Door wasn't secure.  Curtains wouldn't close--had to use clothespins on them.  Had a pair of boots stolen.  Exhaust fan in bathroom didn't work.  Panhandlers in the parking lot.  Had to ask for linens for roll away bed--then ended up having to go get them, because they didn't bring everything after three tries--roll away bed was mildewed.  No alarm clock.  TV was broken.  Office staff spoke VERY little english.  One member of the staff was very unhelpful--as if it was beneath him to do his job--he also spoke the worst english.  This is probably the worst part of town to stay in and feel safe.More</t>
   </si>
   <si>
-    <t>ChrisSmith</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r5500916-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r5500916-Days_Inn_by_Wyndham_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>5500916</t>
@@ -2204,10 +1850,7 @@
     <t>July 2006</t>
   </si>
   <si>
-    <t>cmayo</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r3998264-Days_Inn_South_Fort_Worth-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225117-r3998264-Days_Inn_by_Wyndham_South_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>3998264</t>
@@ -2724,47 +2367,43 @@
       <c r="A2" t="n">
         <v>3572</v>
       </c>
-      <c r="B2" t="n">
-        <v>129735</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
-        <v>46</v>
-      </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
         <v>52</v>
       </c>
-      <c r="M2" t="n">
-        <v>2</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>53</v>
-      </c>
-      <c r="O2" t="s">
-        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>5</v>
@@ -2788,39 +2427,35 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>3572</v>
       </c>
-      <c r="B3" t="n">
-        <v>129736</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
         <v>56</v>
       </c>
-      <c r="D3" t="n">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="J3" t="s">
         <v>57</v>
-      </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
-        <v>58</v>
-      </c>
-      <c r="J3" t="s">
-        <v>59</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -2828,10 +2463,10 @@
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P3" t="n">
         <v>3</v>
@@ -2852,52 +2487,51 @@
       <c r="V3" t="n">
         <v>0</v>
       </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>3572</v>
       </c>
-      <c r="B4" t="n">
-        <v>118978</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" t="s">
         <v>61</v>
       </c>
-      <c r="D4" t="n">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="K4" t="s">
         <v>62</v>
       </c>
-      <c r="G4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>63</v>
       </c>
-      <c r="J4" t="s">
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
         <v>64</v>
       </c>
-      <c r="K4" t="s">
+      <c r="O4" t="s">
         <v>65</v>
-      </c>
-      <c r="L4" t="s">
-        <v>66</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="s">
-        <v>67</v>
-      </c>
-      <c r="O4" t="s">
-        <v>68</v>
       </c>
       <c r="P4" t="n">
         <v>1</v>
@@ -2915,39 +2549,35 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>3572</v>
       </c>
-      <c r="B5" t="n">
-        <v>129737</v>
-      </c>
-      <c r="C5" t="s">
-        <v>69</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="J5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -2955,10 +2585,10 @@
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="O5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="P5" t="n">
         <v>1</v>
@@ -2979,52 +2609,51 @@
       <c r="V5" t="n">
         <v>0</v>
       </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>3572</v>
       </c>
-      <c r="B6" t="n">
-        <v>129738</v>
-      </c>
-      <c r="C6" t="s">
-        <v>75</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="J6" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="K6" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="L6" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="M6" t="n">
         <v>2</v>
       </c>
       <c r="N6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="O6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P6" t="n">
         <v>3</v>
@@ -3048,54 +2677,50 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>3572</v>
       </c>
-      <c r="B7" t="n">
-        <v>118065</v>
-      </c>
-      <c r="C7" t="s">
-        <v>81</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="J7" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="K7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="L7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="M7" t="n">
         <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="O7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -3109,54 +2734,50 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>3572</v>
       </c>
-      <c r="B8" t="n">
-        <v>129739</v>
-      </c>
-      <c r="C8" t="s">
-        <v>88</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="J8" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="K8" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="L8" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="M8" t="n">
         <v>2</v>
       </c>
       <c r="N8" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="O8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="P8" t="n">
         <v>1</v>
@@ -3180,52 +2801,48 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>3572</v>
       </c>
-      <c r="B9" t="n">
-        <v>129740</v>
-      </c>
-      <c r="C9" t="s">
-        <v>95</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="J9" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="K9" t="s"/>
       <c r="L9" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="O9" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="P9" t="n">
         <v>1</v>
@@ -3249,54 +2866,50 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>3572</v>
       </c>
-      <c r="B10" t="n">
-        <v>129741</v>
-      </c>
-      <c r="C10" t="s">
-        <v>102</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="J10" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K10" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="L10" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="M10" t="n">
         <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="O10" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="P10" t="n">
         <v>3</v>
@@ -3320,54 +2933,50 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>3572</v>
       </c>
-      <c r="B11" t="n">
-        <v>129742</v>
-      </c>
-      <c r="C11" t="s">
-        <v>109</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="J11" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="K11" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="L11" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="O11" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="P11" t="n">
         <v>3</v>
@@ -3391,54 +3000,50 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>3572</v>
       </c>
-      <c r="B12" t="n">
-        <v>129743</v>
-      </c>
-      <c r="C12" t="s">
-        <v>116</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="J12" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="K12" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="L12" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="O12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P12" t="n">
         <v>1</v>
@@ -3462,39 +3067,35 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>3572</v>
       </c>
-      <c r="B13" t="n">
-        <v>129744</v>
-      </c>
-      <c r="C13" t="s">
-        <v>121</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="J13" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="K13" t="s"/>
       <c r="L13" t="s"/>
@@ -3502,10 +3103,10 @@
         <v>2</v>
       </c>
       <c r="N13" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="O13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P13" t="n">
         <v>3</v>
@@ -3526,37 +3127,36 @@
       <c r="V13" t="n">
         <v>0</v>
       </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>3572</v>
       </c>
-      <c r="B14" t="n">
-        <v>129745</v>
-      </c>
-      <c r="C14" t="s">
-        <v>126</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="J14" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="K14" t="s"/>
       <c r="L14" t="s"/>
@@ -3564,10 +3164,10 @@
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="O14" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="P14" t="n">
         <v>1</v>
@@ -3588,52 +3188,51 @@
       <c r="V14" t="n">
         <v>0</v>
       </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>3572</v>
       </c>
-      <c r="B15" t="n">
-        <v>129746</v>
-      </c>
-      <c r="C15" t="s">
-        <v>130</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="G15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="J15" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="K15" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="L15" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="M15" t="n">
         <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="O15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -3653,54 +3252,50 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>3572</v>
       </c>
-      <c r="B16" t="n">
-        <v>129747</v>
-      </c>
-      <c r="C16" t="s">
-        <v>137</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="J16" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="K16" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="L16" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="O16" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="P16" t="n">
         <v>2</v>
@@ -3724,39 +3319,35 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>3572</v>
       </c>
-      <c r="B17" t="n">
-        <v>129748</v>
-      </c>
-      <c r="C17" t="s">
-        <v>143</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="G17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="J17" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="K17" t="s"/>
       <c r="L17" t="s"/>
@@ -3764,10 +3355,10 @@
         <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="O17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="P17" t="n">
         <v>4</v>
@@ -3788,52 +3379,51 @@
       <c r="V17" t="n">
         <v>0</v>
       </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>3572</v>
       </c>
-      <c r="B18" t="n">
-        <v>9467</v>
-      </c>
-      <c r="C18" t="s">
-        <v>147</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="J18" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="K18" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="L18" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="O18" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -3847,54 +3437,50 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>3572</v>
       </c>
-      <c r="B19" t="n">
-        <v>129749</v>
-      </c>
-      <c r="C19" t="s">
-        <v>155</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="G19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="J19" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="K19" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="L19" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="O19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -3908,54 +3494,50 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>3572</v>
       </c>
-      <c r="B20" t="n">
-        <v>129750</v>
-      </c>
-      <c r="C20" t="s">
-        <v>162</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="G20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="J20" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="K20" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="L20" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="O20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="P20" t="n">
         <v>5</v>
@@ -3979,54 +3561,50 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>3572</v>
       </c>
-      <c r="B21" t="n">
-        <v>129751</v>
-      </c>
-      <c r="C21" t="s">
-        <v>169</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="J21" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="K21" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="L21" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="M21" t="n">
         <v>2</v>
       </c>
       <c r="N21" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="O21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -4040,39 +3618,35 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>3572</v>
       </c>
-      <c r="B22" t="n">
-        <v>129752</v>
-      </c>
-      <c r="C22" t="s">
-        <v>177</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="G22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="J22" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="K22" t="s"/>
       <c r="L22" t="s"/>
@@ -4080,10 +3654,10 @@
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="O22" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="P22" t="n">
         <v>1</v>
@@ -4104,52 +3678,51 @@
       <c r="V22" t="n">
         <v>0</v>
       </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>3572</v>
       </c>
-      <c r="B23" t="n">
-        <v>129753</v>
-      </c>
-      <c r="C23" t="s">
-        <v>182</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="G23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="J23" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="K23" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="L23" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="O23" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="P23" t="n">
         <v>2</v>
@@ -4173,54 +3746,50 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>3572</v>
       </c>
-      <c r="B24" t="n">
-        <v>129754</v>
-      </c>
-      <c r="C24" t="s">
-        <v>187</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="G24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="J24" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="K24" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="L24" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="O24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P24" t="n">
         <v>3</v>
@@ -4244,39 +3813,35 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>3572</v>
       </c>
-      <c r="B25" t="n">
-        <v>129755</v>
-      </c>
-      <c r="C25" t="s">
-        <v>193</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="G25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="J25" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="K25" t="s"/>
       <c r="L25" t="s"/>
@@ -4284,10 +3849,10 @@
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="O25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -4298,52 +3863,51 @@
       <c r="V25" t="n">
         <v>0</v>
       </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>3572</v>
       </c>
-      <c r="B26" t="n">
-        <v>129756</v>
-      </c>
-      <c r="C26" t="s">
-        <v>197</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="G26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="J26" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="K26" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="L26" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="O26" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="P26" t="n">
         <v>4</v>
@@ -4367,39 +3931,35 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>3572</v>
       </c>
-      <c r="B27" t="n">
-        <v>129757</v>
-      </c>
-      <c r="C27" t="s">
-        <v>204</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>205</v>
+        <v>179</v>
       </c>
       <c r="G27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
       <c r="J27" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
       <c r="K27" t="s"/>
       <c r="L27" t="s"/>
@@ -4407,10 +3967,10 @@
         <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="O27" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="P27" t="n">
         <v>1</v>
@@ -4431,52 +3991,51 @@
       <c r="V27" t="n">
         <v>0</v>
       </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>3572</v>
       </c>
-      <c r="B28" t="n">
-        <v>129758</v>
-      </c>
-      <c r="C28" t="s">
-        <v>208</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="G28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>210</v>
+        <v>183</v>
       </c>
       <c r="J28" t="s">
-        <v>211</v>
+        <v>184</v>
       </c>
       <c r="K28" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
       <c r="L28" t="s">
-        <v>213</v>
+        <v>186</v>
       </c>
       <c r="M28" t="n">
         <v>2</v>
       </c>
       <c r="N28" t="s">
-        <v>214</v>
+        <v>187</v>
       </c>
       <c r="O28" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="P28" t="n">
         <v>1</v>
@@ -4500,52 +4059,48 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>213</v>
+        <v>186</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>3572</v>
       </c>
-      <c r="B29" t="n">
-        <v>129759</v>
-      </c>
-      <c r="C29" t="s">
-        <v>215</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>216</v>
+        <v>188</v>
       </c>
       <c r="G29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>217</v>
+        <v>189</v>
       </c>
       <c r="J29" t="s">
-        <v>218</v>
+        <v>190</v>
       </c>
       <c r="K29" t="s"/>
       <c r="L29" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>219</v>
+        <v>191</v>
       </c>
       <c r="O29" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="P29" t="n">
         <v>1</v>
@@ -4569,54 +4124,50 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>3572</v>
       </c>
-      <c r="B30" t="n">
-        <v>129760</v>
-      </c>
-      <c r="C30" t="s">
-        <v>220</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="G30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>222</v>
+        <v>193</v>
       </c>
       <c r="J30" t="s">
-        <v>223</v>
+        <v>194</v>
       </c>
       <c r="K30" t="s">
-        <v>224</v>
+        <v>195</v>
       </c>
       <c r="L30" t="s">
-        <v>225</v>
+        <v>196</v>
       </c>
       <c r="M30" t="n">
         <v>2</v>
       </c>
       <c r="N30" t="s">
-        <v>226</v>
+        <v>197</v>
       </c>
       <c r="O30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P30" t="n">
         <v>3</v>
@@ -4640,52 +4191,48 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>225</v>
+        <v>196</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>3572</v>
       </c>
-      <c r="B31" t="n">
-        <v>7035</v>
-      </c>
-      <c r="C31" t="s">
-        <v>227</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>228</v>
+        <v>198</v>
       </c>
       <c r="G31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="J31" t="s">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="K31" t="s"/>
       <c r="L31" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>231</v>
+        <v>201</v>
       </c>
       <c r="O31" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="P31" t="n">
         <v>3</v>
@@ -4709,54 +4256,50 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>3572</v>
       </c>
-      <c r="B32" t="n">
-        <v>129761</v>
-      </c>
-      <c r="C32" t="s">
-        <v>232</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>233</v>
+        <v>202</v>
       </c>
       <c r="G32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>234</v>
+        <v>203</v>
       </c>
       <c r="J32" t="s">
-        <v>235</v>
+        <v>204</v>
       </c>
       <c r="K32" t="s">
-        <v>236</v>
+        <v>205</v>
       </c>
       <c r="L32" t="s">
-        <v>237</v>
+        <v>206</v>
       </c>
       <c r="M32" t="n">
         <v>3</v>
       </c>
       <c r="N32" t="s">
-        <v>231</v>
+        <v>201</v>
       </c>
       <c r="O32" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="P32" t="n">
         <v>4</v>
@@ -4780,39 +4323,35 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>237</v>
+        <v>206</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>3572</v>
       </c>
-      <c r="B33" t="n">
-        <v>129762</v>
-      </c>
-      <c r="C33" t="s">
-        <v>238</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>239</v>
+        <v>207</v>
       </c>
       <c r="G33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="J33" t="s">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="K33" t="s"/>
       <c r="L33" t="s"/>
@@ -4820,10 +4359,10 @@
         <v>2</v>
       </c>
       <c r="N33" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="O33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P33" t="n">
         <v>2</v>
@@ -4844,52 +4383,51 @@
       <c r="V33" t="n">
         <v>0</v>
       </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>3572</v>
       </c>
-      <c r="B34" t="n">
-        <v>129763</v>
-      </c>
-      <c r="C34" t="s">
-        <v>243</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>244</v>
+        <v>211</v>
       </c>
       <c r="G34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>245</v>
+        <v>212</v>
       </c>
       <c r="J34" t="s">
-        <v>246</v>
+        <v>213</v>
       </c>
       <c r="K34" t="s">
-        <v>247</v>
+        <v>214</v>
       </c>
       <c r="L34" t="s">
-        <v>248</v>
+        <v>215</v>
       </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="O34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P34" t="n">
         <v>1</v>
@@ -4913,54 +4451,50 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>248</v>
+        <v>215</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>3572</v>
       </c>
-      <c r="B35" t="n">
-        <v>129764</v>
-      </c>
-      <c r="C35" t="s">
-        <v>250</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>251</v>
+        <v>217</v>
       </c>
       <c r="G35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>252</v>
+        <v>218</v>
       </c>
       <c r="J35" t="s">
-        <v>253</v>
+        <v>219</v>
       </c>
       <c r="K35" t="s">
-        <v>254</v>
+        <v>220</v>
       </c>
       <c r="L35" t="s">
-        <v>255</v>
+        <v>221</v>
       </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="O35" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -4976,54 +4510,50 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>255</v>
+        <v>221</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>3572</v>
       </c>
-      <c r="B36" t="n">
-        <v>129765</v>
-      </c>
-      <c r="C36" t="s">
-        <v>256</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>257</v>
+        <v>222</v>
       </c>
       <c r="G36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>258</v>
+        <v>223</v>
       </c>
       <c r="J36" t="s">
-        <v>259</v>
+        <v>224</v>
       </c>
       <c r="K36" t="s">
-        <v>260</v>
+        <v>225</v>
       </c>
       <c r="L36" t="s">
-        <v>261</v>
+        <v>226</v>
       </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>262</v>
+        <v>227</v>
       </c>
       <c r="O36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -5037,54 +4567,50 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>3572</v>
       </c>
-      <c r="B37" t="n">
-        <v>686</v>
-      </c>
-      <c r="C37" t="s">
-        <v>264</v>
-      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>265</v>
+        <v>229</v>
       </c>
       <c r="G37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>266</v>
+        <v>230</v>
       </c>
       <c r="J37" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
       <c r="K37" t="s">
-        <v>268</v>
+        <v>232</v>
       </c>
       <c r="L37" t="s">
-        <v>269</v>
+        <v>233</v>
       </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
       <c r="N37" t="s">
-        <v>270</v>
+        <v>234</v>
       </c>
       <c r="O37" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -5098,54 +4624,50 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>271</v>
+        <v>235</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>3572</v>
       </c>
-      <c r="B38" t="n">
-        <v>129766</v>
-      </c>
-      <c r="C38" t="s">
-        <v>272</v>
-      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>273</v>
+        <v>236</v>
       </c>
       <c r="G38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>274</v>
+        <v>237</v>
       </c>
       <c r="J38" t="s">
-        <v>275</v>
+        <v>238</v>
       </c>
       <c r="K38" t="s">
-        <v>276</v>
+        <v>239</v>
       </c>
       <c r="L38" t="s">
-        <v>277</v>
+        <v>240</v>
       </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
       <c r="N38" t="s">
-        <v>278</v>
+        <v>241</v>
       </c>
       <c r="O38" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="P38" t="n">
         <v>2</v>
@@ -5169,54 +4691,50 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>277</v>
+        <v>240</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>3572</v>
       </c>
-      <c r="B39" t="n">
-        <v>29142</v>
-      </c>
-      <c r="C39" t="s">
-        <v>279</v>
-      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>280</v>
+        <v>242</v>
       </c>
       <c r="G39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>281</v>
+        <v>243</v>
       </c>
       <c r="J39" t="s">
-        <v>282</v>
+        <v>244</v>
       </c>
       <c r="K39" t="s">
         <v>10</v>
       </c>
       <c r="L39" t="s">
-        <v>283</v>
+        <v>245</v>
       </c>
       <c r="M39" t="n">
         <v>3</v>
       </c>
       <c r="N39" t="s">
-        <v>278</v>
+        <v>241</v>
       </c>
       <c r="O39" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="P39" t="n">
         <v>4</v>
@@ -5240,39 +4758,35 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>283</v>
+        <v>245</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>3572</v>
       </c>
-      <c r="B40" t="n">
-        <v>129767</v>
-      </c>
-      <c r="C40" t="s">
-        <v>284</v>
-      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>285</v>
+        <v>246</v>
       </c>
       <c r="G40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>286</v>
+        <v>247</v>
       </c>
       <c r="J40" t="s">
-        <v>287</v>
+        <v>248</v>
       </c>
       <c r="K40" t="s"/>
       <c r="L40" t="s"/>
@@ -5280,10 +4794,10 @@
         <v>2</v>
       </c>
       <c r="N40" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="O40" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P40" t="n">
         <v>3</v>
@@ -5302,37 +4816,36 @@
       <c r="V40" t="n">
         <v>0</v>
       </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>3572</v>
       </c>
-      <c r="B41" t="n">
-        <v>29142</v>
-      </c>
-      <c r="C41" t="s">
-        <v>279</v>
-      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>289</v>
+        <v>250</v>
       </c>
       <c r="G41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>290</v>
+        <v>251</v>
       </c>
       <c r="J41" t="s">
-        <v>291</v>
+        <v>252</v>
       </c>
       <c r="K41" t="s"/>
       <c r="L41" t="s"/>
@@ -5340,10 +4853,10 @@
         <v>3</v>
       </c>
       <c r="N41" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="O41" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="P41" t="n">
         <v>4</v>
@@ -5364,37 +4877,36 @@
       <c r="V41" t="n">
         <v>0</v>
       </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>3572</v>
       </c>
-      <c r="B42" t="n">
-        <v>790</v>
-      </c>
-      <c r="C42" t="s">
-        <v>292</v>
-      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>293</v>
+        <v>253</v>
       </c>
       <c r="G42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>294</v>
+        <v>254</v>
       </c>
       <c r="J42" t="s">
-        <v>295</v>
+        <v>255</v>
       </c>
       <c r="K42" t="s"/>
       <c r="L42" t="s"/>
@@ -5402,10 +4914,10 @@
         <v>1</v>
       </c>
       <c r="N42" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="O42" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="P42" t="n">
         <v>1</v>
@@ -5426,37 +4938,36 @@
       <c r="V42" t="n">
         <v>0</v>
       </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>3572</v>
       </c>
-      <c r="B43" t="n">
-        <v>4977</v>
-      </c>
-      <c r="C43" t="s">
-        <v>296</v>
-      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>297</v>
+        <v>256</v>
       </c>
       <c r="G43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>298</v>
+        <v>257</v>
       </c>
       <c r="J43" t="s">
-        <v>299</v>
+        <v>258</v>
       </c>
       <c r="K43" t="s"/>
       <c r="L43" t="s"/>
@@ -5464,10 +4975,10 @@
         <v>1</v>
       </c>
       <c r="N43" t="s">
-        <v>300</v>
+        <v>259</v>
       </c>
       <c r="O43" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="P43" t="n">
         <v>3</v>
@@ -5488,37 +4999,36 @@
       <c r="V43" t="n">
         <v>0</v>
       </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>3572</v>
       </c>
-      <c r="B44" t="n">
-        <v>129768</v>
-      </c>
-      <c r="C44" t="s">
-        <v>301</v>
-      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>302</v>
+        <v>260</v>
       </c>
       <c r="G44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>303</v>
+        <v>261</v>
       </c>
       <c r="J44" t="s">
-        <v>304</v>
+        <v>262</v>
       </c>
       <c r="K44" t="s"/>
       <c r="L44" t="s"/>
@@ -5526,10 +5036,10 @@
         <v>1</v>
       </c>
       <c r="N44" t="s">
-        <v>305</v>
+        <v>263</v>
       </c>
       <c r="O44" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="P44" t="n">
         <v>1</v>
@@ -5550,37 +5060,36 @@
       <c r="V44" t="n">
         <v>0</v>
       </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>3572</v>
       </c>
-      <c r="B45" t="n">
-        <v>4279</v>
-      </c>
-      <c r="C45" t="s">
-        <v>306</v>
-      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>307</v>
+        <v>264</v>
       </c>
       <c r="G45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>308</v>
+        <v>265</v>
       </c>
       <c r="J45" t="s">
-        <v>309</v>
+        <v>266</v>
       </c>
       <c r="K45" t="s"/>
       <c r="L45" t="s"/>
@@ -5588,10 +5097,10 @@
         <v>1</v>
       </c>
       <c r="N45" t="s">
-        <v>305</v>
+        <v>263</v>
       </c>
       <c r="O45" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="P45" t="n">
         <v>1</v>
@@ -5612,52 +5121,51 @@
       <c r="V45" t="n">
         <v>0</v>
       </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>3572</v>
       </c>
-      <c r="B46" t="n">
-        <v>129769</v>
-      </c>
-      <c r="C46" t="s">
-        <v>310</v>
-      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>311</v>
+        <v>267</v>
       </c>
       <c r="G46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>312</v>
+        <v>268</v>
       </c>
       <c r="J46" t="s">
-        <v>313</v>
+        <v>269</v>
       </c>
       <c r="K46" t="s">
-        <v>314</v>
+        <v>270</v>
       </c>
       <c r="L46" t="s">
-        <v>315</v>
+        <v>271</v>
       </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
       <c r="N46" t="s">
-        <v>305</v>
+        <v>263</v>
       </c>
       <c r="O46" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="P46" t="n">
         <v>1</v>
@@ -5677,45 +5185,41 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>3572</v>
       </c>
-      <c r="B47" t="n">
-        <v>14</v>
-      </c>
-      <c r="C47" t="s">
-        <v>317</v>
-      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>318</v>
+        <v>273</v>
       </c>
       <c r="G47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>319</v>
+        <v>274</v>
       </c>
       <c r="J47" t="s">
-        <v>320</v>
+        <v>275</v>
       </c>
       <c r="K47" t="s">
-        <v>321</v>
+        <v>276</v>
       </c>
       <c r="L47" t="s">
-        <v>322</v>
+        <v>277</v>
       </c>
       <c r="M47" t="n">
         <v>3</v>
@@ -5744,54 +5248,50 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>323</v>
+        <v>278</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>3572</v>
       </c>
-      <c r="B48" t="n">
-        <v>129770</v>
-      </c>
-      <c r="C48" t="s">
-        <v>324</v>
-      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>325</v>
+        <v>279</v>
       </c>
       <c r="G48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>326</v>
+        <v>280</v>
       </c>
       <c r="J48" t="s">
-        <v>327</v>
+        <v>281</v>
       </c>
       <c r="K48" t="s">
-        <v>328</v>
+        <v>282</v>
       </c>
       <c r="L48" t="s">
-        <v>329</v>
+        <v>283</v>
       </c>
       <c r="M48" t="n">
         <v>2</v>
       </c>
       <c r="N48" t="s">
-        <v>330</v>
+        <v>284</v>
       </c>
       <c r="O48" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P48" t="n">
         <v>2</v>
@@ -5815,54 +5315,50 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>329</v>
+        <v>283</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>3572</v>
       </c>
-      <c r="B49" t="n">
-        <v>129771</v>
-      </c>
-      <c r="C49" t="s">
-        <v>331</v>
-      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>332</v>
+        <v>285</v>
       </c>
       <c r="G49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>333</v>
+        <v>286</v>
       </c>
       <c r="J49" t="s">
-        <v>334</v>
+        <v>287</v>
       </c>
       <c r="K49" t="s">
-        <v>335</v>
+        <v>288</v>
       </c>
       <c r="L49" t="s">
-        <v>336</v>
+        <v>289</v>
       </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
       <c r="N49" t="s">
-        <v>337</v>
+        <v>290</v>
       </c>
       <c r="O49" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="P49" t="n">
         <v>1</v>
@@ -5886,39 +5382,35 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>338</v>
+        <v>291</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>3572</v>
       </c>
-      <c r="B50" t="n">
-        <v>129772</v>
-      </c>
-      <c r="C50" t="s">
-        <v>339</v>
-      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>340</v>
+        <v>292</v>
       </c>
       <c r="G50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>341</v>
+        <v>293</v>
       </c>
       <c r="J50" t="s">
-        <v>342</v>
+        <v>294</v>
       </c>
       <c r="K50" t="s"/>
       <c r="L50" t="s"/>
@@ -5926,10 +5418,10 @@
         <v>3</v>
       </c>
       <c r="N50" t="s">
-        <v>330</v>
+        <v>284</v>
       </c>
       <c r="O50" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P50" t="n">
         <v>5</v>
@@ -5950,37 +5442,36 @@
       <c r="V50" t="n">
         <v>0</v>
       </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>3572</v>
       </c>
-      <c r="B51" t="n">
-        <v>129773</v>
-      </c>
-      <c r="C51" t="s">
-        <v>343</v>
-      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>344</v>
+        <v>295</v>
       </c>
       <c r="G51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>345</v>
+        <v>296</v>
       </c>
       <c r="J51" t="s">
-        <v>346</v>
+        <v>297</v>
       </c>
       <c r="K51" t="s"/>
       <c r="L51" t="s"/>
@@ -5988,10 +5479,10 @@
         <v>1</v>
       </c>
       <c r="N51" t="s">
-        <v>347</v>
+        <v>298</v>
       </c>
       <c r="O51" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="P51" t="n">
         <v>1</v>
@@ -6012,52 +5503,51 @@
       <c r="V51" t="n">
         <v>0</v>
       </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>3572</v>
       </c>
-      <c r="B52" t="n">
-        <v>3658</v>
-      </c>
-      <c r="C52" t="s">
-        <v>348</v>
-      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>349</v>
+        <v>299</v>
       </c>
       <c r="G52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="J52" t="s">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="K52" t="s">
-        <v>352</v>
+        <v>302</v>
       </c>
       <c r="L52" t="s">
-        <v>353</v>
+        <v>303</v>
       </c>
       <c r="M52" t="n">
         <v>3</v>
       </c>
       <c r="N52" t="s">
-        <v>354</v>
+        <v>304</v>
       </c>
       <c r="O52" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="n">
@@ -6077,39 +5567,35 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>355</v>
+        <v>305</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>3572</v>
       </c>
-      <c r="B53" t="n">
-        <v>129774</v>
-      </c>
-      <c r="C53" t="s">
-        <v>356</v>
-      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>357</v>
+        <v>306</v>
       </c>
       <c r="G53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>358</v>
+        <v>307</v>
       </c>
       <c r="J53" t="s">
-        <v>359</v>
+        <v>308</v>
       </c>
       <c r="K53" t="s"/>
       <c r="L53" t="s"/>
@@ -6117,10 +5603,10 @@
         <v>1</v>
       </c>
       <c r="N53" t="s">
-        <v>354</v>
+        <v>304</v>
       </c>
       <c r="O53" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="P53" t="n">
         <v>3</v>
@@ -6141,52 +5627,51 @@
       <c r="V53" t="n">
         <v>0</v>
       </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>3572</v>
       </c>
-      <c r="B54" t="n">
-        <v>47605</v>
-      </c>
-      <c r="C54" t="s">
-        <v>360</v>
-      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>361</v>
+        <v>309</v>
       </c>
       <c r="G54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H54" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>362</v>
+        <v>310</v>
       </c>
       <c r="J54" t="s">
-        <v>363</v>
+        <v>311</v>
       </c>
       <c r="K54" t="s">
-        <v>364</v>
+        <v>312</v>
       </c>
       <c r="L54" t="s">
-        <v>365</v>
+        <v>313</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>366</v>
+        <v>314</v>
       </c>
       <c r="O54" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="P54" t="n">
         <v>5</v>
@@ -6206,39 +5691,35 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>365</v>
+        <v>313</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>3572</v>
       </c>
-      <c r="B55" t="n">
-        <v>10345</v>
-      </c>
-      <c r="C55" t="s">
-        <v>367</v>
-      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>368</v>
+        <v>315</v>
       </c>
       <c r="G55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>369</v>
+        <v>316</v>
       </c>
       <c r="J55" t="s">
-        <v>370</v>
+        <v>317</v>
       </c>
       <c r="K55" t="s"/>
       <c r="L55" t="s"/>
@@ -6246,10 +5727,10 @@
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>366</v>
+        <v>314</v>
       </c>
       <c r="O55" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P55" t="n">
         <v>5</v>
@@ -6270,52 +5751,51 @@
       <c r="V55" t="n">
         <v>0</v>
       </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>3572</v>
       </c>
-      <c r="B56" t="n">
-        <v>129775</v>
-      </c>
-      <c r="C56" t="s">
-        <v>371</v>
-      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>372</v>
+        <v>318</v>
       </c>
       <c r="G56" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>373</v>
+        <v>319</v>
       </c>
       <c r="J56" t="s">
-        <v>374</v>
+        <v>320</v>
       </c>
       <c r="K56" t="s">
-        <v>375</v>
+        <v>321</v>
       </c>
       <c r="L56" t="s">
-        <v>376</v>
+        <v>322</v>
       </c>
       <c r="M56" t="n">
         <v>2</v>
       </c>
       <c r="N56" t="s">
-        <v>377</v>
+        <v>323</v>
       </c>
       <c r="O56" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="P56" t="s"/>
       <c r="Q56" t="n">
@@ -6335,45 +5815,41 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>376</v>
+        <v>322</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>3572</v>
       </c>
-      <c r="B57" t="n">
-        <v>72476</v>
-      </c>
-      <c r="C57" t="s">
-        <v>378</v>
-      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>379</v>
+        <v>324</v>
       </c>
       <c r="G57" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>380</v>
+        <v>325</v>
       </c>
       <c r="J57" t="s">
-        <v>381</v>
+        <v>326</v>
       </c>
       <c r="K57" t="s">
-        <v>382</v>
+        <v>327</v>
       </c>
       <c r="L57" t="s">
-        <v>383</v>
+        <v>328</v>
       </c>
       <c r="M57" t="n">
         <v>1</v>
@@ -6392,54 +5868,50 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>383</v>
+        <v>328</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>3572</v>
       </c>
-      <c r="B58" t="n">
-        <v>129776</v>
-      </c>
-      <c r="C58" t="s">
-        <v>384</v>
-      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>385</v>
+        <v>329</v>
       </c>
       <c r="G58" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H58" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>386</v>
+        <v>330</v>
       </c>
       <c r="J58" t="s">
-        <v>387</v>
+        <v>331</v>
       </c>
       <c r="K58" t="s">
-        <v>388</v>
+        <v>332</v>
       </c>
       <c r="L58" t="s">
-        <v>389</v>
+        <v>333</v>
       </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
       <c r="N58" t="s">
-        <v>390</v>
+        <v>334</v>
       </c>
       <c r="O58" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="P58" t="n">
         <v>3</v>
@@ -6457,52 +5929,48 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>389</v>
+        <v>333</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>3572</v>
       </c>
-      <c r="B59" t="n">
-        <v>5467</v>
-      </c>
-      <c r="C59" t="s">
-        <v>391</v>
-      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>392</v>
+        <v>335</v>
       </c>
       <c r="G59" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H59" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>393</v>
+        <v>336</v>
       </c>
       <c r="J59" t="s">
-        <v>394</v>
+        <v>337</v>
       </c>
       <c r="K59" t="s"/>
       <c r="L59" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
       <c r="N59" t="s">
-        <v>395</v>
+        <v>338</v>
       </c>
       <c r="O59" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="P59" t="n">
         <v>1</v>
@@ -6526,54 +5994,50 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>3572</v>
       </c>
-      <c r="B60" t="n">
-        <v>25917</v>
-      </c>
-      <c r="C60" t="s">
-        <v>396</v>
-      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>397</v>
+        <v>339</v>
       </c>
       <c r="G60" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H60" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>398</v>
+        <v>340</v>
       </c>
       <c r="J60" t="s">
-        <v>399</v>
+        <v>341</v>
       </c>
       <c r="K60" t="s">
-        <v>400</v>
+        <v>342</v>
       </c>
       <c r="L60" t="s">
-        <v>401</v>
+        <v>343</v>
       </c>
       <c r="M60" t="n">
         <v>3</v>
       </c>
       <c r="N60" t="s">
-        <v>402</v>
+        <v>344</v>
       </c>
       <c r="O60" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="P60" t="n">
         <v>2</v>
@@ -6597,39 +6061,35 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>401</v>
+        <v>343</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>3572</v>
       </c>
-      <c r="B61" t="n">
-        <v>26565</v>
-      </c>
-      <c r="C61" t="s">
-        <v>403</v>
-      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>404</v>
+        <v>345</v>
       </c>
       <c r="G61" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H61" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>405</v>
+        <v>346</v>
       </c>
       <c r="J61" t="s">
-        <v>406</v>
+        <v>347</v>
       </c>
       <c r="K61" t="s"/>
       <c r="L61" t="s"/>
@@ -6637,10 +6097,10 @@
         <v>3</v>
       </c>
       <c r="N61" t="s">
-        <v>402</v>
+        <v>344</v>
       </c>
       <c r="O61" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P61" t="n">
         <v>4</v>
@@ -6661,37 +6121,36 @@
       <c r="V61" t="n">
         <v>0</v>
       </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>3572</v>
       </c>
-      <c r="B62" t="n">
-        <v>129777</v>
-      </c>
-      <c r="C62" t="s">
-        <v>407</v>
-      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>408</v>
+        <v>348</v>
       </c>
       <c r="G62" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H62" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I62" t="s">
-        <v>409</v>
+        <v>349</v>
       </c>
       <c r="J62" t="s">
-        <v>410</v>
+        <v>350</v>
       </c>
       <c r="K62" t="s"/>
       <c r="L62" t="s"/>
@@ -6699,10 +6158,10 @@
         <v>2</v>
       </c>
       <c r="N62" t="s">
-        <v>402</v>
+        <v>344</v>
       </c>
       <c r="O62" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="P62" t="n">
         <v>3</v>
@@ -6723,6 +6182,9 @@
       <c r="V62" t="n">
         <v>0</v>
       </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -6734,22 +6196,22 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>411</v>
+        <v>351</v>
       </c>
       <c r="G63" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H63" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I63" t="s">
-        <v>412</v>
+        <v>352</v>
       </c>
       <c r="J63" t="s">
-        <v>413</v>
+        <v>353</v>
       </c>
       <c r="K63" t="s"/>
       <c r="L63" t="s"/>
@@ -6757,10 +6219,10 @@
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>395</v>
+        <v>338</v>
       </c>
       <c r="O63" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P63" t="n">
         <v>5</v>
@@ -6781,37 +6243,36 @@
       <c r="V63" t="n">
         <v>0</v>
       </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>3572</v>
       </c>
-      <c r="B64" t="n">
-        <v>129778</v>
-      </c>
-      <c r="C64" t="s">
-        <v>414</v>
-      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>415</v>
+        <v>354</v>
       </c>
       <c r="G64" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H64" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I64" t="s">
-        <v>416</v>
+        <v>355</v>
       </c>
       <c r="J64" t="s">
-        <v>417</v>
+        <v>356</v>
       </c>
       <c r="K64" t="s"/>
       <c r="L64" t="s"/>
@@ -6819,10 +6280,10 @@
         <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>418</v>
+        <v>357</v>
       </c>
       <c r="O64" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="P64" t="n">
         <v>5</v>
@@ -6843,37 +6304,36 @@
       <c r="V64" t="n">
         <v>0</v>
       </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>3572</v>
       </c>
-      <c r="B65" t="n">
-        <v>9365</v>
-      </c>
-      <c r="C65" t="s">
-        <v>419</v>
-      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F65" t="s">
-        <v>420</v>
+        <v>358</v>
       </c>
       <c r="G65" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H65" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I65" t="s">
-        <v>421</v>
+        <v>359</v>
       </c>
       <c r="J65" t="s">
-        <v>422</v>
+        <v>360</v>
       </c>
       <c r="K65" t="s"/>
       <c r="L65" t="s"/>
@@ -6881,10 +6341,10 @@
         <v>4</v>
       </c>
       <c r="N65" t="s">
-        <v>395</v>
+        <v>338</v>
       </c>
       <c r="O65" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="P65" t="n">
         <v>4</v>
@@ -6905,37 +6365,36 @@
       <c r="V65" t="n">
         <v>0</v>
       </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>3572</v>
       </c>
-      <c r="B66" t="n">
-        <v>129779</v>
-      </c>
-      <c r="C66" t="s">
-        <v>423</v>
-      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F66" t="s">
-        <v>424</v>
+        <v>361</v>
       </c>
       <c r="G66" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H66" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I66" t="s">
-        <v>425</v>
+        <v>362</v>
       </c>
       <c r="J66" t="s">
-        <v>426</v>
+        <v>363</v>
       </c>
       <c r="K66" t="s"/>
       <c r="L66" t="s"/>
@@ -6943,10 +6402,10 @@
         <v>5</v>
       </c>
       <c r="N66" t="s">
-        <v>395</v>
+        <v>338</v>
       </c>
       <c r="O66" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="P66" t="n">
         <v>5</v>
@@ -6967,52 +6426,51 @@
       <c r="V66" t="n">
         <v>0</v>
       </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>3572</v>
       </c>
-      <c r="B67" t="n">
-        <v>129780</v>
-      </c>
-      <c r="C67" t="s">
-        <v>427</v>
-      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F67" t="s">
-        <v>428</v>
+        <v>364</v>
       </c>
       <c r="G67" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H67" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I67" t="s">
-        <v>429</v>
+        <v>365</v>
       </c>
       <c r="J67" t="s">
-        <v>426</v>
+        <v>363</v>
       </c>
       <c r="K67" t="s">
-        <v>430</v>
+        <v>366</v>
       </c>
       <c r="L67" t="s">
-        <v>431</v>
+        <v>367</v>
       </c>
       <c r="M67" t="n">
         <v>5</v>
       </c>
       <c r="N67" t="s">
-        <v>395</v>
+        <v>338</v>
       </c>
       <c r="O67" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P67" t="n">
         <v>5</v>
@@ -7036,39 +6494,35 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>431</v>
+        <v>367</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>3572</v>
       </c>
-      <c r="B68" t="n">
-        <v>129781</v>
-      </c>
-      <c r="C68" t="s">
-        <v>432</v>
-      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F68" t="s">
-        <v>433</v>
+        <v>368</v>
       </c>
       <c r="G68" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H68" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I68" t="s">
-        <v>434</v>
+        <v>369</v>
       </c>
       <c r="J68" t="s">
-        <v>426</v>
+        <v>363</v>
       </c>
       <c r="K68" t="s"/>
       <c r="L68" t="s"/>
@@ -7076,10 +6530,10 @@
         <v>5</v>
       </c>
       <c r="N68" t="s">
-        <v>395</v>
+        <v>338</v>
       </c>
       <c r="O68" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="P68" t="n">
         <v>5</v>
@@ -7100,37 +6554,36 @@
       <c r="V68" t="n">
         <v>0</v>
       </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>3572</v>
       </c>
-      <c r="B69" t="n">
-        <v>129782</v>
-      </c>
-      <c r="C69" t="s">
-        <v>435</v>
-      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F69" t="s">
-        <v>436</v>
+        <v>370</v>
       </c>
       <c r="G69" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H69" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I69" t="s">
-        <v>437</v>
+        <v>371</v>
       </c>
       <c r="J69" t="s">
-        <v>438</v>
+        <v>372</v>
       </c>
       <c r="K69" t="s"/>
       <c r="L69" t="s"/>
@@ -7138,10 +6591,10 @@
         <v>2</v>
       </c>
       <c r="N69" t="s">
-        <v>418</v>
+        <v>357</v>
       </c>
       <c r="O69" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P69" t="n">
         <v>3</v>
@@ -7162,37 +6615,36 @@
       <c r="V69" t="n">
         <v>0</v>
       </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>3572</v>
       </c>
-      <c r="B70" t="n">
-        <v>3657</v>
-      </c>
-      <c r="C70" t="s">
-        <v>439</v>
-      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F70" t="s">
-        <v>440</v>
+        <v>373</v>
       </c>
       <c r="G70" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H70" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I70" t="s">
-        <v>441</v>
+        <v>374</v>
       </c>
       <c r="J70" t="s">
-        <v>442</v>
+        <v>375</v>
       </c>
       <c r="K70" t="s"/>
       <c r="L70" t="s"/>
@@ -7200,10 +6652,10 @@
         <v>2</v>
       </c>
       <c r="N70" t="s">
-        <v>418</v>
+        <v>357</v>
       </c>
       <c r="O70" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="P70" t="n">
         <v>2</v>
@@ -7224,52 +6676,51 @@
       <c r="V70" t="n">
         <v>0</v>
       </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>3572</v>
       </c>
-      <c r="B71" t="n">
-        <v>44684</v>
-      </c>
-      <c r="C71" t="s">
-        <v>443</v>
-      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F71" t="s">
-        <v>444</v>
+        <v>376</v>
       </c>
       <c r="G71" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H71" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I71" t="s">
-        <v>445</v>
+        <v>377</v>
       </c>
       <c r="J71" t="s">
-        <v>446</v>
+        <v>378</v>
       </c>
       <c r="K71" t="s">
-        <v>447</v>
+        <v>379</v>
       </c>
       <c r="L71" t="s">
-        <v>448</v>
+        <v>380</v>
       </c>
       <c r="M71" t="n">
         <v>3</v>
       </c>
       <c r="N71" t="s">
-        <v>418</v>
+        <v>357</v>
       </c>
       <c r="O71" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="P71" t="s"/>
       <c r="Q71" t="s"/>
@@ -7283,39 +6734,35 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>448</v>
+        <v>380</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>3572</v>
       </c>
-      <c r="B72" t="n">
-        <v>5706</v>
-      </c>
-      <c r="C72" t="s">
-        <v>449</v>
-      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F72" t="s">
-        <v>450</v>
+        <v>381</v>
       </c>
       <c r="G72" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H72" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I72" t="s">
-        <v>451</v>
+        <v>382</v>
       </c>
       <c r="J72" t="s">
-        <v>452</v>
+        <v>383</v>
       </c>
       <c r="K72" t="s"/>
       <c r="L72" t="s"/>
@@ -7323,10 +6770,10 @@
         <v>1</v>
       </c>
       <c r="N72" t="s">
-        <v>453</v>
+        <v>384</v>
       </c>
       <c r="O72" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="P72" t="n">
         <v>1</v>
@@ -7347,52 +6794,51 @@
       <c r="V72" t="n">
         <v>0</v>
       </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>3572</v>
       </c>
-      <c r="B73" t="n">
-        <v>21474</v>
-      </c>
-      <c r="C73" t="s">
-        <v>454</v>
-      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F73" t="s">
-        <v>455</v>
+        <v>385</v>
       </c>
       <c r="G73" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H73" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I73" t="s">
-        <v>456</v>
+        <v>386</v>
       </c>
       <c r="J73" t="s">
-        <v>457</v>
+        <v>387</v>
       </c>
       <c r="K73" t="s">
-        <v>458</v>
+        <v>388</v>
       </c>
       <c r="L73" t="s">
-        <v>459</v>
+        <v>389</v>
       </c>
       <c r="M73" t="n">
         <v>5</v>
       </c>
       <c r="N73" t="s">
-        <v>453</v>
+        <v>384</v>
       </c>
       <c r="O73" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P73" t="n">
         <v>4</v>
@@ -7416,39 +6862,35 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>459</v>
+        <v>389</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>3572</v>
       </c>
-      <c r="B74" t="n">
-        <v>6203</v>
-      </c>
-      <c r="C74" t="s">
-        <v>460</v>
-      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F74" t="s">
-        <v>461</v>
+        <v>390</v>
       </c>
       <c r="G74" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H74" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I74" t="s">
-        <v>462</v>
+        <v>391</v>
       </c>
       <c r="J74" t="s">
-        <v>457</v>
+        <v>387</v>
       </c>
       <c r="K74" t="s"/>
       <c r="L74" t="s"/>
@@ -7456,10 +6898,10 @@
         <v>1</v>
       </c>
       <c r="N74" t="s">
-        <v>453</v>
+        <v>384</v>
       </c>
       <c r="O74" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="P74" t="n">
         <v>1</v>
@@ -7480,52 +6922,51 @@
       <c r="V74" t="n">
         <v>0</v>
       </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>3572</v>
       </c>
-      <c r="B75" t="n">
-        <v>68136</v>
-      </c>
-      <c r="C75" t="s">
-        <v>463</v>
-      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F75" t="s">
-        <v>464</v>
+        <v>392</v>
       </c>
       <c r="G75" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H75" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I75" t="s">
-        <v>465</v>
+        <v>393</v>
       </c>
       <c r="J75" t="s">
-        <v>466</v>
+        <v>394</v>
       </c>
       <c r="K75" t="s">
-        <v>467</v>
+        <v>395</v>
       </c>
       <c r="L75" t="s">
-        <v>468</v>
+        <v>396</v>
       </c>
       <c r="M75" t="n">
         <v>4</v>
       </c>
       <c r="N75" t="s">
-        <v>469</v>
+        <v>397</v>
       </c>
       <c r="O75" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="P75" t="n">
         <v>5</v>
@@ -7549,39 +6990,35 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>468</v>
+        <v>396</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>3572</v>
       </c>
-      <c r="B76" t="n">
-        <v>129783</v>
-      </c>
-      <c r="C76" t="s">
-        <v>470</v>
-      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F76" t="s">
-        <v>471</v>
+        <v>398</v>
       </c>
       <c r="G76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H76" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I76" t="s">
-        <v>472</v>
+        <v>399</v>
       </c>
       <c r="J76" t="s">
-        <v>473</v>
+        <v>400</v>
       </c>
       <c r="K76" t="s"/>
       <c r="L76" t="s"/>
@@ -7589,10 +7026,10 @@
         <v>1</v>
       </c>
       <c r="N76" t="s">
-        <v>453</v>
+        <v>384</v>
       </c>
       <c r="O76" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="P76" t="n">
         <v>3</v>
@@ -7613,37 +7050,36 @@
       <c r="V76" t="n">
         <v>0</v>
       </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>3572</v>
       </c>
-      <c r="B77" t="n">
-        <v>49854</v>
-      </c>
-      <c r="C77" t="s">
-        <v>474</v>
-      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F77" t="s">
-        <v>475</v>
+        <v>401</v>
       </c>
       <c r="G77" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H77" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I77" t="s">
-        <v>476</v>
+        <v>402</v>
       </c>
       <c r="J77" t="s">
-        <v>477</v>
+        <v>403</v>
       </c>
       <c r="K77" t="s"/>
       <c r="L77" t="s"/>
@@ -7651,10 +7087,10 @@
         <v>1</v>
       </c>
       <c r="N77" t="s">
-        <v>469</v>
+        <v>397</v>
       </c>
       <c r="O77" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="P77" t="n">
         <v>1</v>
@@ -7675,37 +7111,36 @@
       <c r="V77" t="n">
         <v>0</v>
       </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>3572</v>
       </c>
-      <c r="B78" t="n">
-        <v>9605</v>
-      </c>
-      <c r="C78" t="s">
-        <v>478</v>
-      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F78" t="s">
-        <v>479</v>
+        <v>404</v>
       </c>
       <c r="G78" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H78" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I78" t="s">
-        <v>480</v>
+        <v>405</v>
       </c>
       <c r="J78" t="s">
-        <v>481</v>
+        <v>406</v>
       </c>
       <c r="K78" t="s"/>
       <c r="L78" t="s"/>
@@ -7713,10 +7148,10 @@
         <v>3</v>
       </c>
       <c r="N78" t="s">
-        <v>482</v>
+        <v>407</v>
       </c>
       <c r="O78" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P78" t="n">
         <v>4</v>
@@ -7737,52 +7172,51 @@
       <c r="V78" t="n">
         <v>0</v>
       </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>3572</v>
       </c>
-      <c r="B79" t="n">
-        <v>129784</v>
-      </c>
-      <c r="C79" t="s">
-        <v>483</v>
-      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F79" t="s">
-        <v>484</v>
+        <v>408</v>
       </c>
       <c r="G79" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H79" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I79" t="s">
-        <v>485</v>
+        <v>409</v>
       </c>
       <c r="J79" t="s">
-        <v>486</v>
+        <v>410</v>
       </c>
       <c r="K79" t="s">
-        <v>487</v>
+        <v>411</v>
       </c>
       <c r="L79" t="s">
-        <v>488</v>
+        <v>412</v>
       </c>
       <c r="M79" t="n">
         <v>3</v>
       </c>
       <c r="N79" t="s">
-        <v>489</v>
+        <v>413</v>
       </c>
       <c r="O79" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="P79" t="s"/>
       <c r="Q79" t="s"/>
@@ -7796,39 +7230,35 @@
       <c r="W79" t="s"/>
       <c r="X79" t="s"/>
       <c r="Y79" t="s">
-        <v>488</v>
+        <v>412</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>3572</v>
       </c>
-      <c r="B80" t="n">
-        <v>6805</v>
-      </c>
-      <c r="C80" t="s">
-        <v>490</v>
-      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F80" t="s">
-        <v>491</v>
+        <v>414</v>
       </c>
       <c r="G80" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H80" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I80" t="s">
-        <v>492</v>
+        <v>415</v>
       </c>
       <c r="J80" t="s">
-        <v>493</v>
+        <v>416</v>
       </c>
       <c r="K80" t="s"/>
       <c r="L80" t="s"/>
@@ -7836,10 +7266,10 @@
         <v>4</v>
       </c>
       <c r="N80" t="s">
-        <v>494</v>
+        <v>417</v>
       </c>
       <c r="O80" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="P80" t="n">
         <v>4</v>
@@ -7860,50 +7290,49 @@
       <c r="V80" t="n">
         <v>0</v>
       </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>3572</v>
       </c>
-      <c r="B81" t="n">
-        <v>12936</v>
-      </c>
-      <c r="C81" t="s">
-        <v>495</v>
-      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F81" t="s">
-        <v>496</v>
+        <v>418</v>
       </c>
       <c r="G81" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H81" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I81" t="s">
-        <v>497</v>
+        <v>419</v>
       </c>
       <c r="J81" t="s">
-        <v>498</v>
+        <v>420</v>
       </c>
       <c r="K81" t="s"/>
       <c r="L81" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
       <c r="N81" t="s">
-        <v>494</v>
+        <v>417</v>
       </c>
       <c r="O81" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="P81" t="n">
         <v>1</v>
@@ -7927,54 +7356,50 @@
       <c r="W81" t="s"/>
       <c r="X81" t="s"/>
       <c r="Y81" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>3572</v>
       </c>
-      <c r="B82" t="n">
-        <v>59985</v>
-      </c>
-      <c r="C82" t="s">
-        <v>499</v>
-      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F82" t="s">
-        <v>500</v>
+        <v>421</v>
       </c>
       <c r="G82" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H82" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I82" t="s">
-        <v>501</v>
+        <v>422</v>
       </c>
       <c r="J82" t="s">
-        <v>502</v>
+        <v>423</v>
       </c>
       <c r="K82" t="s">
-        <v>503</v>
+        <v>424</v>
       </c>
       <c r="L82" t="s">
-        <v>504</v>
+        <v>425</v>
       </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
       <c r="N82" t="s">
-        <v>505</v>
+        <v>426</v>
       </c>
       <c r="O82" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="P82" t="n">
         <v>1</v>
@@ -7998,39 +7423,35 @@
       <c r="W82" t="s"/>
       <c r="X82" t="s"/>
       <c r="Y82" t="s">
-        <v>506</v>
+        <v>427</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>3572</v>
       </c>
-      <c r="B83" t="n">
-        <v>35</v>
-      </c>
-      <c r="C83" t="s">
-        <v>507</v>
-      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F83" t="s">
-        <v>508</v>
+        <v>428</v>
       </c>
       <c r="G83" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H83" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I83" t="s">
-        <v>509</v>
+        <v>429</v>
       </c>
       <c r="J83" t="s">
-        <v>510</v>
+        <v>430</v>
       </c>
       <c r="K83" t="s"/>
       <c r="L83" t="s"/>
@@ -8038,10 +7459,10 @@
         <v>2</v>
       </c>
       <c r="N83" t="s">
-        <v>505</v>
+        <v>426</v>
       </c>
       <c r="O83" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P83" t="n">
         <v>3</v>
@@ -8062,52 +7483,51 @@
       <c r="V83" t="n">
         <v>0</v>
       </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>3572</v>
       </c>
-      <c r="B84" t="n">
-        <v>129785</v>
-      </c>
-      <c r="C84" t="s">
-        <v>511</v>
-      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F84" t="s">
-        <v>512</v>
+        <v>431</v>
       </c>
       <c r="G84" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H84" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I84" t="s">
-        <v>513</v>
+        <v>432</v>
       </c>
       <c r="J84" t="s">
-        <v>514</v>
+        <v>433</v>
       </c>
       <c r="K84" t="s">
-        <v>254</v>
+        <v>220</v>
       </c>
       <c r="L84" t="s">
-        <v>515</v>
+        <v>434</v>
       </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
       <c r="N84" t="s">
-        <v>505</v>
+        <v>426</v>
       </c>
       <c r="O84" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P84" t="n">
         <v>1</v>
@@ -8131,45 +7551,41 @@
       <c r="W84" t="s"/>
       <c r="X84" t="s"/>
       <c r="Y84" t="s">
-        <v>515</v>
+        <v>434</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>3572</v>
       </c>
-      <c r="B85" t="n">
-        <v>129786</v>
-      </c>
-      <c r="C85" t="s">
-        <v>516</v>
-      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F85" t="s">
-        <v>517</v>
+        <v>435</v>
       </c>
       <c r="G85" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H85" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I85" t="s">
-        <v>518</v>
+        <v>436</v>
       </c>
       <c r="J85" t="s">
-        <v>519</v>
+        <v>437</v>
       </c>
       <c r="K85" t="s">
-        <v>520</v>
+        <v>438</v>
       </c>
       <c r="L85" t="s">
-        <v>521</v>
+        <v>439</v>
       </c>
       <c r="M85" t="n">
         <v>1</v>
@@ -8198,54 +7614,50 @@
       <c r="W85" t="s"/>
       <c r="X85" t="s"/>
       <c r="Y85" t="s">
-        <v>521</v>
+        <v>439</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>3572</v>
       </c>
-      <c r="B86" t="n">
-        <v>129787</v>
-      </c>
-      <c r="C86" t="s">
-        <v>522</v>
-      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F86" t="s">
-        <v>523</v>
+        <v>440</v>
       </c>
       <c r="G86" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H86" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I86" t="s">
-        <v>524</v>
+        <v>441</v>
       </c>
       <c r="J86" t="s">
-        <v>525</v>
+        <v>442</v>
       </c>
       <c r="K86" t="s">
-        <v>526</v>
+        <v>443</v>
       </c>
       <c r="L86" t="s">
-        <v>527</v>
+        <v>444</v>
       </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
       <c r="N86" t="s">
-        <v>528</v>
+        <v>445</v>
       </c>
       <c r="O86" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P86" t="n">
         <v>2</v>
@@ -8269,52 +7681,48 @@
       <c r="W86" t="s"/>
       <c r="X86" t="s"/>
       <c r="Y86" t="s">
-        <v>529</v>
+        <v>446</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>3572</v>
       </c>
-      <c r="B87" t="n">
-        <v>129788</v>
-      </c>
-      <c r="C87" t="s">
-        <v>530</v>
-      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F87" t="s">
-        <v>531</v>
+        <v>447</v>
       </c>
       <c r="G87" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H87" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I87" t="s">
-        <v>532</v>
+        <v>448</v>
       </c>
       <c r="J87" t="s">
-        <v>533</v>
+        <v>449</v>
       </c>
       <c r="K87" t="s"/>
       <c r="L87" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
       <c r="N87" t="s">
-        <v>534</v>
+        <v>450</v>
       </c>
       <c r="O87" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P87" t="n">
         <v>1</v>
@@ -8338,39 +7746,35 @@
       <c r="W87" t="s"/>
       <c r="X87" t="s"/>
       <c r="Y87" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>3572</v>
       </c>
-      <c r="B88" t="n">
-        <v>9831</v>
-      </c>
-      <c r="C88" t="s">
-        <v>535</v>
-      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F88" t="s">
-        <v>536</v>
+        <v>451</v>
       </c>
       <c r="G88" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H88" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I88" t="s">
-        <v>537</v>
+        <v>452</v>
       </c>
       <c r="J88" t="s">
-        <v>538</v>
+        <v>453</v>
       </c>
       <c r="K88" t="s"/>
       <c r="L88" t="s"/>
@@ -8378,10 +7782,10 @@
         <v>2</v>
       </c>
       <c r="N88" t="s">
-        <v>534</v>
+        <v>450</v>
       </c>
       <c r="O88" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="P88" t="n">
         <v>4</v>
@@ -8402,37 +7806,36 @@
       <c r="V88" t="n">
         <v>0</v>
       </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>3572</v>
       </c>
-      <c r="B89" t="n">
-        <v>31308</v>
-      </c>
-      <c r="C89" t="s">
-        <v>539</v>
-      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F89" t="s">
-        <v>540</v>
+        <v>454</v>
       </c>
       <c r="G89" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H89" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I89" t="s">
-        <v>541</v>
+        <v>455</v>
       </c>
       <c r="J89" t="s">
-        <v>542</v>
+        <v>456</v>
       </c>
       <c r="K89" t="s"/>
       <c r="L89" t="s"/>
@@ -8440,10 +7843,10 @@
         <v>3</v>
       </c>
       <c r="N89" t="s">
-        <v>534</v>
+        <v>450</v>
       </c>
       <c r="O89" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="P89" t="n">
         <v>3</v>
@@ -8464,37 +7867,36 @@
       <c r="V89" t="n">
         <v>0</v>
       </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>3572</v>
       </c>
-      <c r="B90" t="n">
-        <v>19397</v>
-      </c>
-      <c r="C90" t="s">
-        <v>543</v>
-      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F90" t="s">
-        <v>544</v>
+        <v>457</v>
       </c>
       <c r="G90" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H90" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I90" t="s">
-        <v>545</v>
+        <v>458</v>
       </c>
       <c r="J90" t="s">
-        <v>546</v>
+        <v>459</v>
       </c>
       <c r="K90" t="s"/>
       <c r="L90" t="s"/>
@@ -8502,10 +7904,10 @@
         <v>2</v>
       </c>
       <c r="N90" t="s">
-        <v>534</v>
+        <v>450</v>
       </c>
       <c r="O90" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="P90" t="n">
         <v>5</v>
@@ -8526,37 +7928,36 @@
       <c r="V90" t="n">
         <v>0</v>
       </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>3572</v>
       </c>
-      <c r="B91" t="n">
-        <v>51782</v>
-      </c>
-      <c r="C91" t="s">
-        <v>547</v>
-      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F91" t="s">
-        <v>548</v>
+        <v>460</v>
       </c>
       <c r="G91" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H91" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I91" t="s">
-        <v>549</v>
+        <v>461</v>
       </c>
       <c r="J91" t="s">
-        <v>550</v>
+        <v>462</v>
       </c>
       <c r="K91" t="s"/>
       <c r="L91" t="s"/>
@@ -8564,10 +7965,10 @@
         <v>4</v>
       </c>
       <c r="N91" t="s">
-        <v>534</v>
+        <v>450</v>
       </c>
       <c r="O91" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="P91" t="s"/>
       <c r="Q91" t="s"/>
@@ -8578,52 +7979,51 @@
       <c r="V91" t="n">
         <v>0</v>
       </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>3572</v>
       </c>
-      <c r="B92" t="n">
-        <v>129789</v>
-      </c>
-      <c r="C92" t="s">
-        <v>551</v>
-      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F92" t="s">
-        <v>552</v>
+        <v>463</v>
       </c>
       <c r="G92" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H92" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I92" t="s">
-        <v>553</v>
+        <v>464</v>
       </c>
       <c r="J92" t="s">
-        <v>550</v>
+        <v>462</v>
       </c>
       <c r="K92" t="s">
-        <v>554</v>
+        <v>465</v>
       </c>
       <c r="L92" t="s">
-        <v>555</v>
+        <v>466</v>
       </c>
       <c r="M92" t="n">
         <v>2</v>
       </c>
       <c r="N92" t="s">
-        <v>556</v>
+        <v>467</v>
       </c>
       <c r="O92" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="P92" t="n">
         <v>3</v>
@@ -8647,45 +8047,41 @@
       <c r="W92" t="s"/>
       <c r="X92" t="s"/>
       <c r="Y92" t="s">
-        <v>555</v>
+        <v>466</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>3572</v>
       </c>
-      <c r="B93" t="n">
-        <v>129790</v>
-      </c>
-      <c r="C93" t="s">
-        <v>557</v>
-      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F93" t="s">
-        <v>558</v>
+        <v>468</v>
       </c>
       <c r="G93" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H93" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I93" t="s">
-        <v>559</v>
+        <v>469</v>
       </c>
       <c r="J93" t="s">
-        <v>560</v>
+        <v>470</v>
       </c>
       <c r="K93" t="s">
-        <v>561</v>
+        <v>471</v>
       </c>
       <c r="L93" t="s">
-        <v>562</v>
+        <v>472</v>
       </c>
       <c r="M93" t="n">
         <v>4</v>
@@ -8714,39 +8110,35 @@
       <c r="W93" t="s"/>
       <c r="X93" t="s"/>
       <c r="Y93" t="s">
-        <v>562</v>
+        <v>472</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>3572</v>
       </c>
-      <c r="B94" t="n">
-        <v>29551</v>
-      </c>
-      <c r="C94" t="s">
-        <v>563</v>
-      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F94" t="s">
-        <v>564</v>
+        <v>473</v>
       </c>
       <c r="G94" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H94" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I94" t="s">
-        <v>565</v>
+        <v>474</v>
       </c>
       <c r="J94" t="s">
-        <v>566</v>
+        <v>475</v>
       </c>
       <c r="K94" t="s"/>
       <c r="L94" t="s"/>
@@ -8754,10 +8146,10 @@
         <v>3</v>
       </c>
       <c r="N94" t="s">
-        <v>556</v>
+        <v>467</v>
       </c>
       <c r="O94" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="P94" t="n">
         <v>5</v>
@@ -8778,52 +8170,51 @@
       <c r="V94" t="n">
         <v>0</v>
       </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>3572</v>
       </c>
-      <c r="B95" t="n">
-        <v>66757</v>
-      </c>
-      <c r="C95" t="s">
-        <v>567</v>
-      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F95" t="s">
-        <v>568</v>
+        <v>476</v>
       </c>
       <c r="G95" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H95" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I95" t="s">
-        <v>569</v>
+        <v>477</v>
       </c>
       <c r="J95" t="s">
-        <v>570</v>
+        <v>478</v>
       </c>
       <c r="K95" t="s">
-        <v>571</v>
+        <v>479</v>
       </c>
       <c r="L95" t="s">
-        <v>572</v>
+        <v>480</v>
       </c>
       <c r="M95" t="n">
         <v>3</v>
       </c>
       <c r="N95" t="s">
-        <v>556</v>
+        <v>467</v>
       </c>
       <c r="O95" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P95" t="n">
         <v>3</v>
@@ -8847,39 +8238,35 @@
       <c r="W95" t="s"/>
       <c r="X95" t="s"/>
       <c r="Y95" t="s">
-        <v>572</v>
+        <v>480</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>3572</v>
       </c>
-      <c r="B96" t="n">
-        <v>51237</v>
-      </c>
-      <c r="C96" t="s">
-        <v>573</v>
-      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F96" t="s">
-        <v>574</v>
+        <v>481</v>
       </c>
       <c r="G96" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H96" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I96" t="s">
-        <v>575</v>
+        <v>482</v>
       </c>
       <c r="J96" t="s">
-        <v>570</v>
+        <v>478</v>
       </c>
       <c r="K96" t="s"/>
       <c r="L96" t="s"/>
@@ -8887,10 +8274,10 @@
         <v>1</v>
       </c>
       <c r="N96" t="s">
-        <v>556</v>
+        <v>467</v>
       </c>
       <c r="O96" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P96" t="n">
         <v>1</v>
@@ -8911,37 +8298,36 @@
       <c r="V96" t="n">
         <v>0</v>
       </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>3572</v>
       </c>
-      <c r="B97" t="n">
-        <v>91089</v>
-      </c>
-      <c r="C97" t="s">
-        <v>576</v>
-      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F97" t="s">
-        <v>577</v>
+        <v>483</v>
       </c>
       <c r="G97" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H97" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I97" t="s">
-        <v>578</v>
+        <v>484</v>
       </c>
       <c r="J97" t="s">
-        <v>579</v>
+        <v>485</v>
       </c>
       <c r="K97" t="s"/>
       <c r="L97" t="s"/>
@@ -8949,10 +8335,10 @@
         <v>2</v>
       </c>
       <c r="N97" t="s">
-        <v>580</v>
+        <v>486</v>
       </c>
       <c r="O97" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P97" t="n">
         <v>5</v>
@@ -8973,50 +8359,49 @@
       <c r="V97" t="n">
         <v>0</v>
       </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>3572</v>
       </c>
-      <c r="B98" t="n">
-        <v>11921</v>
-      </c>
-      <c r="C98" t="s">
-        <v>581</v>
-      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F98" t="s">
-        <v>582</v>
+        <v>487</v>
       </c>
       <c r="G98" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H98" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I98" t="s">
-        <v>583</v>
+        <v>488</v>
       </c>
       <c r="J98" t="s">
-        <v>584</v>
+        <v>489</v>
       </c>
       <c r="K98" t="s"/>
       <c r="L98" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="M98" t="n">
         <v>2</v>
       </c>
       <c r="N98" t="s">
-        <v>585</v>
+        <v>490</v>
       </c>
       <c r="O98" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="P98" t="n">
         <v>4</v>
@@ -9040,39 +8425,35 @@
       <c r="W98" t="s"/>
       <c r="X98" t="s"/>
       <c r="Y98" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>3572</v>
       </c>
-      <c r="B99" t="n">
-        <v>129791</v>
-      </c>
-      <c r="C99" t="s">
-        <v>586</v>
-      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F99" t="s">
-        <v>587</v>
+        <v>491</v>
       </c>
       <c r="G99" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H99" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I99" t="s">
-        <v>588</v>
+        <v>492</v>
       </c>
       <c r="J99" t="s">
-        <v>589</v>
+        <v>493</v>
       </c>
       <c r="K99" t="s"/>
       <c r="L99" t="s"/>
@@ -9080,10 +8461,10 @@
         <v>1</v>
       </c>
       <c r="N99" t="s">
-        <v>585</v>
+        <v>490</v>
       </c>
       <c r="O99" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="P99" t="n">
         <v>5</v>
@@ -9104,37 +8485,36 @@
       <c r="V99" t="n">
         <v>0</v>
       </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s"/>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>3572</v>
       </c>
-      <c r="B100" t="n">
-        <v>129792</v>
-      </c>
-      <c r="C100" t="s">
-        <v>590</v>
-      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
       <c r="D100" t="n">
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F100" t="s">
-        <v>591</v>
+        <v>494</v>
       </c>
       <c r="G100" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H100" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I100" t="s">
-        <v>592</v>
+        <v>495</v>
       </c>
       <c r="J100" t="s">
-        <v>593</v>
+        <v>496</v>
       </c>
       <c r="K100" t="s"/>
       <c r="L100" t="s"/>
@@ -9142,10 +8522,10 @@
         <v>2</v>
       </c>
       <c r="N100" t="s">
-        <v>594</v>
+        <v>497</v>
       </c>
       <c r="O100" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P100" t="n">
         <v>4</v>
@@ -9164,37 +8544,36 @@
       <c r="V100" t="n">
         <v>0</v>
       </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s"/>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>3572</v>
       </c>
-      <c r="B101" t="n">
-        <v>30161</v>
-      </c>
-      <c r="C101" t="s">
-        <v>595</v>
-      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
       <c r="D101" t="n">
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F101" t="s">
-        <v>596</v>
+        <v>498</v>
       </c>
       <c r="G101" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H101" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I101" t="s">
-        <v>597</v>
+        <v>499</v>
       </c>
       <c r="J101" t="s">
-        <v>598</v>
+        <v>500</v>
       </c>
       <c r="K101" t="s"/>
       <c r="L101" t="s"/>
@@ -9202,10 +8581,10 @@
         <v>2</v>
       </c>
       <c r="N101" t="s">
-        <v>594</v>
+        <v>497</v>
       </c>
       <c r="O101" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P101" t="n">
         <v>1</v>
@@ -9226,50 +8605,49 @@
       <c r="V101" t="n">
         <v>0</v>
       </c>
+      <c r="W101" t="s"/>
+      <c r="X101" t="s"/>
+      <c r="Y101" t="s"/>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>3572</v>
       </c>
-      <c r="B102" t="n">
-        <v>62864</v>
-      </c>
-      <c r="C102" t="s">
-        <v>599</v>
-      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
       <c r="D102" t="n">
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F102" t="s">
-        <v>600</v>
+        <v>501</v>
       </c>
       <c r="G102" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H102" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I102" t="s">
-        <v>601</v>
+        <v>502</v>
       </c>
       <c r="J102" t="s">
-        <v>598</v>
+        <v>500</v>
       </c>
       <c r="K102" t="s"/>
       <c r="L102" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="M102" t="n">
         <v>2</v>
       </c>
       <c r="N102" t="s">
-        <v>594</v>
+        <v>497</v>
       </c>
       <c r="O102" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P102" t="n">
         <v>3</v>
@@ -9293,39 +8671,35 @@
       <c r="W102" t="s"/>
       <c r="X102" t="s"/>
       <c r="Y102" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
         <v>3572</v>
       </c>
-      <c r="B103" t="n">
-        <v>12010</v>
-      </c>
-      <c r="C103" t="s">
-        <v>602</v>
-      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
       <c r="D103" t="n">
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F103" t="s">
-        <v>603</v>
+        <v>503</v>
       </c>
       <c r="G103" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H103" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I103" t="s">
-        <v>604</v>
+        <v>504</v>
       </c>
       <c r="J103" t="s">
-        <v>605</v>
+        <v>505</v>
       </c>
       <c r="K103" t="s"/>
       <c r="L103" t="s"/>
@@ -9333,10 +8707,10 @@
         <v>1</v>
       </c>
       <c r="N103" t="s">
-        <v>594</v>
+        <v>497</v>
       </c>
       <c r="O103" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P103" t="n">
         <v>1</v>
@@ -9357,37 +8731,36 @@
       <c r="V103" t="n">
         <v>0</v>
       </c>
+      <c r="W103" t="s"/>
+      <c r="X103" t="s"/>
+      <c r="Y103" t="s"/>
     </row>
     <row r="104">
       <c r="A104" t="n">
         <v>3572</v>
       </c>
-      <c r="B104" t="n">
-        <v>129793</v>
-      </c>
-      <c r="C104" t="s">
-        <v>606</v>
-      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
       <c r="D104" t="n">
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F104" t="s">
-        <v>607</v>
+        <v>506</v>
       </c>
       <c r="G104" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H104" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I104" t="s">
-        <v>608</v>
+        <v>507</v>
       </c>
       <c r="J104" t="s">
-        <v>609</v>
+        <v>508</v>
       </c>
       <c r="K104" t="s"/>
       <c r="L104" t="s"/>
@@ -9395,10 +8768,10 @@
         <v>3</v>
       </c>
       <c r="N104" t="s">
-        <v>610</v>
+        <v>509</v>
       </c>
       <c r="O104" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="P104" t="n">
         <v>3</v>
@@ -9419,37 +8792,36 @@
       <c r="V104" t="n">
         <v>0</v>
       </c>
+      <c r="W104" t="s"/>
+      <c r="X104" t="s"/>
+      <c r="Y104" t="s"/>
     </row>
     <row r="105">
       <c r="A105" t="n">
         <v>3572</v>
       </c>
-      <c r="B105" t="n">
-        <v>129794</v>
-      </c>
-      <c r="C105" t="s">
-        <v>611</v>
-      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
       <c r="D105" t="n">
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F105" t="s">
-        <v>612</v>
+        <v>510</v>
       </c>
       <c r="G105" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H105" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I105" t="s">
-        <v>613</v>
+        <v>511</v>
       </c>
       <c r="J105" t="s">
-        <v>614</v>
+        <v>512</v>
       </c>
       <c r="K105" t="s"/>
       <c r="L105" t="s"/>
@@ -9457,10 +8829,10 @@
         <v>1</v>
       </c>
       <c r="N105" t="s">
-        <v>610</v>
+        <v>509</v>
       </c>
       <c r="O105" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P105" t="n">
         <v>1</v>
@@ -9481,52 +8853,51 @@
       <c r="V105" t="n">
         <v>0</v>
       </c>
+      <c r="W105" t="s"/>
+      <c r="X105" t="s"/>
+      <c r="Y105" t="s"/>
     </row>
     <row r="106">
       <c r="A106" t="n">
         <v>3572</v>
       </c>
-      <c r="B106" t="n">
-        <v>129795</v>
-      </c>
-      <c r="C106" t="s">
-        <v>615</v>
-      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
       <c r="D106" t="n">
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F106" t="s">
-        <v>616</v>
+        <v>513</v>
       </c>
       <c r="G106" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H106" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I106" t="s">
-        <v>617</v>
+        <v>514</v>
       </c>
       <c r="J106" t="s">
-        <v>618</v>
+        <v>515</v>
       </c>
       <c r="K106" t="s">
-        <v>619</v>
+        <v>516</v>
       </c>
       <c r="L106" t="s">
-        <v>620</v>
+        <v>517</v>
       </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
       <c r="N106" t="s">
-        <v>621</v>
+        <v>518</v>
       </c>
       <c r="O106" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="P106" t="s"/>
       <c r="Q106" t="s"/>
@@ -9540,39 +8911,35 @@
       <c r="W106" t="s"/>
       <c r="X106" t="s"/>
       <c r="Y106" t="s">
-        <v>620</v>
+        <v>517</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
         <v>3572</v>
       </c>
-      <c r="B107" t="n">
-        <v>129796</v>
-      </c>
-      <c r="C107" t="s">
-        <v>622</v>
-      </c>
+      <c r="B107" t="s"/>
+      <c r="C107" t="s"/>
       <c r="D107" t="n">
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F107" t="s">
-        <v>623</v>
+        <v>519</v>
       </c>
       <c r="G107" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H107" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I107" t="s">
-        <v>624</v>
+        <v>520</v>
       </c>
       <c r="J107" t="s">
-        <v>625</v>
+        <v>521</v>
       </c>
       <c r="K107" t="s"/>
       <c r="L107" t="s"/>
@@ -9580,10 +8947,10 @@
         <v>1</v>
       </c>
       <c r="N107" t="s">
-        <v>626</v>
+        <v>522</v>
       </c>
       <c r="O107" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="P107" t="n">
         <v>2</v>
@@ -9604,50 +8971,49 @@
       <c r="V107" t="n">
         <v>0</v>
       </c>
+      <c r="W107" t="s"/>
+      <c r="X107" t="s"/>
+      <c r="Y107" t="s"/>
     </row>
     <row r="108">
       <c r="A108" t="n">
         <v>3572</v>
       </c>
-      <c r="B108" t="n">
-        <v>129797</v>
-      </c>
-      <c r="C108" t="s">
-        <v>627</v>
-      </c>
+      <c r="B108" t="s"/>
+      <c r="C108" t="s"/>
       <c r="D108" t="n">
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F108" t="s">
-        <v>628</v>
+        <v>523</v>
       </c>
       <c r="G108" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H108" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I108" t="s">
-        <v>629</v>
+        <v>524</v>
       </c>
       <c r="J108" t="s">
-        <v>630</v>
+        <v>525</v>
       </c>
       <c r="K108" t="s"/>
       <c r="L108" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
       <c r="N108" t="s">
-        <v>626</v>
+        <v>522</v>
       </c>
       <c r="O108" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="P108" t="n">
         <v>1</v>
@@ -9671,52 +9037,48 @@
       <c r="W108" t="s"/>
       <c r="X108" t="s"/>
       <c r="Y108" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
         <v>3572</v>
       </c>
-      <c r="B109" t="n">
-        <v>129798</v>
-      </c>
-      <c r="C109" t="s">
-        <v>631</v>
-      </c>
+      <c r="B109" t="s"/>
+      <c r="C109" t="s"/>
       <c r="D109" t="n">
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F109" t="s">
-        <v>632</v>
+        <v>526</v>
       </c>
       <c r="G109" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H109" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I109" t="s">
-        <v>633</v>
+        <v>527</v>
       </c>
       <c r="J109" t="s">
-        <v>634</v>
+        <v>528</v>
       </c>
       <c r="K109" t="s"/>
       <c r="L109" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
       <c r="N109" t="s">
-        <v>626</v>
+        <v>522</v>
       </c>
       <c r="O109" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="P109" t="n">
         <v>1</v>
@@ -9740,39 +9102,35 @@
       <c r="W109" t="s"/>
       <c r="X109" t="s"/>
       <c r="Y109" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
         <v>3572</v>
       </c>
-      <c r="B110" t="n">
-        <v>51483</v>
-      </c>
-      <c r="C110" t="s">
-        <v>635</v>
-      </c>
+      <c r="B110" t="s"/>
+      <c r="C110" t="s"/>
       <c r="D110" t="n">
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F110" t="s">
-        <v>636</v>
+        <v>529</v>
       </c>
       <c r="G110" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H110" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I110" t="s">
-        <v>637</v>
+        <v>530</v>
       </c>
       <c r="J110" t="s">
-        <v>638</v>
+        <v>531</v>
       </c>
       <c r="K110" t="s"/>
       <c r="L110" t="s"/>
@@ -9780,10 +9138,10 @@
         <v>3</v>
       </c>
       <c r="N110" t="s">
-        <v>626</v>
+        <v>522</v>
       </c>
       <c r="O110" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="P110" t="n">
         <v>3</v>
@@ -9804,52 +9162,51 @@
       <c r="V110" t="n">
         <v>0</v>
       </c>
+      <c r="W110" t="s"/>
+      <c r="X110" t="s"/>
+      <c r="Y110" t="s"/>
     </row>
     <row r="111">
       <c r="A111" t="n">
         <v>3572</v>
       </c>
-      <c r="B111" t="n">
-        <v>129799</v>
-      </c>
-      <c r="C111" t="s">
-        <v>639</v>
-      </c>
+      <c r="B111" t="s"/>
+      <c r="C111" t="s"/>
       <c r="D111" t="n">
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F111" t="s">
-        <v>640</v>
+        <v>532</v>
       </c>
       <c r="G111" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H111" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I111" t="s">
-        <v>641</v>
+        <v>533</v>
       </c>
       <c r="J111" t="s">
-        <v>642</v>
+        <v>534</v>
       </c>
       <c r="K111" t="s">
-        <v>643</v>
+        <v>535</v>
       </c>
       <c r="L111" t="s">
-        <v>644</v>
+        <v>536</v>
       </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
       <c r="N111" t="s">
-        <v>645</v>
+        <v>537</v>
       </c>
       <c r="O111" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P111" t="n">
         <v>1</v>
@@ -9873,54 +9230,50 @@
       <c r="W111" t="s"/>
       <c r="X111" t="s"/>
       <c r="Y111" t="s">
-        <v>646</v>
+        <v>538</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
         <v>3572</v>
       </c>
-      <c r="B112" t="n">
-        <v>129800</v>
-      </c>
-      <c r="C112" t="s">
-        <v>647</v>
-      </c>
+      <c r="B112" t="s"/>
+      <c r="C112" t="s"/>
       <c r="D112" t="n">
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F112" t="s">
-        <v>648</v>
+        <v>539</v>
       </c>
       <c r="G112" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H112" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I112" t="s">
-        <v>649</v>
+        <v>540</v>
       </c>
       <c r="J112" t="s">
-        <v>650</v>
+        <v>541</v>
       </c>
       <c r="K112" t="s">
-        <v>651</v>
+        <v>542</v>
       </c>
       <c r="L112" t="s">
-        <v>652</v>
+        <v>543</v>
       </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
       <c r="N112" t="s">
-        <v>645</v>
+        <v>537</v>
       </c>
       <c r="O112" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="P112" t="n">
         <v>1</v>
@@ -9944,54 +9297,50 @@
       <c r="W112" t="s"/>
       <c r="X112" t="s"/>
       <c r="Y112" t="s">
-        <v>653</v>
+        <v>544</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
         <v>3572</v>
       </c>
-      <c r="B113" t="n">
-        <v>129801</v>
-      </c>
-      <c r="C113" t="s">
-        <v>654</v>
-      </c>
+      <c r="B113" t="s"/>
+      <c r="C113" t="s"/>
       <c r="D113" t="n">
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F113" t="s">
-        <v>655</v>
+        <v>545</v>
       </c>
       <c r="G113" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H113" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I113" t="s">
-        <v>656</v>
+        <v>546</v>
       </c>
       <c r="J113" t="s">
-        <v>657</v>
+        <v>547</v>
       </c>
       <c r="K113" t="s">
-        <v>658</v>
+        <v>548</v>
       </c>
       <c r="L113" t="s">
-        <v>659</v>
+        <v>549</v>
       </c>
       <c r="M113" t="n">
         <v>2</v>
       </c>
       <c r="N113" t="s">
-        <v>660</v>
+        <v>550</v>
       </c>
       <c r="O113" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="P113" t="n">
         <v>5</v>
@@ -10015,54 +9364,50 @@
       <c r="W113" t="s"/>
       <c r="X113" t="s"/>
       <c r="Y113" t="s">
-        <v>659</v>
+        <v>549</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
         <v>3572</v>
       </c>
-      <c r="B114" t="n">
-        <v>7662</v>
-      </c>
-      <c r="C114" t="s">
-        <v>661</v>
-      </c>
+      <c r="B114" t="s"/>
+      <c r="C114" t="s"/>
       <c r="D114" t="n">
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F114" t="s">
-        <v>662</v>
+        <v>551</v>
       </c>
       <c r="G114" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H114" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I114" t="s">
-        <v>663</v>
+        <v>552</v>
       </c>
       <c r="J114" t="s">
-        <v>664</v>
+        <v>553</v>
       </c>
       <c r="K114" t="s">
-        <v>260</v>
+        <v>225</v>
       </c>
       <c r="L114" t="s">
-        <v>665</v>
+        <v>554</v>
       </c>
       <c r="M114" t="n">
         <v>2</v>
       </c>
       <c r="N114" t="s">
-        <v>666</v>
+        <v>555</v>
       </c>
       <c r="O114" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="P114" t="n">
         <v>3</v>
@@ -10086,54 +9431,50 @@
       <c r="W114" t="s"/>
       <c r="X114" t="s"/>
       <c r="Y114" t="s">
-        <v>667</v>
+        <v>556</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
         <v>3572</v>
       </c>
-      <c r="B115" t="n">
-        <v>129802</v>
-      </c>
-      <c r="C115" t="s">
-        <v>668</v>
-      </c>
+      <c r="B115" t="s"/>
+      <c r="C115" t="s"/>
       <c r="D115" t="n">
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F115" t="s">
-        <v>669</v>
+        <v>557</v>
       </c>
       <c r="G115" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H115" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I115" t="s">
-        <v>670</v>
+        <v>558</v>
       </c>
       <c r="J115" t="s">
-        <v>671</v>
+        <v>559</v>
       </c>
       <c r="K115" t="s">
-        <v>672</v>
+        <v>560</v>
       </c>
       <c r="L115" t="s">
-        <v>673</v>
+        <v>561</v>
       </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
       <c r="N115" t="s">
-        <v>674</v>
+        <v>562</v>
       </c>
       <c r="O115" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="P115" t="n">
         <v>1</v>
@@ -10157,54 +9498,50 @@
       <c r="W115" t="s"/>
       <c r="X115" t="s"/>
       <c r="Y115" t="s">
-        <v>675</v>
+        <v>563</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
         <v>3572</v>
       </c>
-      <c r="B116" t="n">
-        <v>3657</v>
-      </c>
-      <c r="C116" t="s">
-        <v>439</v>
-      </c>
+      <c r="B116" t="s"/>
+      <c r="C116" t="s"/>
       <c r="D116" t="n">
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F116" t="s">
-        <v>676</v>
+        <v>564</v>
       </c>
       <c r="G116" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H116" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I116" t="s">
-        <v>677</v>
+        <v>565</v>
       </c>
       <c r="J116" t="s">
-        <v>678</v>
+        <v>566</v>
       </c>
       <c r="K116" t="s">
-        <v>679</v>
+        <v>567</v>
       </c>
       <c r="L116" t="s">
-        <v>680</v>
+        <v>568</v>
       </c>
       <c r="M116" t="n">
         <v>3</v>
       </c>
       <c r="N116" t="s">
-        <v>681</v>
+        <v>569</v>
       </c>
       <c r="O116" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P116" t="n">
         <v>3</v>
@@ -10228,54 +9565,50 @@
       <c r="W116" t="s"/>
       <c r="X116" t="s"/>
       <c r="Y116" t="s">
-        <v>680</v>
+        <v>568</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
         <v>3572</v>
       </c>
-      <c r="B117" t="n">
-        <v>2155</v>
-      </c>
-      <c r="C117" t="s">
-        <v>682</v>
-      </c>
+      <c r="B117" t="s"/>
+      <c r="C117" t="s"/>
       <c r="D117" t="n">
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F117" t="s">
-        <v>683</v>
+        <v>570</v>
       </c>
       <c r="G117" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H117" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I117" t="s">
-        <v>684</v>
+        <v>571</v>
       </c>
       <c r="J117" t="s">
-        <v>685</v>
+        <v>572</v>
       </c>
       <c r="K117" t="s">
-        <v>686</v>
+        <v>573</v>
       </c>
       <c r="L117" t="s">
-        <v>687</v>
+        <v>574</v>
       </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
       <c r="N117" t="s">
-        <v>688</v>
+        <v>575</v>
       </c>
       <c r="O117" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="P117" t="n">
         <v>1</v>
@@ -10299,54 +9632,50 @@
       <c r="W117" t="s"/>
       <c r="X117" t="s"/>
       <c r="Y117" t="s">
-        <v>689</v>
+        <v>576</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
         <v>3572</v>
       </c>
-      <c r="B118" t="n">
-        <v>129803</v>
-      </c>
-      <c r="C118" t="s">
-        <v>690</v>
-      </c>
+      <c r="B118" t="s"/>
+      <c r="C118" t="s"/>
       <c r="D118" t="n">
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F118" t="s">
-        <v>691</v>
+        <v>577</v>
       </c>
       <c r="G118" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H118" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I118" t="s">
-        <v>692</v>
+        <v>578</v>
       </c>
       <c r="J118" t="s">
-        <v>693</v>
+        <v>579</v>
       </c>
       <c r="K118" t="s">
-        <v>694</v>
+        <v>580</v>
       </c>
       <c r="L118" t="s">
-        <v>695</v>
+        <v>581</v>
       </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
       <c r="N118" t="s">
-        <v>696</v>
+        <v>582</v>
       </c>
       <c r="O118" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P118" t="n">
         <v>2</v>
@@ -10370,54 +9699,50 @@
       <c r="W118" t="s"/>
       <c r="X118" t="s"/>
       <c r="Y118" t="s">
-        <v>695</v>
+        <v>581</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
         <v>3572</v>
       </c>
-      <c r="B119" t="n">
-        <v>129804</v>
-      </c>
-      <c r="C119" t="s">
-        <v>697</v>
-      </c>
+      <c r="B119" t="s"/>
+      <c r="C119" t="s"/>
       <c r="D119" t="n">
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F119" t="s">
-        <v>698</v>
+        <v>583</v>
       </c>
       <c r="G119" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H119" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I119" t="s">
-        <v>699</v>
+        <v>584</v>
       </c>
       <c r="J119" t="s">
-        <v>700</v>
+        <v>585</v>
       </c>
       <c r="K119" t="s">
-        <v>701</v>
+        <v>586</v>
       </c>
       <c r="L119" t="s">
-        <v>702</v>
+        <v>587</v>
       </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
       <c r="N119" t="s">
-        <v>703</v>
+        <v>588</v>
       </c>
       <c r="O119" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P119" t="n">
         <v>1</v>
@@ -10439,54 +9764,50 @@
       <c r="W119" t="s"/>
       <c r="X119" t="s"/>
       <c r="Y119" t="s">
-        <v>702</v>
+        <v>587</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
         <v>3572</v>
       </c>
-      <c r="B120" t="n">
-        <v>129805</v>
-      </c>
-      <c r="C120" t="s">
-        <v>704</v>
-      </c>
+      <c r="B120" t="s"/>
+      <c r="C120" t="s"/>
       <c r="D120" t="n">
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F120" t="s">
-        <v>705</v>
+        <v>589</v>
       </c>
       <c r="G120" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H120" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I120" t="s">
-        <v>706</v>
+        <v>590</v>
       </c>
       <c r="J120" t="s">
-        <v>707</v>
+        <v>591</v>
       </c>
       <c r="K120" t="s">
-        <v>708</v>
+        <v>592</v>
       </c>
       <c r="L120" t="s">
-        <v>709</v>
+        <v>593</v>
       </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
       <c r="N120" t="s">
-        <v>710</v>
+        <v>594</v>
       </c>
       <c r="O120" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P120" t="n">
         <v>1</v>
@@ -10510,45 +9831,41 @@
       <c r="W120" t="s"/>
       <c r="X120" t="s"/>
       <c r="Y120" t="s">
-        <v>711</v>
+        <v>595</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
         <v>3572</v>
       </c>
-      <c r="B121" t="n">
-        <v>129806</v>
-      </c>
-      <c r="C121" t="s">
-        <v>712</v>
-      </c>
+      <c r="B121" t="s"/>
+      <c r="C121" t="s"/>
       <c r="D121" t="n">
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F121" t="s">
-        <v>713</v>
+        <v>596</v>
       </c>
       <c r="G121" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H121" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I121" t="s">
-        <v>714</v>
+        <v>597</v>
       </c>
       <c r="J121" t="s">
-        <v>715</v>
+        <v>598</v>
       </c>
       <c r="K121" t="s">
-        <v>716</v>
+        <v>599</v>
       </c>
       <c r="L121" t="s">
-        <v>717</v>
+        <v>600</v>
       </c>
       <c r="M121" t="n">
         <v>1</v>
@@ -10567,54 +9884,50 @@
       <c r="W121" t="s"/>
       <c r="X121" t="s"/>
       <c r="Y121" t="s">
-        <v>718</v>
+        <v>601</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
         <v>3572</v>
       </c>
-      <c r="B122" t="n">
-        <v>129807</v>
-      </c>
-      <c r="C122" t="s">
-        <v>719</v>
-      </c>
+      <c r="B122" t="s"/>
+      <c r="C122" t="s"/>
       <c r="D122" t="n">
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F122" t="s">
-        <v>720</v>
+        <v>602</v>
       </c>
       <c r="G122" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H122" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I122" t="s">
-        <v>721</v>
+        <v>603</v>
       </c>
       <c r="J122" t="s">
-        <v>722</v>
+        <v>604</v>
       </c>
       <c r="K122" t="s">
-        <v>723</v>
+        <v>605</v>
       </c>
       <c r="L122" t="s">
-        <v>724</v>
+        <v>606</v>
       </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
       <c r="N122" t="s">
-        <v>725</v>
+        <v>607</v>
       </c>
       <c r="O122" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P122" t="n">
         <v>1</v>
@@ -10638,45 +9951,41 @@
       <c r="W122" t="s"/>
       <c r="X122" t="s"/>
       <c r="Y122" t="s">
-        <v>724</v>
+        <v>606</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
         <v>3572</v>
       </c>
-      <c r="B123" t="n">
-        <v>129808</v>
-      </c>
-      <c r="C123" t="s">
-        <v>726</v>
-      </c>
+      <c r="B123" t="s"/>
+      <c r="C123" t="s"/>
       <c r="D123" t="n">
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F123" t="s">
-        <v>727</v>
+        <v>608</v>
       </c>
       <c r="G123" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H123" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I123" t="s">
-        <v>728</v>
+        <v>609</v>
       </c>
       <c r="J123" t="s">
-        <v>729</v>
+        <v>610</v>
       </c>
       <c r="K123" t="s">
-        <v>730</v>
+        <v>611</v>
       </c>
       <c r="L123" t="s">
-        <v>731</v>
+        <v>612</v>
       </c>
       <c r="M123" t="n">
         <v>1</v>
@@ -10695,7 +10004,7 @@
       <c r="W123" t="s"/>
       <c r="X123" t="s"/>
       <c r="Y123" t="s">
-        <v>731</v>
+        <v>612</v>
       </c>
     </row>
   </sheetData>
